--- a/Code/Results/Cases/Case_1_8/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_8/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.8395753201307489</v>
+        <v>0.8395753201307513</v>
       </c>
       <c r="D2">
-        <v>1.014054878543596</v>
+        <v>1.014054878543597</v>
       </c>
       <c r="E2">
-        <v>0.8651528196198638</v>
+        <v>0.8651528196198663</v>
       </c>
       <c r="F2">
-        <v>0.8052460614416405</v>
+        <v>0.8052460614416433</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -439,16 +439,16 @@
         <v>1.02907282500138</v>
       </c>
       <c r="J2">
-        <v>0.8679019579860369</v>
+        <v>0.8679019579860392</v>
       </c>
       <c r="K2">
         <v>1.02532181856158</v>
       </c>
       <c r="L2">
-        <v>0.8788764244994086</v>
+        <v>0.8788764244994112</v>
       </c>
       <c r="M2">
-        <v>0.8203037492871237</v>
+        <v>0.8203037492871265</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,16 +459,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.8715788279976889</v>
+        <v>0.8715788279976903</v>
       </c>
       <c r="D3">
-        <v>1.019514257599566</v>
+        <v>1.019514257599567</v>
       </c>
       <c r="E3">
-        <v>0.8927081676060818</v>
+        <v>0.8927081676060833</v>
       </c>
       <c r="F3">
-        <v>0.8433056945980496</v>
+        <v>0.8433056945980514</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -477,16 +477,16 @@
         <v>1.033679229708416</v>
       </c>
       <c r="J3">
-        <v>0.8963089312566591</v>
+        <v>0.8963089312566606</v>
       </c>
       <c r="K3">
-        <v>1.029903392969047</v>
+        <v>1.029903392969048</v>
       </c>
       <c r="L3">
-        <v>0.9049267132092456</v>
+        <v>0.9049267132092472</v>
       </c>
       <c r="M3">
-        <v>0.8564325884999285</v>
+        <v>0.8564325884999303</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.8892264595045543</v>
+        <v>0.8892264595045554</v>
       </c>
       <c r="D4">
         <v>1.02265676434064</v>
       </c>
       <c r="E4">
-        <v>0.9079371856209968</v>
+        <v>0.907937185620998</v>
       </c>
       <c r="F4">
-        <v>0.8641769168586462</v>
+        <v>0.8641769168586479</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,16 +515,16 @@
         <v>1.03623584675315</v>
       </c>
       <c r="J4">
-        <v>0.9119614294293558</v>
+        <v>0.911961429429357</v>
       </c>
       <c r="K4">
-        <v>1.032489221199554</v>
+        <v>1.032489221199553</v>
       </c>
       <c r="L4">
-        <v>0.9192902917732259</v>
+        <v>0.9192902917732271</v>
       </c>
       <c r="M4">
-        <v>0.8762477075697378</v>
+        <v>0.8762477075697392</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,16 +535,16 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.8961125313199858</v>
+        <v>0.896112531319988</v>
       </c>
       <c r="D5">
         <v>1.023907622357624</v>
       </c>
       <c r="E5">
-        <v>0.9138851841368987</v>
+        <v>0.9138851841369006</v>
       </c>
       <c r="F5">
-        <v>0.8723033551941571</v>
+        <v>0.8723033551941597</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -553,16 +553,16 @@
         <v>1.037234617147266</v>
       </c>
       <c r="J5">
-        <v>0.9180656281224097</v>
+        <v>0.9180656281224117</v>
       </c>
       <c r="K5">
-        <v>1.033508230634824</v>
+        <v>1.033508230634823</v>
       </c>
       <c r="L5">
-        <v>0.9248933021118851</v>
+        <v>0.924893302111887</v>
       </c>
       <c r="M5">
-        <v>0.8839623123873874</v>
+        <v>0.8839623123873902</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.8972414737678155</v>
+        <v>0.8972414737678144</v>
       </c>
       <c r="D6">
         <v>1.024113993741413</v>
       </c>
       <c r="E6">
-        <v>0.9148606141421999</v>
+        <v>0.9148606141421989</v>
       </c>
       <c r="F6">
-        <v>0.8736348257680524</v>
+        <v>0.8736348257680512</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.037398369116618</v>
+        <v>1.037398369116617</v>
       </c>
       <c r="J6">
-        <v>0.9190661752364189</v>
+        <v>0.9190661752364179</v>
       </c>
       <c r="K6">
         <v>1.033675790063364</v>
       </c>
       <c r="L6">
-        <v>0.9258117682925041</v>
+        <v>0.9258117682925031</v>
       </c>
       <c r="M6">
-        <v>0.8852262444772047</v>
+        <v>0.8852262444772034</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,7 +611,7 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.8893203759891726</v>
+        <v>0.8893203759891727</v>
       </c>
       <c r="D7">
         <v>1.022673732269015</v>
@@ -620,7 +620,7 @@
         <v>0.9080182877996015</v>
       </c>
       <c r="F7">
-        <v>0.8642878107465003</v>
+        <v>0.8642878107465012</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1.036249466787479</v>
       </c>
       <c r="J7">
-        <v>0.9120446964168301</v>
+        <v>0.9120446964168303</v>
       </c>
       <c r="K7">
         <v>1.032503083128112</v>
       </c>
       <c r="L7">
-        <v>0.9193667169853392</v>
+        <v>0.9193667169853396</v>
       </c>
       <c r="M7">
-        <v>0.8763529852982931</v>
+        <v>0.8763529852982939</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -655,10 +655,10 @@
         <v>1.015999440133614</v>
       </c>
       <c r="E8">
-        <v>0.875141116574727</v>
+        <v>0.8751411165747269</v>
       </c>
       <c r="F8">
-        <v>0.8190921745315817</v>
+        <v>0.8190921745315819</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -673,10 +673,10 @@
         <v>1.026966963809897</v>
       </c>
       <c r="L8">
-        <v>0.8883278617658624</v>
+        <v>0.8883278617658623</v>
       </c>
       <c r="M8">
-        <v>0.8334456103026854</v>
+        <v>0.8334456103026853</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.7260738632208704</v>
+        <v>0.7260738632208729</v>
       </c>
       <c r="D9">
-        <v>0.9973435177897612</v>
+        <v>0.9973435177897618</v>
       </c>
       <c r="E9">
-        <v>0.7683501141918659</v>
+        <v>0.7683501141918679</v>
       </c>
       <c r="F9">
-        <v>0.6661461487420022</v>
+        <v>0.6661461487420054</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.013448029665475</v>
+        <v>1.013448029665476</v>
       </c>
       <c r="J9">
-        <v>0.7671403512235042</v>
+        <v>0.7671403512235065</v>
       </c>
       <c r="K9">
-        <v>1.010479842102284</v>
+        <v>1.010479842102285</v>
       </c>
       <c r="L9">
-        <v>0.7867906717966832</v>
+        <v>0.7867906717966852</v>
       </c>
       <c r="M9">
-        <v>0.6886941267662208</v>
+        <v>0.6886941267662237</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.7260738632208704</v>
+        <v>0.7260738632208729</v>
       </c>
       <c r="D10">
-        <v>0.9973435177897612</v>
+        <v>0.9973435177897618</v>
       </c>
       <c r="E10">
-        <v>0.7683501141918659</v>
+        <v>0.7683501141918679</v>
       </c>
       <c r="F10">
-        <v>0.6661461487420022</v>
+        <v>0.6661461487420054</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.013448029665475</v>
+        <v>1.013448029665476</v>
       </c>
       <c r="J10">
-        <v>0.7671403512235042</v>
+        <v>0.7671403512235065</v>
       </c>
       <c r="K10">
-        <v>1.010479842102284</v>
+        <v>1.010479842102285</v>
       </c>
       <c r="L10">
-        <v>0.7867906717966832</v>
+        <v>0.7867906717966852</v>
       </c>
       <c r="M10">
-        <v>0.6886941267662208</v>
+        <v>0.6886941267662237</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.7260738632208704</v>
+        <v>0.7260738632208729</v>
       </c>
       <c r="D11">
-        <v>0.9973435177897612</v>
+        <v>0.9973435177897618</v>
       </c>
       <c r="E11">
-        <v>0.7683501141918659</v>
+        <v>0.7683501141918679</v>
       </c>
       <c r="F11">
-        <v>0.6661461487420022</v>
+        <v>0.6661461487420054</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.013448029665475</v>
+        <v>1.013448029665476</v>
       </c>
       <c r="J11">
-        <v>0.7671403512235042</v>
+        <v>0.7671403512235065</v>
       </c>
       <c r="K11">
-        <v>1.010479842102284</v>
+        <v>1.010479842102285</v>
       </c>
       <c r="L11">
-        <v>0.7867906717966832</v>
+        <v>0.7867906717966852</v>
       </c>
       <c r="M11">
-        <v>0.6886941267662208</v>
+        <v>0.6886941267662237</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.7260738632208704</v>
+        <v>0.7260738632208729</v>
       </c>
       <c r="D12">
-        <v>0.9973435177897612</v>
+        <v>0.9973435177897618</v>
       </c>
       <c r="E12">
-        <v>0.7683501141918659</v>
+        <v>0.7683501141918679</v>
       </c>
       <c r="F12">
-        <v>0.6661461487420022</v>
+        <v>0.6661461487420054</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.013448029665475</v>
+        <v>1.013448029665476</v>
       </c>
       <c r="J12">
-        <v>0.7671403512235042</v>
+        <v>0.7671403512235065</v>
       </c>
       <c r="K12">
-        <v>1.010479842102284</v>
+        <v>1.010479842102285</v>
       </c>
       <c r="L12">
-        <v>0.7867906717966832</v>
+        <v>0.7867906717966852</v>
       </c>
       <c r="M12">
-        <v>0.6886941267662208</v>
+        <v>0.6886941267662237</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.7260738632208704</v>
+        <v>0.7260738632208729</v>
       </c>
       <c r="D13">
-        <v>0.9973435177897612</v>
+        <v>0.9973435177897618</v>
       </c>
       <c r="E13">
-        <v>0.7683501141918659</v>
+        <v>0.7683501141918679</v>
       </c>
       <c r="F13">
-        <v>0.6661461487420022</v>
+        <v>0.6661461487420054</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.013448029665475</v>
+        <v>1.013448029665476</v>
       </c>
       <c r="J13">
-        <v>0.7671403512235042</v>
+        <v>0.7671403512235065</v>
       </c>
       <c r="K13">
-        <v>1.010479842102284</v>
+        <v>1.010479842102285</v>
       </c>
       <c r="L13">
-        <v>0.7867906717966832</v>
+        <v>0.7867906717966852</v>
       </c>
       <c r="M13">
-        <v>0.6886941267662208</v>
+        <v>0.6886941267662237</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.7260738632208704</v>
+        <v>0.7260738632208729</v>
       </c>
       <c r="D14">
-        <v>0.9973435177897612</v>
+        <v>0.9973435177897618</v>
       </c>
       <c r="E14">
-        <v>0.7683501141918659</v>
+        <v>0.7683501141918679</v>
       </c>
       <c r="F14">
-        <v>0.6661461487420022</v>
+        <v>0.6661461487420054</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.013448029665475</v>
+        <v>1.013448029665476</v>
       </c>
       <c r="J14">
-        <v>0.7671403512235042</v>
+        <v>0.7671403512235065</v>
       </c>
       <c r="K14">
-        <v>1.010479842102284</v>
+        <v>1.010479842102285</v>
       </c>
       <c r="L14">
-        <v>0.7867906717966832</v>
+        <v>0.7867906717966852</v>
       </c>
       <c r="M14">
-        <v>0.6886941267662208</v>
+        <v>0.6886941267662237</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.7260738632208704</v>
+        <v>0.7260738632208729</v>
       </c>
       <c r="D15">
-        <v>0.9973435177897612</v>
+        <v>0.9973435177897618</v>
       </c>
       <c r="E15">
-        <v>0.7683501141918659</v>
+        <v>0.7683501141918679</v>
       </c>
       <c r="F15">
-        <v>0.6661461487420022</v>
+        <v>0.6661461487420054</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.013448029665475</v>
+        <v>1.013448029665476</v>
       </c>
       <c r="J15">
-        <v>0.7671403512235042</v>
+        <v>0.7671403512235065</v>
       </c>
       <c r="K15">
-        <v>1.010479842102284</v>
+        <v>1.010479842102285</v>
       </c>
       <c r="L15">
-        <v>0.7867906717966832</v>
+        <v>0.7867906717966852</v>
       </c>
       <c r="M15">
-        <v>0.6886941267662208</v>
+        <v>0.6886941267662237</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.7260738632208704</v>
+        <v>0.7260738632208729</v>
       </c>
       <c r="D16">
-        <v>0.9973435177897612</v>
+        <v>0.9973435177897618</v>
       </c>
       <c r="E16">
-        <v>0.7683501141918659</v>
+        <v>0.7683501141918679</v>
       </c>
       <c r="F16">
-        <v>0.6661461487420022</v>
+        <v>0.6661461487420054</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.013448029665475</v>
+        <v>1.013448029665476</v>
       </c>
       <c r="J16">
-        <v>0.7671403512235042</v>
+        <v>0.7671403512235065</v>
       </c>
       <c r="K16">
-        <v>1.010479842102284</v>
+        <v>1.010479842102285</v>
       </c>
       <c r="L16">
-        <v>0.7867906717966832</v>
+        <v>0.7867906717966852</v>
       </c>
       <c r="M16">
-        <v>0.6886941267662208</v>
+        <v>0.6886941267662237</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.7260738632208704</v>
+        <v>0.7260738632208729</v>
       </c>
       <c r="D17">
-        <v>0.9973435177897612</v>
+        <v>0.9973435177897618</v>
       </c>
       <c r="E17">
-        <v>0.7683501141918659</v>
+        <v>0.7683501141918679</v>
       </c>
       <c r="F17">
-        <v>0.6661461487420022</v>
+        <v>0.6661461487420054</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.013448029665475</v>
+        <v>1.013448029665476</v>
       </c>
       <c r="J17">
-        <v>0.7671403512235042</v>
+        <v>0.7671403512235065</v>
       </c>
       <c r="K17">
-        <v>1.010479842102284</v>
+        <v>1.010479842102285</v>
       </c>
       <c r="L17">
-        <v>0.7867906717966832</v>
+        <v>0.7867906717966852</v>
       </c>
       <c r="M17">
-        <v>0.6886941267662208</v>
+        <v>0.6886941267662237</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.7260738632208704</v>
+        <v>0.7260738632208729</v>
       </c>
       <c r="D18">
-        <v>0.9973435177897612</v>
+        <v>0.9973435177897618</v>
       </c>
       <c r="E18">
-        <v>0.7683501141918659</v>
+        <v>0.7683501141918679</v>
       </c>
       <c r="F18">
-        <v>0.6661461487420022</v>
+        <v>0.6661461487420054</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.013448029665475</v>
+        <v>1.013448029665476</v>
       </c>
       <c r="J18">
-        <v>0.7671403512235042</v>
+        <v>0.7671403512235065</v>
       </c>
       <c r="K18">
-        <v>1.010479842102284</v>
+        <v>1.010479842102285</v>
       </c>
       <c r="L18">
-        <v>0.7867906717966832</v>
+        <v>0.7867906717966852</v>
       </c>
       <c r="M18">
-        <v>0.6886941267662208</v>
+        <v>0.6886941267662237</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.7260738632208704</v>
+        <v>0.7260738632208729</v>
       </c>
       <c r="D19">
-        <v>0.9973435177897612</v>
+        <v>0.9973435177897618</v>
       </c>
       <c r="E19">
-        <v>0.7683501141918659</v>
+        <v>0.7683501141918679</v>
       </c>
       <c r="F19">
-        <v>0.6661461487420022</v>
+        <v>0.6661461487420054</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.013448029665475</v>
+        <v>1.013448029665476</v>
       </c>
       <c r="J19">
-        <v>0.7671403512235042</v>
+        <v>0.7671403512235065</v>
       </c>
       <c r="K19">
-        <v>1.010479842102284</v>
+        <v>1.010479842102285</v>
       </c>
       <c r="L19">
-        <v>0.7867906717966832</v>
+        <v>0.7867906717966852</v>
       </c>
       <c r="M19">
-        <v>0.6886941267662208</v>
+        <v>0.6886941267662237</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.7260738632208704</v>
+        <v>0.7260738632208729</v>
       </c>
       <c r="D20">
-        <v>0.9973435177897612</v>
+        <v>0.9973435177897618</v>
       </c>
       <c r="E20">
-        <v>0.7683501141918659</v>
+        <v>0.7683501141918679</v>
       </c>
       <c r="F20">
-        <v>0.6661461487420022</v>
+        <v>0.6661461487420054</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.013448029665475</v>
+        <v>1.013448029665476</v>
       </c>
       <c r="J20">
-        <v>0.7671403512235042</v>
+        <v>0.7671403512235065</v>
       </c>
       <c r="K20">
-        <v>1.010479842102284</v>
+        <v>1.010479842102285</v>
       </c>
       <c r="L20">
-        <v>0.7867906717966832</v>
+        <v>0.7867906717966852</v>
       </c>
       <c r="M20">
-        <v>0.6886941267662208</v>
+        <v>0.6886941267662237</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.7260738632208704</v>
+        <v>0.7260738632208729</v>
       </c>
       <c r="D21">
-        <v>0.9973435177897612</v>
+        <v>0.9973435177897618</v>
       </c>
       <c r="E21">
-        <v>0.7683501141918659</v>
+        <v>0.7683501141918679</v>
       </c>
       <c r="F21">
-        <v>0.6661461487420022</v>
+        <v>0.6661461487420054</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.013448029665475</v>
+        <v>1.013448029665476</v>
       </c>
       <c r="J21">
-        <v>0.7671403512235042</v>
+        <v>0.7671403512235065</v>
       </c>
       <c r="K21">
-        <v>1.010479842102284</v>
+        <v>1.010479842102285</v>
       </c>
       <c r="L21">
-        <v>0.7867906717966832</v>
+        <v>0.7867906717966852</v>
       </c>
       <c r="M21">
-        <v>0.6886941267662208</v>
+        <v>0.6886941267662237</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.7260738632208704</v>
+        <v>0.7260738632208729</v>
       </c>
       <c r="D22">
-        <v>0.9973435177897612</v>
+        <v>0.9973435177897618</v>
       </c>
       <c r="E22">
-        <v>0.7683501141918659</v>
+        <v>0.7683501141918679</v>
       </c>
       <c r="F22">
-        <v>0.6661461487420022</v>
+        <v>0.6661461487420054</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.013448029665475</v>
+        <v>1.013448029665476</v>
       </c>
       <c r="J22">
-        <v>0.7671403512235042</v>
+        <v>0.7671403512235065</v>
       </c>
       <c r="K22">
-        <v>1.010479842102284</v>
+        <v>1.010479842102285</v>
       </c>
       <c r="L22">
-        <v>0.7867906717966832</v>
+        <v>0.7867906717966852</v>
       </c>
       <c r="M22">
-        <v>0.6886941267662208</v>
+        <v>0.6886941267662237</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.7260738632208704</v>
+        <v>0.7260738632208729</v>
       </c>
       <c r="D23">
-        <v>0.9973435177897612</v>
+        <v>0.9973435177897618</v>
       </c>
       <c r="E23">
-        <v>0.7683501141918659</v>
+        <v>0.7683501141918679</v>
       </c>
       <c r="F23">
-        <v>0.6661461487420022</v>
+        <v>0.6661461487420054</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.013448029665475</v>
+        <v>1.013448029665476</v>
       </c>
       <c r="J23">
-        <v>0.7671403512235042</v>
+        <v>0.7671403512235065</v>
       </c>
       <c r="K23">
-        <v>1.010479842102284</v>
+        <v>1.010479842102285</v>
       </c>
       <c r="L23">
-        <v>0.7867906717966832</v>
+        <v>0.7867906717966852</v>
       </c>
       <c r="M23">
-        <v>0.6886941267662208</v>
+        <v>0.6886941267662237</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.7260738632208704</v>
+        <v>0.7260738632208729</v>
       </c>
       <c r="D24">
-        <v>0.9973435177897612</v>
+        <v>0.9973435177897618</v>
       </c>
       <c r="E24">
-        <v>0.7683501141918659</v>
+        <v>0.7683501141918679</v>
       </c>
       <c r="F24">
-        <v>0.6661461487420022</v>
+        <v>0.6661461487420054</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.013448029665475</v>
+        <v>1.013448029665476</v>
       </c>
       <c r="J24">
-        <v>0.7671403512235042</v>
+        <v>0.7671403512235065</v>
       </c>
       <c r="K24">
-        <v>1.010479842102284</v>
+        <v>1.010479842102285</v>
       </c>
       <c r="L24">
-        <v>0.7867906717966832</v>
+        <v>0.7867906717966852</v>
       </c>
       <c r="M24">
-        <v>0.6886941267662208</v>
+        <v>0.6886941267662237</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.7260738632208704</v>
+        <v>0.7260738632208729</v>
       </c>
       <c r="D25">
-        <v>0.9973435177897612</v>
+        <v>0.9973435177897618</v>
       </c>
       <c r="E25">
-        <v>0.7683501141918659</v>
+        <v>0.7683501141918679</v>
       </c>
       <c r="F25">
-        <v>0.6661461487420022</v>
+        <v>0.6661461487420054</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.013448029665475</v>
+        <v>1.013448029665476</v>
       </c>
       <c r="J25">
-        <v>0.7671403512235042</v>
+        <v>0.7671403512235065</v>
       </c>
       <c r="K25">
-        <v>1.010479842102284</v>
+        <v>1.010479842102285</v>
       </c>
       <c r="L25">
-        <v>0.7867906717966832</v>
+        <v>0.7867906717966852</v>
       </c>
       <c r="M25">
-        <v>0.6886941267662208</v>
+        <v>0.6886941267662237</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_8/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_8/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.8395753201307513</v>
+        <v>0.8395753201307489</v>
       </c>
       <c r="D2">
-        <v>1.014054878543597</v>
+        <v>1.014054878543596</v>
       </c>
       <c r="E2">
-        <v>0.8651528196198663</v>
+        <v>0.8651528196198638</v>
       </c>
       <c r="F2">
-        <v>0.8052460614416433</v>
+        <v>0.8052460614416405</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -439,16 +439,16 @@
         <v>1.02907282500138</v>
       </c>
       <c r="J2">
-        <v>0.8679019579860392</v>
+        <v>0.8679019579860369</v>
       </c>
       <c r="K2">
         <v>1.02532181856158</v>
       </c>
       <c r="L2">
-        <v>0.8788764244994112</v>
+        <v>0.8788764244994086</v>
       </c>
       <c r="M2">
-        <v>0.8203037492871265</v>
+        <v>0.8203037492871237</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,16 +459,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.8715788279976903</v>
+        <v>0.8715788279976889</v>
       </c>
       <c r="D3">
-        <v>1.019514257599567</v>
+        <v>1.019514257599566</v>
       </c>
       <c r="E3">
-        <v>0.8927081676060833</v>
+        <v>0.8927081676060818</v>
       </c>
       <c r="F3">
-        <v>0.8433056945980514</v>
+        <v>0.8433056945980496</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -477,16 +477,16 @@
         <v>1.033679229708416</v>
       </c>
       <c r="J3">
-        <v>0.8963089312566606</v>
+        <v>0.8963089312566591</v>
       </c>
       <c r="K3">
-        <v>1.029903392969048</v>
+        <v>1.029903392969047</v>
       </c>
       <c r="L3">
-        <v>0.9049267132092472</v>
+        <v>0.9049267132092456</v>
       </c>
       <c r="M3">
-        <v>0.8564325884999303</v>
+        <v>0.8564325884999285</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.8892264595045554</v>
+        <v>0.8892264595045543</v>
       </c>
       <c r="D4">
         <v>1.02265676434064</v>
       </c>
       <c r="E4">
-        <v>0.907937185620998</v>
+        <v>0.9079371856209968</v>
       </c>
       <c r="F4">
-        <v>0.8641769168586479</v>
+        <v>0.8641769168586462</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,16 +515,16 @@
         <v>1.03623584675315</v>
       </c>
       <c r="J4">
-        <v>0.911961429429357</v>
+        <v>0.9119614294293558</v>
       </c>
       <c r="K4">
-        <v>1.032489221199553</v>
+        <v>1.032489221199554</v>
       </c>
       <c r="L4">
-        <v>0.9192902917732271</v>
+        <v>0.9192902917732259</v>
       </c>
       <c r="M4">
-        <v>0.8762477075697392</v>
+        <v>0.8762477075697378</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,16 +535,16 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.896112531319988</v>
+        <v>0.8961125313199858</v>
       </c>
       <c r="D5">
         <v>1.023907622357624</v>
       </c>
       <c r="E5">
-        <v>0.9138851841369006</v>
+        <v>0.9138851841368987</v>
       </c>
       <c r="F5">
-        <v>0.8723033551941597</v>
+        <v>0.8723033551941571</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -553,16 +553,16 @@
         <v>1.037234617147266</v>
       </c>
       <c r="J5">
-        <v>0.9180656281224117</v>
+        <v>0.9180656281224097</v>
       </c>
       <c r="K5">
-        <v>1.033508230634823</v>
+        <v>1.033508230634824</v>
       </c>
       <c r="L5">
-        <v>0.924893302111887</v>
+        <v>0.9248933021118851</v>
       </c>
       <c r="M5">
-        <v>0.8839623123873902</v>
+        <v>0.8839623123873874</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.8972414737678144</v>
+        <v>0.8972414737678155</v>
       </c>
       <c r="D6">
         <v>1.024113993741413</v>
       </c>
       <c r="E6">
-        <v>0.9148606141421989</v>
+        <v>0.9148606141421999</v>
       </c>
       <c r="F6">
-        <v>0.8736348257680512</v>
+        <v>0.8736348257680524</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.037398369116617</v>
+        <v>1.037398369116618</v>
       </c>
       <c r="J6">
-        <v>0.9190661752364179</v>
+        <v>0.9190661752364189</v>
       </c>
       <c r="K6">
         <v>1.033675790063364</v>
       </c>
       <c r="L6">
-        <v>0.9258117682925031</v>
+        <v>0.9258117682925041</v>
       </c>
       <c r="M6">
-        <v>0.8852262444772034</v>
+        <v>0.8852262444772047</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,7 +611,7 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.8893203759891727</v>
+        <v>0.8893203759891726</v>
       </c>
       <c r="D7">
         <v>1.022673732269015</v>
@@ -620,7 +620,7 @@
         <v>0.9080182877996015</v>
       </c>
       <c r="F7">
-        <v>0.8642878107465012</v>
+        <v>0.8642878107465003</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1.036249466787479</v>
       </c>
       <c r="J7">
-        <v>0.9120446964168303</v>
+        <v>0.9120446964168301</v>
       </c>
       <c r="K7">
         <v>1.032503083128112</v>
       </c>
       <c r="L7">
-        <v>0.9193667169853396</v>
+        <v>0.9193667169853392</v>
       </c>
       <c r="M7">
-        <v>0.8763529852982939</v>
+        <v>0.8763529852982931</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -655,10 +655,10 @@
         <v>1.015999440133614</v>
       </c>
       <c r="E8">
-        <v>0.8751411165747269</v>
+        <v>0.875141116574727</v>
       </c>
       <c r="F8">
-        <v>0.8190921745315819</v>
+        <v>0.8190921745315817</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -673,10 +673,10 @@
         <v>1.026966963809897</v>
       </c>
       <c r="L8">
-        <v>0.8883278617658623</v>
+        <v>0.8883278617658624</v>
       </c>
       <c r="M8">
-        <v>0.8334456103026853</v>
+        <v>0.8334456103026854</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.7260738632208729</v>
+        <v>0.7260738632208704</v>
       </c>
       <c r="D9">
-        <v>0.9973435177897618</v>
+        <v>0.9973435177897612</v>
       </c>
       <c r="E9">
-        <v>0.7683501141918679</v>
+        <v>0.7683501141918659</v>
       </c>
       <c r="F9">
-        <v>0.6661461487420054</v>
+        <v>0.6661461487420022</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.013448029665476</v>
+        <v>1.013448029665475</v>
       </c>
       <c r="J9">
-        <v>0.7671403512235065</v>
+        <v>0.7671403512235042</v>
       </c>
       <c r="K9">
-        <v>1.010479842102285</v>
+        <v>1.010479842102284</v>
       </c>
       <c r="L9">
-        <v>0.7867906717966852</v>
+        <v>0.7867906717966832</v>
       </c>
       <c r="M9">
-        <v>0.6886941267662237</v>
+        <v>0.6886941267662208</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.7260738632208729</v>
+        <v>0.7260738632208704</v>
       </c>
       <c r="D10">
-        <v>0.9973435177897618</v>
+        <v>0.9973435177897612</v>
       </c>
       <c r="E10">
-        <v>0.7683501141918679</v>
+        <v>0.7683501141918659</v>
       </c>
       <c r="F10">
-        <v>0.6661461487420054</v>
+        <v>0.6661461487420022</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.013448029665476</v>
+        <v>1.013448029665475</v>
       </c>
       <c r="J10">
-        <v>0.7671403512235065</v>
+        <v>0.7671403512235042</v>
       </c>
       <c r="K10">
-        <v>1.010479842102285</v>
+        <v>1.010479842102284</v>
       </c>
       <c r="L10">
-        <v>0.7867906717966852</v>
+        <v>0.7867906717966832</v>
       </c>
       <c r="M10">
-        <v>0.6886941267662237</v>
+        <v>0.6886941267662208</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.7260738632208729</v>
+        <v>0.7260738632208704</v>
       </c>
       <c r="D11">
-        <v>0.9973435177897618</v>
+        <v>0.9973435177897612</v>
       </c>
       <c r="E11">
-        <v>0.7683501141918679</v>
+        <v>0.7683501141918659</v>
       </c>
       <c r="F11">
-        <v>0.6661461487420054</v>
+        <v>0.6661461487420022</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.013448029665476</v>
+        <v>1.013448029665475</v>
       </c>
       <c r="J11">
-        <v>0.7671403512235065</v>
+        <v>0.7671403512235042</v>
       </c>
       <c r="K11">
-        <v>1.010479842102285</v>
+        <v>1.010479842102284</v>
       </c>
       <c r="L11">
-        <v>0.7867906717966852</v>
+        <v>0.7867906717966832</v>
       </c>
       <c r="M11">
-        <v>0.6886941267662237</v>
+        <v>0.6886941267662208</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.7260738632208729</v>
+        <v>0.7260738632208704</v>
       </c>
       <c r="D12">
-        <v>0.9973435177897618</v>
+        <v>0.9973435177897612</v>
       </c>
       <c r="E12">
-        <v>0.7683501141918679</v>
+        <v>0.7683501141918659</v>
       </c>
       <c r="F12">
-        <v>0.6661461487420054</v>
+        <v>0.6661461487420022</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.013448029665476</v>
+        <v>1.013448029665475</v>
       </c>
       <c r="J12">
-        <v>0.7671403512235065</v>
+        <v>0.7671403512235042</v>
       </c>
       <c r="K12">
-        <v>1.010479842102285</v>
+        <v>1.010479842102284</v>
       </c>
       <c r="L12">
-        <v>0.7867906717966852</v>
+        <v>0.7867906717966832</v>
       </c>
       <c r="M12">
-        <v>0.6886941267662237</v>
+        <v>0.6886941267662208</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.7260738632208729</v>
+        <v>0.7260738632208704</v>
       </c>
       <c r="D13">
-        <v>0.9973435177897618</v>
+        <v>0.9973435177897612</v>
       </c>
       <c r="E13">
-        <v>0.7683501141918679</v>
+        <v>0.7683501141918659</v>
       </c>
       <c r="F13">
-        <v>0.6661461487420054</v>
+        <v>0.6661461487420022</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.013448029665476</v>
+        <v>1.013448029665475</v>
       </c>
       <c r="J13">
-        <v>0.7671403512235065</v>
+        <v>0.7671403512235042</v>
       </c>
       <c r="K13">
-        <v>1.010479842102285</v>
+        <v>1.010479842102284</v>
       </c>
       <c r="L13">
-        <v>0.7867906717966852</v>
+        <v>0.7867906717966832</v>
       </c>
       <c r="M13">
-        <v>0.6886941267662237</v>
+        <v>0.6886941267662208</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.7260738632208729</v>
+        <v>0.7260738632208704</v>
       </c>
       <c r="D14">
-        <v>0.9973435177897618</v>
+        <v>0.9973435177897612</v>
       </c>
       <c r="E14">
-        <v>0.7683501141918679</v>
+        <v>0.7683501141918659</v>
       </c>
       <c r="F14">
-        <v>0.6661461487420054</v>
+        <v>0.6661461487420022</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.013448029665476</v>
+        <v>1.013448029665475</v>
       </c>
       <c r="J14">
-        <v>0.7671403512235065</v>
+        <v>0.7671403512235042</v>
       </c>
       <c r="K14">
-        <v>1.010479842102285</v>
+        <v>1.010479842102284</v>
       </c>
       <c r="L14">
-        <v>0.7867906717966852</v>
+        <v>0.7867906717966832</v>
       </c>
       <c r="M14">
-        <v>0.6886941267662237</v>
+        <v>0.6886941267662208</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.7260738632208729</v>
+        <v>0.7260738632208704</v>
       </c>
       <c r="D15">
-        <v>0.9973435177897618</v>
+        <v>0.9973435177897612</v>
       </c>
       <c r="E15">
-        <v>0.7683501141918679</v>
+        <v>0.7683501141918659</v>
       </c>
       <c r="F15">
-        <v>0.6661461487420054</v>
+        <v>0.6661461487420022</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.013448029665476</v>
+        <v>1.013448029665475</v>
       </c>
       <c r="J15">
-        <v>0.7671403512235065</v>
+        <v>0.7671403512235042</v>
       </c>
       <c r="K15">
-        <v>1.010479842102285</v>
+        <v>1.010479842102284</v>
       </c>
       <c r="L15">
-        <v>0.7867906717966852</v>
+        <v>0.7867906717966832</v>
       </c>
       <c r="M15">
-        <v>0.6886941267662237</v>
+        <v>0.6886941267662208</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.7260738632208729</v>
+        <v>0.7260738632208704</v>
       </c>
       <c r="D16">
-        <v>0.9973435177897618</v>
+        <v>0.9973435177897612</v>
       </c>
       <c r="E16">
-        <v>0.7683501141918679</v>
+        <v>0.7683501141918659</v>
       </c>
       <c r="F16">
-        <v>0.6661461487420054</v>
+        <v>0.6661461487420022</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.013448029665476</v>
+        <v>1.013448029665475</v>
       </c>
       <c r="J16">
-        <v>0.7671403512235065</v>
+        <v>0.7671403512235042</v>
       </c>
       <c r="K16">
-        <v>1.010479842102285</v>
+        <v>1.010479842102284</v>
       </c>
       <c r="L16">
-        <v>0.7867906717966852</v>
+        <v>0.7867906717966832</v>
       </c>
       <c r="M16">
-        <v>0.6886941267662237</v>
+        <v>0.6886941267662208</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.7260738632208729</v>
+        <v>0.7260738632208704</v>
       </c>
       <c r="D17">
-        <v>0.9973435177897618</v>
+        <v>0.9973435177897612</v>
       </c>
       <c r="E17">
-        <v>0.7683501141918679</v>
+        <v>0.7683501141918659</v>
       </c>
       <c r="F17">
-        <v>0.6661461487420054</v>
+        <v>0.6661461487420022</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.013448029665476</v>
+        <v>1.013448029665475</v>
       </c>
       <c r="J17">
-        <v>0.7671403512235065</v>
+        <v>0.7671403512235042</v>
       </c>
       <c r="K17">
-        <v>1.010479842102285</v>
+        <v>1.010479842102284</v>
       </c>
       <c r="L17">
-        <v>0.7867906717966852</v>
+        <v>0.7867906717966832</v>
       </c>
       <c r="M17">
-        <v>0.6886941267662237</v>
+        <v>0.6886941267662208</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.7260738632208729</v>
+        <v>0.7260738632208704</v>
       </c>
       <c r="D18">
-        <v>0.9973435177897618</v>
+        <v>0.9973435177897612</v>
       </c>
       <c r="E18">
-        <v>0.7683501141918679</v>
+        <v>0.7683501141918659</v>
       </c>
       <c r="F18">
-        <v>0.6661461487420054</v>
+        <v>0.6661461487420022</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.013448029665476</v>
+        <v>1.013448029665475</v>
       </c>
       <c r="J18">
-        <v>0.7671403512235065</v>
+        <v>0.7671403512235042</v>
       </c>
       <c r="K18">
-        <v>1.010479842102285</v>
+        <v>1.010479842102284</v>
       </c>
       <c r="L18">
-        <v>0.7867906717966852</v>
+        <v>0.7867906717966832</v>
       </c>
       <c r="M18">
-        <v>0.6886941267662237</v>
+        <v>0.6886941267662208</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.7260738632208729</v>
+        <v>0.7260738632208704</v>
       </c>
       <c r="D19">
-        <v>0.9973435177897618</v>
+        <v>0.9973435177897612</v>
       </c>
       <c r="E19">
-        <v>0.7683501141918679</v>
+        <v>0.7683501141918659</v>
       </c>
       <c r="F19">
-        <v>0.6661461487420054</v>
+        <v>0.6661461487420022</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.013448029665476</v>
+        <v>1.013448029665475</v>
       </c>
       <c r="J19">
-        <v>0.7671403512235065</v>
+        <v>0.7671403512235042</v>
       </c>
       <c r="K19">
-        <v>1.010479842102285</v>
+        <v>1.010479842102284</v>
       </c>
       <c r="L19">
-        <v>0.7867906717966852</v>
+        <v>0.7867906717966832</v>
       </c>
       <c r="M19">
-        <v>0.6886941267662237</v>
+        <v>0.6886941267662208</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.7260738632208729</v>
+        <v>0.7260738632208704</v>
       </c>
       <c r="D20">
-        <v>0.9973435177897618</v>
+        <v>0.9973435177897612</v>
       </c>
       <c r="E20">
-        <v>0.7683501141918679</v>
+        <v>0.7683501141918659</v>
       </c>
       <c r="F20">
-        <v>0.6661461487420054</v>
+        <v>0.6661461487420022</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.013448029665476</v>
+        <v>1.013448029665475</v>
       </c>
       <c r="J20">
-        <v>0.7671403512235065</v>
+        <v>0.7671403512235042</v>
       </c>
       <c r="K20">
-        <v>1.010479842102285</v>
+        <v>1.010479842102284</v>
       </c>
       <c r="L20">
-        <v>0.7867906717966852</v>
+        <v>0.7867906717966832</v>
       </c>
       <c r="M20">
-        <v>0.6886941267662237</v>
+        <v>0.6886941267662208</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.7260738632208729</v>
+        <v>0.7260738632208704</v>
       </c>
       <c r="D21">
-        <v>0.9973435177897618</v>
+        <v>0.9973435177897612</v>
       </c>
       <c r="E21">
-        <v>0.7683501141918679</v>
+        <v>0.7683501141918659</v>
       </c>
       <c r="F21">
-        <v>0.6661461487420054</v>
+        <v>0.6661461487420022</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.013448029665476</v>
+        <v>1.013448029665475</v>
       </c>
       <c r="J21">
-        <v>0.7671403512235065</v>
+        <v>0.7671403512235042</v>
       </c>
       <c r="K21">
-        <v>1.010479842102285</v>
+        <v>1.010479842102284</v>
       </c>
       <c r="L21">
-        <v>0.7867906717966852</v>
+        <v>0.7867906717966832</v>
       </c>
       <c r="M21">
-        <v>0.6886941267662237</v>
+        <v>0.6886941267662208</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.7260738632208729</v>
+        <v>0.7260738632208704</v>
       </c>
       <c r="D22">
-        <v>0.9973435177897618</v>
+        <v>0.9973435177897612</v>
       </c>
       <c r="E22">
-        <v>0.7683501141918679</v>
+        <v>0.7683501141918659</v>
       </c>
       <c r="F22">
-        <v>0.6661461487420054</v>
+        <v>0.6661461487420022</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.013448029665476</v>
+        <v>1.013448029665475</v>
       </c>
       <c r="J22">
-        <v>0.7671403512235065</v>
+        <v>0.7671403512235042</v>
       </c>
       <c r="K22">
-        <v>1.010479842102285</v>
+        <v>1.010479842102284</v>
       </c>
       <c r="L22">
-        <v>0.7867906717966852</v>
+        <v>0.7867906717966832</v>
       </c>
       <c r="M22">
-        <v>0.6886941267662237</v>
+        <v>0.6886941267662208</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.7260738632208729</v>
+        <v>0.7260738632208704</v>
       </c>
       <c r="D23">
-        <v>0.9973435177897618</v>
+        <v>0.9973435177897612</v>
       </c>
       <c r="E23">
-        <v>0.7683501141918679</v>
+        <v>0.7683501141918659</v>
       </c>
       <c r="F23">
-        <v>0.6661461487420054</v>
+        <v>0.6661461487420022</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.013448029665476</v>
+        <v>1.013448029665475</v>
       </c>
       <c r="J23">
-        <v>0.7671403512235065</v>
+        <v>0.7671403512235042</v>
       </c>
       <c r="K23">
-        <v>1.010479842102285</v>
+        <v>1.010479842102284</v>
       </c>
       <c r="L23">
-        <v>0.7867906717966852</v>
+        <v>0.7867906717966832</v>
       </c>
       <c r="M23">
-        <v>0.6886941267662237</v>
+        <v>0.6886941267662208</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.7260738632208729</v>
+        <v>0.7260738632208704</v>
       </c>
       <c r="D24">
-        <v>0.9973435177897618</v>
+        <v>0.9973435177897612</v>
       </c>
       <c r="E24">
-        <v>0.7683501141918679</v>
+        <v>0.7683501141918659</v>
       </c>
       <c r="F24">
-        <v>0.6661461487420054</v>
+        <v>0.6661461487420022</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.013448029665476</v>
+        <v>1.013448029665475</v>
       </c>
       <c r="J24">
-        <v>0.7671403512235065</v>
+        <v>0.7671403512235042</v>
       </c>
       <c r="K24">
-        <v>1.010479842102285</v>
+        <v>1.010479842102284</v>
       </c>
       <c r="L24">
-        <v>0.7867906717966852</v>
+        <v>0.7867906717966832</v>
       </c>
       <c r="M24">
-        <v>0.6886941267662237</v>
+        <v>0.6886941267662208</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.7260738632208729</v>
+        <v>0.7260738632208704</v>
       </c>
       <c r="D25">
-        <v>0.9973435177897618</v>
+        <v>0.9973435177897612</v>
       </c>
       <c r="E25">
-        <v>0.7683501141918679</v>
+        <v>0.7683501141918659</v>
       </c>
       <c r="F25">
-        <v>0.6661461487420054</v>
+        <v>0.6661461487420022</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.013448029665476</v>
+        <v>1.013448029665475</v>
       </c>
       <c r="J25">
-        <v>0.7671403512235065</v>
+        <v>0.7671403512235042</v>
       </c>
       <c r="K25">
-        <v>1.010479842102285</v>
+        <v>1.010479842102284</v>
       </c>
       <c r="L25">
-        <v>0.7867906717966852</v>
+        <v>0.7867906717966832</v>
       </c>
       <c r="M25">
-        <v>0.6886941267662237</v>
+        <v>0.6886941267662208</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_8/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_8/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.8395753201307489</v>
+        <v>0.8457760650886472</v>
       </c>
       <c r="D2">
-        <v>1.014054878543596</v>
+        <v>1.014760357197431</v>
       </c>
       <c r="E2">
-        <v>0.8651528196198638</v>
+        <v>0.8704765125786489</v>
       </c>
       <c r="F2">
-        <v>0.8052460614416405</v>
+        <v>0.8120131046337443</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.02907282500138</v>
+        <v>1.029861649813002</v>
       </c>
       <c r="J2">
-        <v>0.8679019579860369</v>
+        <v>0.8738022107711348</v>
       </c>
       <c r="K2">
-        <v>1.02532181856158</v>
+        <v>1.026017816586093</v>
       </c>
       <c r="L2">
-        <v>0.8788764244994086</v>
+        <v>0.8840932352954366</v>
       </c>
       <c r="M2">
-        <v>0.8203037492871237</v>
+        <v>0.826906847243316</v>
+      </c>
+      <c r="N2">
+        <v>0.8750431101369444</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C3">
-        <v>0.8715788279976889</v>
+        <v>0.8772476611326584</v>
       </c>
       <c r="D3">
-        <v>1.019514257599566</v>
+        <v>1.020159109151504</v>
       </c>
       <c r="E3">
-        <v>0.8927081676060818</v>
+        <v>0.8975882767696042</v>
       </c>
       <c r="F3">
-        <v>0.8433056945980496</v>
+        <v>0.8493822197907264</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.033679229708416</v>
+        <v>1.034401706971538</v>
       </c>
       <c r="J3">
-        <v>0.8963089312566591</v>
+        <v>0.9017534138312008</v>
       </c>
       <c r="K3">
-        <v>1.029903392969047</v>
+        <v>1.030540387764683</v>
       </c>
       <c r="L3">
-        <v>0.9049267132092456</v>
+        <v>0.9097240918491736</v>
       </c>
       <c r="M3">
-        <v>0.8564325884999285</v>
+        <v>0.8623899138949624</v>
+      </c>
+      <c r="N3">
+        <v>0.9030340071114034</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.8892264595045543</v>
+        <v>0.8946783324787403</v>
       </c>
       <c r="D4">
-        <v>1.02265676434064</v>
+        <v>1.023276705842431</v>
       </c>
       <c r="E4">
-        <v>0.9079371856209968</v>
+        <v>0.9126366036718947</v>
       </c>
       <c r="F4">
-        <v>0.8641769168586462</v>
+        <v>0.8699712951061985</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.03623584675315</v>
+        <v>1.036931300671865</v>
       </c>
       <c r="J4">
-        <v>0.9119614294293558</v>
+        <v>0.9172222948492046</v>
       </c>
       <c r="K4">
-        <v>1.032489221199554</v>
+        <v>1.033102089472601</v>
       </c>
       <c r="L4">
-        <v>0.9192902917732259</v>
+        <v>0.9239178550073397</v>
       </c>
       <c r="M4">
-        <v>0.8762477075697378</v>
+        <v>0.8819416955608067</v>
+      </c>
+      <c r="N4">
+        <v>0.9185248557147583</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.8961125313199858</v>
+        <v>0.9014909365250037</v>
       </c>
       <c r="D5">
-        <v>1.023907622357624</v>
+        <v>1.024519099507538</v>
       </c>
       <c r="E5">
-        <v>0.9138851841368987</v>
+        <v>0.9185234777459784</v>
       </c>
       <c r="F5">
-        <v>0.8723033551941571</v>
+        <v>0.8780019727019326</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.037234617147266</v>
+        <v>1.037920939373566</v>
       </c>
       <c r="J5">
-        <v>0.9180656281224097</v>
+        <v>0.9232647800033018</v>
       </c>
       <c r="K5">
-        <v>1.033508230634824</v>
+        <v>1.034112925539865</v>
       </c>
       <c r="L5">
-        <v>0.9248933021118851</v>
+        <v>0.9294636321986978</v>
       </c>
       <c r="M5">
-        <v>0.8839623123873874</v>
+        <v>0.889567050701795</v>
+      </c>
+      <c r="N5">
+        <v>0.924575921890857</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.8972414737678155</v>
+        <v>0.9026083697427421</v>
       </c>
       <c r="D6">
-        <v>1.024113993741413</v>
+        <v>1.024724143487947</v>
       </c>
       <c r="E6">
-        <v>0.9148606141421999</v>
+        <v>0.9194893359795657</v>
       </c>
       <c r="F6">
-        <v>0.8736348257680524</v>
+        <v>0.8793184268780542</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.037398369116618</v>
+        <v>1.038083262180843</v>
       </c>
       <c r="J6">
-        <v>0.9190661752364189</v>
+        <v>0.9242556851595306</v>
       </c>
       <c r="K6">
-        <v>1.033675790063364</v>
+        <v>1.034279204606662</v>
       </c>
       <c r="L6">
-        <v>0.9258117682925041</v>
+        <v>0.9303731478705987</v>
       </c>
       <c r="M6">
-        <v>0.8852262444772047</v>
+        <v>0.8908169949385718</v>
+      </c>
+      <c r="N6">
+        <v>0.925568234246066</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.8893203759891726</v>
+        <v>0.894771207939396</v>
       </c>
       <c r="D7">
-        <v>1.022673732269015</v>
+        <v>1.023293553939971</v>
       </c>
       <c r="E7">
-        <v>0.9080182877996015</v>
+        <v>0.9127168394617468</v>
       </c>
       <c r="F7">
-        <v>0.8642878107465003</v>
+        <v>0.8700808331027794</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.036249466787479</v>
+        <v>1.036944791219166</v>
       </c>
       <c r="J7">
-        <v>0.9120446964168301</v>
+        <v>0.917304685488959</v>
       </c>
       <c r="K7">
-        <v>1.032503083128112</v>
+        <v>1.033115835588281</v>
       </c>
       <c r="L7">
-        <v>0.9193667169853392</v>
+        <v>0.9239934681234454</v>
       </c>
       <c r="M7">
-        <v>0.8763529852982931</v>
+        <v>0.8820457090523379</v>
+      </c>
+      <c r="N7">
+        <v>0.9186073633586713</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.8511877626109301</v>
+        <v>0.8571707103566766</v>
       </c>
       <c r="D8">
-        <v>1.015999440133614</v>
+        <v>1.016680159275985</v>
       </c>
       <c r="E8">
-        <v>0.875141116574727</v>
+        <v>0.8802831155608093</v>
       </c>
       <c r="F8">
-        <v>0.8190921745315817</v>
+        <v>0.8255764866155746</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.030738090876092</v>
+        <v>1.031499747557419</v>
       </c>
       <c r="J8">
-        <v>0.8782116930159488</v>
+        <v>0.8839245930189629</v>
       </c>
       <c r="K8">
-        <v>1.026966963809897</v>
+        <v>1.027638829759038</v>
       </c>
       <c r="L8">
-        <v>0.8883278617658624</v>
+        <v>0.8933725403665851</v>
       </c>
       <c r="M8">
-        <v>0.8334456103026854</v>
+        <v>0.8397841548929542</v>
+      </c>
+      <c r="N8">
+        <v>0.8851798673286176</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.7260738632208704</v>
+        <v>0.7394073274058461</v>
       </c>
       <c r="D9">
-        <v>0.9973435177897612</v>
+        <v>0.9988470465537569</v>
       </c>
       <c r="E9">
-        <v>0.7683501141918659</v>
+        <v>0.7796300303667526</v>
       </c>
       <c r="F9">
-        <v>0.6661461487420022</v>
+        <v>0.6823224409674303</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.013448029665475</v>
+        <v>1.015122757981337</v>
       </c>
       <c r="J9">
-        <v>0.7671403512235042</v>
+        <v>0.7793082988420839</v>
       </c>
       <c r="K9">
-        <v>1.010479842102284</v>
+        <v>1.011958857360894</v>
       </c>
       <c r="L9">
-        <v>0.7867906717966832</v>
+        <v>0.7977079315377137</v>
       </c>
       <c r="M9">
-        <v>0.6886941267662208</v>
+        <v>0.7041021114943685</v>
+      </c>
+      <c r="N9">
+        <v>0.7804150060143509</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.7260738632208704</v>
+        <v>0.7394073274058461</v>
       </c>
       <c r="D10">
-        <v>0.9973435177897612</v>
+        <v>0.9988470465537569</v>
       </c>
       <c r="E10">
-        <v>0.7683501141918659</v>
+        <v>0.7796300303667526</v>
       </c>
       <c r="F10">
-        <v>0.6661461487420022</v>
+        <v>0.6823224409674303</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.013448029665475</v>
+        <v>1.015122757981337</v>
       </c>
       <c r="J10">
-        <v>0.7671403512235042</v>
+        <v>0.7793082988420839</v>
       </c>
       <c r="K10">
-        <v>1.010479842102284</v>
+        <v>1.011958857360894</v>
       </c>
       <c r="L10">
-        <v>0.7867906717966832</v>
+        <v>0.7977079315377137</v>
       </c>
       <c r="M10">
-        <v>0.6886941267662208</v>
+        <v>0.7041021114943685</v>
+      </c>
+      <c r="N10">
+        <v>0.7804150060143509</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.7260738632208704</v>
+        <v>0.7394073274058461</v>
       </c>
       <c r="D11">
-        <v>0.9973435177897612</v>
+        <v>0.9988470465537569</v>
       </c>
       <c r="E11">
-        <v>0.7683501141918659</v>
+        <v>0.7796300303667526</v>
       </c>
       <c r="F11">
-        <v>0.6661461487420022</v>
+        <v>0.6823224409674303</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.013448029665475</v>
+        <v>1.015122757981337</v>
       </c>
       <c r="J11">
-        <v>0.7671403512235042</v>
+        <v>0.7793082988420839</v>
       </c>
       <c r="K11">
-        <v>1.010479842102284</v>
+        <v>1.011958857360894</v>
       </c>
       <c r="L11">
-        <v>0.7867906717966832</v>
+        <v>0.7977079315377137</v>
       </c>
       <c r="M11">
-        <v>0.6886941267662208</v>
+        <v>0.7041021114943685</v>
+      </c>
+      <c r="N11">
+        <v>0.7804150060143509</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.7260738632208704</v>
+        <v>0.7394073274058461</v>
       </c>
       <c r="D12">
-        <v>0.9973435177897612</v>
+        <v>0.9988470465537569</v>
       </c>
       <c r="E12">
-        <v>0.7683501141918659</v>
+        <v>0.7796300303667526</v>
       </c>
       <c r="F12">
-        <v>0.6661461487420022</v>
+        <v>0.6823224409674303</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.013448029665475</v>
+        <v>1.015122757981337</v>
       </c>
       <c r="J12">
-        <v>0.7671403512235042</v>
+        <v>0.7793082988420839</v>
       </c>
       <c r="K12">
-        <v>1.010479842102284</v>
+        <v>1.011958857360894</v>
       </c>
       <c r="L12">
-        <v>0.7867906717966832</v>
+        <v>0.7977079315377137</v>
       </c>
       <c r="M12">
-        <v>0.6886941267662208</v>
+        <v>0.7041021114943685</v>
+      </c>
+      <c r="N12">
+        <v>0.7804150060143509</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.7260738632208704</v>
+        <v>0.7394073274058461</v>
       </c>
       <c r="D13">
-        <v>0.9973435177897612</v>
+        <v>0.9988470465537569</v>
       </c>
       <c r="E13">
-        <v>0.7683501141918659</v>
+        <v>0.7796300303667526</v>
       </c>
       <c r="F13">
-        <v>0.6661461487420022</v>
+        <v>0.6823224409674303</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.013448029665475</v>
+        <v>1.015122757981337</v>
       </c>
       <c r="J13">
-        <v>0.7671403512235042</v>
+        <v>0.7793082988420839</v>
       </c>
       <c r="K13">
-        <v>1.010479842102284</v>
+        <v>1.011958857360894</v>
       </c>
       <c r="L13">
-        <v>0.7867906717966832</v>
+        <v>0.7977079315377137</v>
       </c>
       <c r="M13">
-        <v>0.6886941267662208</v>
+        <v>0.7041021114943685</v>
+      </c>
+      <c r="N13">
+        <v>0.7804150060143509</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.7260738632208704</v>
+        <v>0.7394073274058461</v>
       </c>
       <c r="D14">
-        <v>0.9973435177897612</v>
+        <v>0.9988470465537569</v>
       </c>
       <c r="E14">
-        <v>0.7683501141918659</v>
+        <v>0.7796300303667526</v>
       </c>
       <c r="F14">
-        <v>0.6661461487420022</v>
+        <v>0.6823224409674303</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.013448029665475</v>
+        <v>1.015122757981337</v>
       </c>
       <c r="J14">
-        <v>0.7671403512235042</v>
+        <v>0.7793082988420839</v>
       </c>
       <c r="K14">
-        <v>1.010479842102284</v>
+        <v>1.011958857360894</v>
       </c>
       <c r="L14">
-        <v>0.7867906717966832</v>
+        <v>0.7977079315377137</v>
       </c>
       <c r="M14">
-        <v>0.6886941267662208</v>
+        <v>0.7041021114943685</v>
+      </c>
+      <c r="N14">
+        <v>0.7804150060143509</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.7260738632208704</v>
+        <v>0.7394073274058461</v>
       </c>
       <c r="D15">
-        <v>0.9973435177897612</v>
+        <v>0.9988470465537569</v>
       </c>
       <c r="E15">
-        <v>0.7683501141918659</v>
+        <v>0.7796300303667526</v>
       </c>
       <c r="F15">
-        <v>0.6661461487420022</v>
+        <v>0.6823224409674303</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.013448029665475</v>
+        <v>1.015122757981337</v>
       </c>
       <c r="J15">
-        <v>0.7671403512235042</v>
+        <v>0.7793082988420839</v>
       </c>
       <c r="K15">
-        <v>1.010479842102284</v>
+        <v>1.011958857360894</v>
       </c>
       <c r="L15">
-        <v>0.7867906717966832</v>
+        <v>0.7977079315377137</v>
       </c>
       <c r="M15">
-        <v>0.6886941267662208</v>
+        <v>0.7041021114943685</v>
+      </c>
+      <c r="N15">
+        <v>0.7804150060143509</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.7260738632208704</v>
+        <v>0.7394073274058461</v>
       </c>
       <c r="D16">
-        <v>0.9973435177897612</v>
+        <v>0.9988470465537569</v>
       </c>
       <c r="E16">
-        <v>0.7683501141918659</v>
+        <v>0.7796300303667526</v>
       </c>
       <c r="F16">
-        <v>0.6661461487420022</v>
+        <v>0.6823224409674303</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.013448029665475</v>
+        <v>1.015122757981337</v>
       </c>
       <c r="J16">
-        <v>0.7671403512235042</v>
+        <v>0.7793082988420839</v>
       </c>
       <c r="K16">
-        <v>1.010479842102284</v>
+        <v>1.011958857360894</v>
       </c>
       <c r="L16">
-        <v>0.7867906717966832</v>
+        <v>0.7977079315377137</v>
       </c>
       <c r="M16">
-        <v>0.6886941267662208</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.7041021114943685</v>
+      </c>
+      <c r="N16">
+        <v>0.7804150060143509</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.7260738632208704</v>
+        <v>0.7394073274058461</v>
       </c>
       <c r="D17">
-        <v>0.9973435177897612</v>
+        <v>0.9988470465537569</v>
       </c>
       <c r="E17">
-        <v>0.7683501141918659</v>
+        <v>0.7796300303667526</v>
       </c>
       <c r="F17">
-        <v>0.6661461487420022</v>
+        <v>0.6823224409674303</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.013448029665475</v>
+        <v>1.015122757981337</v>
       </c>
       <c r="J17">
-        <v>0.7671403512235042</v>
+        <v>0.7793082988420839</v>
       </c>
       <c r="K17">
-        <v>1.010479842102284</v>
+        <v>1.011958857360894</v>
       </c>
       <c r="L17">
-        <v>0.7867906717966832</v>
+        <v>0.7977079315377137</v>
       </c>
       <c r="M17">
-        <v>0.6886941267662208</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.7041021114943685</v>
+      </c>
+      <c r="N17">
+        <v>0.7804150060143509</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.7260738632208704</v>
+        <v>0.7394073274058461</v>
       </c>
       <c r="D18">
-        <v>0.9973435177897612</v>
+        <v>0.9988470465537569</v>
       </c>
       <c r="E18">
-        <v>0.7683501141918659</v>
+        <v>0.7796300303667526</v>
       </c>
       <c r="F18">
-        <v>0.6661461487420022</v>
+        <v>0.6823224409674303</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.013448029665475</v>
+        <v>1.015122757981337</v>
       </c>
       <c r="J18">
-        <v>0.7671403512235042</v>
+        <v>0.7793082988420839</v>
       </c>
       <c r="K18">
-        <v>1.010479842102284</v>
+        <v>1.011958857360894</v>
       </c>
       <c r="L18">
-        <v>0.7867906717966832</v>
+        <v>0.7977079315377137</v>
       </c>
       <c r="M18">
-        <v>0.6886941267662208</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.7041021114943685</v>
+      </c>
+      <c r="N18">
+        <v>0.7804150060143509</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.7260738632208704</v>
+        <v>0.7394073274058461</v>
       </c>
       <c r="D19">
-        <v>0.9973435177897612</v>
+        <v>0.9988470465537569</v>
       </c>
       <c r="E19">
-        <v>0.7683501141918659</v>
+        <v>0.7796300303667526</v>
       </c>
       <c r="F19">
-        <v>0.6661461487420022</v>
+        <v>0.6823224409674303</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.013448029665475</v>
+        <v>1.015122757981337</v>
       </c>
       <c r="J19">
-        <v>0.7671403512235042</v>
+        <v>0.7793082988420839</v>
       </c>
       <c r="K19">
-        <v>1.010479842102284</v>
+        <v>1.011958857360894</v>
       </c>
       <c r="L19">
-        <v>0.7867906717966832</v>
+        <v>0.7977079315377137</v>
       </c>
       <c r="M19">
-        <v>0.6886941267662208</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.7041021114943685</v>
+      </c>
+      <c r="N19">
+        <v>0.7804150060143509</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.7260738632208704</v>
+        <v>0.7394073274058461</v>
       </c>
       <c r="D20">
-        <v>0.9973435177897612</v>
+        <v>0.9988470465537569</v>
       </c>
       <c r="E20">
-        <v>0.7683501141918659</v>
+        <v>0.7796300303667526</v>
       </c>
       <c r="F20">
-        <v>0.6661461487420022</v>
+        <v>0.6823224409674303</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.013448029665475</v>
+        <v>1.015122757981337</v>
       </c>
       <c r="J20">
-        <v>0.7671403512235042</v>
+        <v>0.7793082988420839</v>
       </c>
       <c r="K20">
-        <v>1.010479842102284</v>
+        <v>1.011958857360894</v>
       </c>
       <c r="L20">
-        <v>0.7867906717966832</v>
+        <v>0.7977079315377137</v>
       </c>
       <c r="M20">
-        <v>0.6886941267662208</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.7041021114943685</v>
+      </c>
+      <c r="N20">
+        <v>0.7804150060143509</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.7260738632208704</v>
+        <v>0.7394073274058461</v>
       </c>
       <c r="D21">
-        <v>0.9973435177897612</v>
+        <v>0.9988470465537569</v>
       </c>
       <c r="E21">
-        <v>0.7683501141918659</v>
+        <v>0.7796300303667526</v>
       </c>
       <c r="F21">
-        <v>0.6661461487420022</v>
+        <v>0.6823224409674303</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.013448029665475</v>
+        <v>1.015122757981337</v>
       </c>
       <c r="J21">
-        <v>0.7671403512235042</v>
+        <v>0.7793082988420839</v>
       </c>
       <c r="K21">
-        <v>1.010479842102284</v>
+        <v>1.011958857360894</v>
       </c>
       <c r="L21">
-        <v>0.7867906717966832</v>
+        <v>0.7977079315377137</v>
       </c>
       <c r="M21">
-        <v>0.6886941267662208</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.7041021114943685</v>
+      </c>
+      <c r="N21">
+        <v>0.7804150060143509</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.7260738632208704</v>
+        <v>0.7394073274058461</v>
       </c>
       <c r="D22">
-        <v>0.9973435177897612</v>
+        <v>0.9988470465537569</v>
       </c>
       <c r="E22">
-        <v>0.7683501141918659</v>
+        <v>0.7796300303667526</v>
       </c>
       <c r="F22">
-        <v>0.6661461487420022</v>
+        <v>0.6823224409674303</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.013448029665475</v>
+        <v>1.015122757981337</v>
       </c>
       <c r="J22">
-        <v>0.7671403512235042</v>
+        <v>0.7793082988420839</v>
       </c>
       <c r="K22">
-        <v>1.010479842102284</v>
+        <v>1.011958857360894</v>
       </c>
       <c r="L22">
-        <v>0.7867906717966832</v>
+        <v>0.7977079315377137</v>
       </c>
       <c r="M22">
-        <v>0.6886941267662208</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.7041021114943685</v>
+      </c>
+      <c r="N22">
+        <v>0.7804150060143509</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.7260738632208704</v>
+        <v>0.7394073274058461</v>
       </c>
       <c r="D23">
-        <v>0.9973435177897612</v>
+        <v>0.9988470465537569</v>
       </c>
       <c r="E23">
-        <v>0.7683501141918659</v>
+        <v>0.7796300303667526</v>
       </c>
       <c r="F23">
-        <v>0.6661461487420022</v>
+        <v>0.6823224409674303</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.013448029665475</v>
+        <v>1.015122757981337</v>
       </c>
       <c r="J23">
-        <v>0.7671403512235042</v>
+        <v>0.7793082988420839</v>
       </c>
       <c r="K23">
-        <v>1.010479842102284</v>
+        <v>1.011958857360894</v>
       </c>
       <c r="L23">
-        <v>0.7867906717966832</v>
+        <v>0.7977079315377137</v>
       </c>
       <c r="M23">
-        <v>0.6886941267662208</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.7041021114943685</v>
+      </c>
+      <c r="N23">
+        <v>0.7804150060143509</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.7260738632208704</v>
+        <v>0.7394073274058461</v>
       </c>
       <c r="D24">
-        <v>0.9973435177897612</v>
+        <v>0.9988470465537569</v>
       </c>
       <c r="E24">
-        <v>0.7683501141918659</v>
+        <v>0.7796300303667526</v>
       </c>
       <c r="F24">
-        <v>0.6661461487420022</v>
+        <v>0.6823224409674303</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.013448029665475</v>
+        <v>1.015122757981337</v>
       </c>
       <c r="J24">
-        <v>0.7671403512235042</v>
+        <v>0.7793082988420839</v>
       </c>
       <c r="K24">
-        <v>1.010479842102284</v>
+        <v>1.011958857360894</v>
       </c>
       <c r="L24">
-        <v>0.7867906717966832</v>
+        <v>0.7977079315377137</v>
       </c>
       <c r="M24">
-        <v>0.6886941267662208</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.7041021114943685</v>
+      </c>
+      <c r="N24">
+        <v>0.7804150060143509</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.7260738632208704</v>
+        <v>0.7394073274058461</v>
       </c>
       <c r="D25">
-        <v>0.9973435177897612</v>
+        <v>0.9988470465537569</v>
       </c>
       <c r="E25">
-        <v>0.7683501141918659</v>
+        <v>0.7796300303667526</v>
       </c>
       <c r="F25">
-        <v>0.6661461487420022</v>
+        <v>0.6823224409674303</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.013448029665475</v>
+        <v>1.015122757981337</v>
       </c>
       <c r="J25">
-        <v>0.7671403512235042</v>
+        <v>0.7793082988420839</v>
       </c>
       <c r="K25">
-        <v>1.010479842102284</v>
+        <v>1.011958857360894</v>
       </c>
       <c r="L25">
-        <v>0.7867906717966832</v>
+        <v>0.7977079315377137</v>
       </c>
       <c r="M25">
-        <v>0.6886941267662208</v>
+        <v>0.7041021114943685</v>
+      </c>
+      <c r="N25">
+        <v>0.7804150060143509</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_8/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_8/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.8457760650886472</v>
+        <v>0.9278369870246653</v>
       </c>
       <c r="D2">
-        <v>1.014760357197431</v>
+        <v>1.027822992628432</v>
       </c>
       <c r="E2">
-        <v>0.8704765125786489</v>
+        <v>0.9417118090010426</v>
       </c>
       <c r="F2">
-        <v>0.8120131046337443</v>
+        <v>0.9528689131124845</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.029861649813002</v>
+        <v>1.040726615224262</v>
       </c>
       <c r="J2">
-        <v>0.8738022107711348</v>
+        <v>0.9524133112841449</v>
       </c>
       <c r="K2">
-        <v>1.026017816586093</v>
+        <v>1.038907853759516</v>
       </c>
       <c r="L2">
-        <v>0.8840932352954366</v>
+        <v>0.9540476971645566</v>
       </c>
       <c r="M2">
-        <v>0.826906847243316</v>
+        <v>0.965026398713713</v>
       </c>
       <c r="N2">
-        <v>0.8750431101369444</v>
+        <v>0.9537658474295021</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.8772476611326584</v>
+        <v>0.94436517671595</v>
       </c>
       <c r="D3">
-        <v>1.020159109151504</v>
+        <v>1.033069400850342</v>
       </c>
       <c r="E3">
-        <v>0.8975882767696042</v>
+        <v>0.955965331706903</v>
       </c>
       <c r="F3">
-        <v>0.8493822197907264</v>
+        <v>0.967860944562472</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.034401706971538</v>
+        <v>1.044480877888135</v>
       </c>
       <c r="J3">
-        <v>0.9017534138312008</v>
+        <v>0.9664966381889666</v>
       </c>
       <c r="K3">
-        <v>1.030540387764683</v>
+        <v>1.043295939507012</v>
       </c>
       <c r="L3">
-        <v>0.9097240918491736</v>
+        <v>0.9671944739120456</v>
       </c>
       <c r="M3">
-        <v>0.8623899138949624</v>
+        <v>0.9789222654299463</v>
       </c>
       <c r="N3">
-        <v>0.9030340071114034</v>
+        <v>0.9678691742739087</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.8946783324787403</v>
+        <v>0.9543635234406843</v>
       </c>
       <c r="D4">
-        <v>1.023276705842431</v>
+        <v>1.036281549706525</v>
       </c>
       <c r="E4">
-        <v>0.9126366036718947</v>
+        <v>0.9645957198908128</v>
       </c>
       <c r="F4">
-        <v>0.8699712951061985</v>
+        <v>0.9769542621019931</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.036931300671865</v>
+        <v>1.046743401961411</v>
       </c>
       <c r="J4">
-        <v>0.9172222948492046</v>
+        <v>0.9750113194623211</v>
       </c>
       <c r="K4">
-        <v>1.033102089472601</v>
+        <v>1.045960953485872</v>
       </c>
       <c r="L4">
-        <v>0.9239178550073397</v>
+        <v>0.9751410978131748</v>
       </c>
       <c r="M4">
-        <v>0.8819416955608067</v>
+        <v>0.9873390237704666</v>
       </c>
       <c r="N4">
-        <v>0.9185248557147583</v>
+        <v>0.9763959473713187</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9014909365250037</v>
+        <v>0.9584208472028868</v>
       </c>
       <c r="D5">
-        <v>1.024519099507538</v>
+        <v>1.037592823380382</v>
       </c>
       <c r="E5">
-        <v>0.9185234777459784</v>
+        <v>0.9680994280360563</v>
       </c>
       <c r="F5">
-        <v>0.8780019727019326</v>
+        <v>0.9806492268067653</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.037920939373566</v>
+        <v>1.047658882571112</v>
       </c>
       <c r="J5">
-        <v>0.9232647800033018</v>
+        <v>0.9784651462709614</v>
       </c>
       <c r="K5">
-        <v>1.034112925539865</v>
+        <v>1.047043985820749</v>
       </c>
       <c r="L5">
-        <v>0.9294636321986978</v>
+        <v>0.9783640381148612</v>
       </c>
       <c r="M5">
-        <v>0.889567050701795</v>
+        <v>0.9907563247940627</v>
       </c>
       <c r="N5">
-        <v>0.924575921890857</v>
+        <v>0.9798546790101872</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9026083697427421</v>
+        <v>0.9590940520818654</v>
       </c>
       <c r="D6">
-        <v>1.024724143487947</v>
+        <v>1.037810815173377</v>
       </c>
       <c r="E6">
-        <v>0.9194893359795657</v>
+        <v>0.9686808526581985</v>
       </c>
       <c r="F6">
-        <v>0.8793184268780542</v>
+        <v>0.9812625732014851</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.038083262180843</v>
+        <v>1.047810610269964</v>
       </c>
       <c r="J6">
-        <v>0.9242556851595306</v>
+        <v>0.9790381253023516</v>
       </c>
       <c r="K6">
-        <v>1.034279204606662</v>
+        <v>1.047223753635643</v>
       </c>
       <c r="L6">
-        <v>0.9303731478705987</v>
+        <v>0.9788986858349854</v>
       </c>
       <c r="M6">
-        <v>0.8908169949385718</v>
+        <v>0.9913234196027136</v>
       </c>
       <c r="N6">
-        <v>0.925568234246066</v>
+        <v>0.9804284717375233</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.894771207939396</v>
+        <v>0.9544182870230444</v>
       </c>
       <c r="D7">
-        <v>1.023293553939971</v>
+        <v>1.036299219299199</v>
       </c>
       <c r="E7">
-        <v>0.9127168394617468</v>
+        <v>0.964643005591465</v>
       </c>
       <c r="F7">
-        <v>0.8700808331027794</v>
+        <v>0.9770041163089664</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.036944791219166</v>
+        <v>1.046755769924483</v>
       </c>
       <c r="J7">
-        <v>0.917304685488959</v>
+        <v>0.9750579434033146</v>
       </c>
       <c r="K7">
-        <v>1.033115835588281</v>
+        <v>1.045975566579135</v>
       </c>
       <c r="L7">
-        <v>0.9239934681234454</v>
+        <v>0.9751846068478857</v>
       </c>
       <c r="M7">
-        <v>0.8820457090523379</v>
+        <v>0.9873851425075876</v>
       </c>
       <c r="N7">
-        <v>0.9186073633586713</v>
+        <v>0.9764426375236569</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.8571707103566766</v>
+        <v>0.9335810259730952</v>
       </c>
       <c r="D8">
-        <v>1.016680159275985</v>
+        <v>1.029636956221497</v>
       </c>
       <c r="E8">
-        <v>0.8802831155608093</v>
+        <v>0.9466632866920646</v>
       </c>
       <c r="F8">
-        <v>0.8255764866155746</v>
+        <v>0.9580732023832856</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.031499747557419</v>
+        <v>1.042032762855313</v>
       </c>
       <c r="J8">
-        <v>0.8839245930189629</v>
+        <v>0.9573084944553547</v>
       </c>
       <c r="K8">
-        <v>1.027638829759038</v>
+        <v>1.040429900249553</v>
       </c>
       <c r="L8">
-        <v>0.8933725403665851</v>
+        <v>0.958617723226573</v>
       </c>
       <c r="M8">
-        <v>0.8397841548929542</v>
+        <v>0.9698527314819779</v>
       </c>
       <c r="N8">
-        <v>0.8851798673286176</v>
+        <v>0.9586679823223003</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.7394073274058461</v>
+        <v>0.8902528531581797</v>
       </c>
       <c r="D9">
-        <v>0.9988470465537569</v>
+        <v>1.016219434382657</v>
       </c>
       <c r="E9">
-        <v>0.7796300303667526</v>
+        <v>0.90937852366026</v>
       </c>
       <c r="F9">
-        <v>0.6823224409674303</v>
+        <v>0.9189872280940167</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.015122757981337</v>
+        <v>1.032175658384213</v>
       </c>
       <c r="J9">
-        <v>0.7793082988420839</v>
+        <v>0.9203800406327373</v>
       </c>
       <c r="K9">
-        <v>1.011958857360894</v>
+        <v>1.029054731559232</v>
       </c>
       <c r="L9">
-        <v>0.7977079315377137</v>
+        <v>0.9241355367804334</v>
       </c>
       <c r="M9">
-        <v>0.7041021114943685</v>
+        <v>0.9335473248954204</v>
       </c>
       <c r="N9">
-        <v>0.7804150060143509</v>
+        <v>0.9216870858595018</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.7394073274058461</v>
+        <v>0.8541767153049497</v>
       </c>
       <c r="D10">
-        <v>0.9988470465537569</v>
+        <v>1.005556831747195</v>
       </c>
       <c r="E10">
-        <v>0.7796300303667526</v>
+        <v>0.8784755834993078</v>
       </c>
       <c r="F10">
-        <v>0.6823224409674303</v>
+        <v>0.8867840955250563</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.015122757981337</v>
+        <v>1.024025156603806</v>
       </c>
       <c r="J10">
-        <v>0.7793082988420839</v>
+        <v>0.8896648185072394</v>
       </c>
       <c r="K10">
-        <v>1.011958857360894</v>
+        <v>1.019826475500316</v>
       </c>
       <c r="L10">
-        <v>0.7977079315377137</v>
+        <v>0.8954504139280737</v>
       </c>
       <c r="M10">
-        <v>0.7041021114943685</v>
+        <v>0.9035500933666373</v>
       </c>
       <c r="N10">
-        <v>0.7804150060143509</v>
+        <v>0.8909282445955008</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.050000000000001</v>
       </c>
       <c r="C11">
-        <v>0.7394073274058461</v>
+        <v>0.8356826230832411</v>
       </c>
       <c r="D11">
-        <v>0.9988470465537569</v>
+        <v>1.000287319398585</v>
       </c>
       <c r="E11">
-        <v>0.7796300303667526</v>
+        <v>0.8626963520619045</v>
       </c>
       <c r="F11">
-        <v>0.6823224409674303</v>
+        <v>0.8704160230641758</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.015122757981337</v>
+        <v>1.019892342034545</v>
       </c>
       <c r="J11">
-        <v>0.7793082988420839</v>
+        <v>0.8739468895357319</v>
       </c>
       <c r="K11">
-        <v>1.011958857360894</v>
+        <v>1.015203819329949</v>
       </c>
       <c r="L11">
-        <v>0.7977079315377137</v>
+        <v>0.8807729497316245</v>
       </c>
       <c r="M11">
-        <v>0.7041021114943685</v>
+        <v>0.8882792141360962</v>
       </c>
       <c r="N11">
-        <v>0.7804150060143509</v>
+        <v>0.8751879943619817</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.7394073274058461</v>
+        <v>0.8281929943659905</v>
       </c>
       <c r="D12">
-        <v>0.9988470465537569</v>
+        <v>0.998193017968609</v>
       </c>
       <c r="E12">
-        <v>0.7796300303667526</v>
+        <v>0.8563200031055177</v>
       </c>
       <c r="F12">
-        <v>0.6823224409674303</v>
+        <v>0.8638172640366083</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.015122757981337</v>
+        <v>1.018230006752579</v>
       </c>
       <c r="J12">
-        <v>0.7793082988420839</v>
+        <v>0.8675888404554222</v>
       </c>
       <c r="K12">
-        <v>1.011958857360894</v>
+        <v>1.013354918976804</v>
       </c>
       <c r="L12">
-        <v>0.7977079315377137</v>
+        <v>0.8748364773602576</v>
       </c>
       <c r="M12">
-        <v>0.7041021114943685</v>
+        <v>0.8821186629675386</v>
       </c>
       <c r="N12">
-        <v>0.7804150060143509</v>
+        <v>0.8688209161226997</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.7394073274058461</v>
+        <v>0.8298321648149538</v>
       </c>
       <c r="D13">
-        <v>0.9988470465537569</v>
+        <v>0.9986493846760079</v>
       </c>
       <c r="E13">
-        <v>0.7796300303667526</v>
+        <v>0.8577148063021022</v>
       </c>
       <c r="F13">
-        <v>0.6823224409674303</v>
+        <v>0.8652599295329899</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.015122757981337</v>
+        <v>1.018593218718977</v>
       </c>
       <c r="J13">
-        <v>0.7793082988420839</v>
+        <v>0.8689799581601318</v>
       </c>
       <c r="K13">
-        <v>1.011958857360894</v>
+        <v>1.01375838511201</v>
       </c>
       <c r="L13">
-        <v>0.7977079315377137</v>
+        <v>0.8761353135093496</v>
       </c>
       <c r="M13">
-        <v>0.7041021114943685</v>
+        <v>0.8834657200804502</v>
       </c>
       <c r="N13">
-        <v>0.7804150060143509</v>
+        <v>0.8702140093741136</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.7394073274058461</v>
+        <v>0.8350777565867112</v>
       </c>
       <c r="D14">
-        <v>0.9988470465537569</v>
+        <v>1.00011732154403</v>
       </c>
       <c r="E14">
-        <v>0.7796300303667526</v>
+        <v>0.8621810869067996</v>
       </c>
       <c r="F14">
-        <v>0.6823224409674303</v>
+        <v>0.8698824446516402</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.015122757981337</v>
+        <v>1.019757832525609</v>
       </c>
       <c r="J14">
-        <v>0.7793082988420839</v>
+        <v>0.8734332412000084</v>
       </c>
       <c r="K14">
-        <v>1.011958857360894</v>
+        <v>1.01505399164854</v>
       </c>
       <c r="L14">
-        <v>0.7977079315377137</v>
+        <v>0.8802933417820454</v>
       </c>
       <c r="M14">
-        <v>0.7041021114943685</v>
+        <v>0.8877811550726015</v>
       </c>
       <c r="N14">
-        <v>0.7804150060143509</v>
+        <v>0.8746736165867055</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.7394073274058461</v>
+        <v>0.8382196900660982</v>
       </c>
       <c r="D15">
-        <v>0.9988470465537569</v>
+        <v>1.001001999647333</v>
       </c>
       <c r="E15">
-        <v>0.7796300303667526</v>
+        <v>0.8648581700340796</v>
       </c>
       <c r="F15">
-        <v>0.6823224409674303</v>
+        <v>0.8726553190820703</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.015122757981337</v>
+        <v>1.020457011381078</v>
       </c>
       <c r="J15">
-        <v>0.7793082988420839</v>
+        <v>0.8761016594174962</v>
       </c>
       <c r="K15">
-        <v>1.011958857360894</v>
+        <v>1.015833221760525</v>
       </c>
       <c r="L15">
-        <v>0.7977079315377137</v>
+        <v>0.8827849501934852</v>
       </c>
       <c r="M15">
-        <v>0.7041021114943685</v>
+        <v>0.8903692776622927</v>
       </c>
       <c r="N15">
-        <v>0.7804150060143509</v>
+        <v>0.8773458242641339</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.7394073274058461</v>
+        <v>0.8553301611169887</v>
       </c>
       <c r="D16">
-        <v>0.9988470465537569</v>
+        <v>1.005890019332884</v>
       </c>
       <c r="E16">
-        <v>0.7796300303667526</v>
+        <v>0.8794612292663974</v>
       </c>
       <c r="F16">
-        <v>0.6823224409674303</v>
+        <v>0.8878082781226675</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.015122757981337</v>
+        <v>1.024284110669407</v>
       </c>
       <c r="J16">
-        <v>0.7793082988420839</v>
+        <v>0.8906458735202795</v>
       </c>
       <c r="K16">
-        <v>1.011958857360894</v>
+        <v>1.020117368133023</v>
       </c>
       <c r="L16">
-        <v>0.7977079315377137</v>
+        <v>0.8963665884162229</v>
       </c>
       <c r="M16">
-        <v>0.7041021114943685</v>
+        <v>0.9045051175340972</v>
       </c>
       <c r="N16">
-        <v>0.7804150060143509</v>
+        <v>0.8919106928191876</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.7394073274058461</v>
+        <v>0.8651945888796921</v>
       </c>
       <c r="D17">
-        <v>0.9988470465537569</v>
+        <v>1.008760762487152</v>
       </c>
       <c r="E17">
-        <v>0.7796300303667526</v>
+        <v>0.8878974518584618</v>
       </c>
       <c r="F17">
-        <v>0.6823224409674303</v>
+        <v>0.8965824782616999</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.015122757981337</v>
+        <v>1.026503778307399</v>
       </c>
       <c r="J17">
-        <v>0.7793082988420839</v>
+        <v>0.8990390988261873</v>
       </c>
       <c r="K17">
-        <v>1.011958857360894</v>
+        <v>1.022616907886259</v>
       </c>
       <c r="L17">
-        <v>0.7977079315377137</v>
+        <v>0.904204932228804</v>
       </c>
       <c r="M17">
-        <v>0.7041021114943685</v>
+        <v>0.9126842762180382</v>
       </c>
       <c r="N17">
-        <v>0.7804150060143509</v>
+        <v>0.9003158374677465</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.7394073274058461</v>
+        <v>0.8706877140833585</v>
       </c>
       <c r="D18">
-        <v>0.9988470465537569</v>
+        <v>1.010375666719564</v>
       </c>
       <c r="E18">
-        <v>0.7796300303667526</v>
+        <v>0.89260038496501</v>
       </c>
       <c r="F18">
-        <v>0.6823224409674303</v>
+        <v>0.9014800261215999</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.015122757981337</v>
+        <v>1.027743437256031</v>
       </c>
       <c r="J18">
-        <v>0.7793082988420839</v>
+        <v>0.903715156350331</v>
       </c>
       <c r="K18">
-        <v>1.011958857360894</v>
+        <v>1.024017674216076</v>
       </c>
       <c r="L18">
-        <v>0.7977079315377137</v>
+        <v>0.9085719563170999</v>
       </c>
       <c r="M18">
-        <v>0.7041021114943685</v>
+        <v>0.9172476324454649</v>
       </c>
       <c r="N18">
-        <v>0.7804150060143509</v>
+        <v>0.9049985355299257</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.7394073274058461</v>
+        <v>0.8725204874569241</v>
       </c>
       <c r="D19">
-        <v>0.9988470465537569</v>
+        <v>1.010917033761679</v>
       </c>
       <c r="E19">
-        <v>0.7796300303667526</v>
+        <v>0.8941702956644465</v>
       </c>
       <c r="F19">
-        <v>0.6823224409674303</v>
+        <v>0.9031158709424503</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.015122757981337</v>
+        <v>1.028157568538788</v>
       </c>
       <c r="J19">
-        <v>0.7793082988420839</v>
+        <v>0.9052756274633241</v>
       </c>
       <c r="K19">
-        <v>1.011958857360894</v>
+        <v>1.024486401387704</v>
       </c>
       <c r="L19">
-        <v>0.7977079315377137</v>
+        <v>0.9100293074014509</v>
       </c>
       <c r="M19">
-        <v>0.7041021114943685</v>
+        <v>0.9187715143931885</v>
       </c>
       <c r="N19">
-        <v>0.7804150060143509</v>
+        <v>0.9065612226908877</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.7394073274058461</v>
+        <v>0.8641641813857617</v>
       </c>
       <c r="D20">
-        <v>0.9988470465537569</v>
+        <v>1.008459125724053</v>
       </c>
       <c r="E20">
-        <v>0.7796300303667526</v>
+        <v>0.8870156695752706</v>
       </c>
       <c r="F20">
-        <v>0.6823224409674303</v>
+        <v>0.895664695601596</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.015122757981337</v>
+        <v>1.026271515520849</v>
       </c>
       <c r="J20">
-        <v>0.7793082988420839</v>
+        <v>0.8981621228284785</v>
       </c>
       <c r="K20">
-        <v>1.011958857360894</v>
+        <v>1.022354844756862</v>
       </c>
       <c r="L20">
-        <v>0.7977079315377137</v>
+        <v>0.9033859205810337</v>
       </c>
       <c r="M20">
-        <v>0.7041021114943685</v>
+        <v>0.9118289534822187</v>
       </c>
       <c r="N20">
-        <v>0.7804150060143509</v>
+        <v>0.8994376160635305</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.7394073274058461</v>
+        <v>0.8335523736385378</v>
       </c>
       <c r="D21">
-        <v>0.9988470465537569</v>
+        <v>0.9996892817662951</v>
       </c>
       <c r="E21">
-        <v>0.7796300303667526</v>
+        <v>0.8608819026602482</v>
       </c>
       <c r="F21">
-        <v>0.6823224409674303</v>
+        <v>0.8685373494715073</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.015122757981337</v>
+        <v>1.019418817960485</v>
       </c>
       <c r="J21">
-        <v>0.7793082988420839</v>
+        <v>0.8721380258264479</v>
       </c>
       <c r="K21">
-        <v>1.011958857360894</v>
+        <v>1.014676543192069</v>
       </c>
       <c r="L21">
-        <v>0.7977079315377137</v>
+        <v>0.8790839757629132</v>
       </c>
       <c r="M21">
-        <v>0.7041021114943685</v>
+        <v>0.8865255330701151</v>
       </c>
       <c r="N21">
-        <v>0.7804150060143509</v>
+        <v>0.8733765618587512</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.7394073274058461</v>
+        <v>0.8104919764572251</v>
       </c>
       <c r="D22">
-        <v>0.9988470465537569</v>
+        <v>0.9933369698505374</v>
       </c>
       <c r="E22">
-        <v>0.7796300303667526</v>
+        <v>0.841284756305167</v>
       </c>
       <c r="F22">
-        <v>0.6823224409674303</v>
+        <v>0.8482951339350414</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.015122757981337</v>
+        <v>1.014330925303733</v>
       </c>
       <c r="J22">
-        <v>0.7793082988420839</v>
+        <v>0.8525820057592496</v>
       </c>
       <c r="K22">
-        <v>1.011958857360894</v>
+        <v>1.009041588439849</v>
       </c>
       <c r="L22">
-        <v>0.7977079315377137</v>
+        <v>0.8608269318103718</v>
       </c>
       <c r="M22">
-        <v>0.7041021114943685</v>
+        <v>0.8676184924186942</v>
       </c>
       <c r="N22">
-        <v>0.7804150060143509</v>
+        <v>0.8537927699999505</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.7394073274058461</v>
+        <v>0.8231856044107709</v>
       </c>
       <c r="D23">
-        <v>0.9988470465537569</v>
+        <v>0.9968058541007192</v>
       </c>
       <c r="E23">
-        <v>0.7796300303667526</v>
+        <v>0.8520616635088945</v>
       </c>
       <c r="F23">
-        <v>0.6823224409674303</v>
+        <v>0.8594155813852277</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.015122757981337</v>
+        <v>1.017122630879882</v>
       </c>
       <c r="J23">
-        <v>0.7793082988420839</v>
+        <v>0.8633406520376596</v>
       </c>
       <c r="K23">
-        <v>1.011958857360894</v>
+        <v>1.012126568803009</v>
       </c>
       <c r="L23">
-        <v>0.7977079315377137</v>
+        <v>0.8708702579237101</v>
       </c>
       <c r="M23">
-        <v>0.7041021114943685</v>
+        <v>0.8780080227647323</v>
       </c>
       <c r="N23">
-        <v>0.7804150060143509</v>
+        <v>0.8645666947901103</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.7394073274058461</v>
+        <v>0.8646305713883975</v>
       </c>
       <c r="D24">
-        <v>0.9988470465537569</v>
+        <v>1.008595603892099</v>
       </c>
       <c r="E24">
-        <v>0.7796300303667526</v>
+        <v>0.8874147719630957</v>
       </c>
       <c r="F24">
-        <v>0.6823224409674303</v>
+        <v>0.8960800728043488</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.015122757981337</v>
+        <v>1.026376632777172</v>
       </c>
       <c r="J24">
-        <v>0.7793082988420839</v>
+        <v>0.8985590589208944</v>
       </c>
       <c r="K24">
-        <v>1.011958857360894</v>
+        <v>1.022473434035355</v>
       </c>
       <c r="L24">
-        <v>0.7977079315377137</v>
+        <v>0.9037566206012759</v>
       </c>
       <c r="M24">
-        <v>0.7041021114943685</v>
+        <v>0.9122160685188319</v>
       </c>
       <c r="N24">
-        <v>0.7804150060143509</v>
+        <v>0.8998351158507265</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.7394073274058461</v>
+        <v>0.9024560412098003</v>
       </c>
       <c r="D25">
-        <v>0.9988470465537569</v>
+        <v>1.019934421092806</v>
       </c>
       <c r="E25">
-        <v>0.7796300303667526</v>
+        <v>0.9198632321666951</v>
       </c>
       <c r="F25">
-        <v>0.6823224409674303</v>
+        <v>0.9299540029390497</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.015122757981337</v>
+        <v>1.034949682316865</v>
       </c>
       <c r="J25">
-        <v>0.7793082988420839</v>
+        <v>0.9307797147236948</v>
       </c>
       <c r="K25">
-        <v>1.011958857360894</v>
+        <v>1.032230966200689</v>
       </c>
       <c r="L25">
-        <v>0.7977079315377137</v>
+        <v>0.9338475186686187</v>
       </c>
       <c r="M25">
-        <v>0.7041021114943685</v>
+        <v>0.9437466073096266</v>
       </c>
       <c r="N25">
-        <v>0.7804150060143509</v>
+        <v>0.932101528680528</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_8/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_8/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9278369870246653</v>
+        <v>0.9906646819437845</v>
       </c>
       <c r="D2">
-        <v>1.027822992628432</v>
+        <v>1.03437864533587</v>
       </c>
       <c r="E2">
-        <v>0.9417118090010426</v>
+        <v>0.9983869219627807</v>
       </c>
       <c r="F2">
-        <v>0.9528689131124845</v>
+        <v>0.9670170836353525</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.040726615224262</v>
+        <v>1.047100058403413</v>
       </c>
       <c r="J2">
-        <v>0.9524133112841449</v>
+        <v>1.013128241622418</v>
       </c>
       <c r="K2">
-        <v>1.038907853759516</v>
+        <v>1.045378939605744</v>
       </c>
       <c r="L2">
-        <v>0.9540476971645566</v>
+        <v>1.009868775363879</v>
       </c>
       <c r="M2">
-        <v>0.965026398713713</v>
+        <v>0.9789558851093517</v>
       </c>
       <c r="N2">
-        <v>0.9537658474295021</v>
+        <v>1.014566999932956</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.94436517671595</v>
+        <v>0.9956531364086415</v>
       </c>
       <c r="D3">
-        <v>1.033069400850342</v>
+        <v>1.037348621611992</v>
       </c>
       <c r="E3">
-        <v>0.955965331706903</v>
+        <v>1.002387960834697</v>
       </c>
       <c r="F3">
-        <v>0.967860944562472</v>
+        <v>0.9747569989659722</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.044480877888135</v>
+        <v>1.048649760844408</v>
       </c>
       <c r="J3">
-        <v>0.9664966381889666</v>
+        <v>1.016263006850424</v>
       </c>
       <c r="K3">
-        <v>1.043295939507012</v>
+        <v>1.047524922018972</v>
       </c>
       <c r="L3">
-        <v>0.9671944739120456</v>
+        <v>1.01299037816793</v>
       </c>
       <c r="M3">
-        <v>0.9789222654299463</v>
+        <v>0.9857233932025331</v>
       </c>
       <c r="N3">
-        <v>0.9678691742739087</v>
+        <v>1.017706216887148</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9543635234406843</v>
+        <v>0.9988012090964423</v>
       </c>
       <c r="D4">
-        <v>1.036281549706525</v>
+        <v>1.039225059978637</v>
       </c>
       <c r="E4">
-        <v>0.9645957198908128</v>
+        <v>1.00491891276888</v>
       </c>
       <c r="F4">
-        <v>0.9769542621019931</v>
+        <v>0.9796284733844893</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.046743401961411</v>
+        <v>1.049614718501347</v>
       </c>
       <c r="J4">
-        <v>0.9750113194623211</v>
+        <v>1.01823562985775</v>
       </c>
       <c r="K4">
-        <v>1.045960953485872</v>
+        <v>1.048872045748057</v>
       </c>
       <c r="L4">
-        <v>0.9751410978131748</v>
+        <v>1.014958331168939</v>
       </c>
       <c r="M4">
-        <v>0.9873390237704666</v>
+        <v>0.989979146124608</v>
       </c>
       <c r="N4">
-        <v>0.9763959473713187</v>
+        <v>1.019681641245408</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9584208472028868</v>
+        <v>1.000106386478506</v>
       </c>
       <c r="D5">
-        <v>1.037592823380382</v>
+        <v>1.040003411837226</v>
       </c>
       <c r="E5">
-        <v>0.9680994280360563</v>
+        <v>1.005969629764751</v>
       </c>
       <c r="F5">
-        <v>0.9806492268067653</v>
+        <v>0.9816455009305352</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.047658882571112</v>
+        <v>1.050011600125017</v>
       </c>
       <c r="J5">
-        <v>0.9784651462709614</v>
+        <v>1.019052103888424</v>
       </c>
       <c r="K5">
-        <v>1.047043985820749</v>
+        <v>1.049428749111874</v>
       </c>
       <c r="L5">
-        <v>0.9783640381148612</v>
+        <v>1.015773730404069</v>
       </c>
       <c r="M5">
-        <v>0.9907563247940627</v>
+        <v>0.9917403094751445</v>
       </c>
       <c r="N5">
-        <v>0.9798546790101872</v>
+        <v>1.020499274762855</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9590940520818654</v>
+        <v>1.000324483085971</v>
       </c>
       <c r="D6">
-        <v>1.037810815173377</v>
+        <v>1.040133494420229</v>
       </c>
       <c r="E6">
-        <v>0.9686808526581985</v>
+        <v>1.006145286476382</v>
       </c>
       <c r="F6">
-        <v>0.9812625732014851</v>
+        <v>0.9819824041386924</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.047810610269964</v>
+        <v>1.050077730373182</v>
       </c>
       <c r="J6">
-        <v>0.9790381253023516</v>
+        <v>1.01918845681379</v>
       </c>
       <c r="K6">
-        <v>1.047223753635643</v>
+        <v>1.049521665865629</v>
       </c>
       <c r="L6">
-        <v>0.9788986858349854</v>
+        <v>1.015909954073458</v>
       </c>
       <c r="M6">
-        <v>0.9913234196027136</v>
+        <v>0.9920344202759422</v>
       </c>
       <c r="N6">
-        <v>0.9804284717375233</v>
+        <v>1.020635821325016</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9544182870230444</v>
+        <v>0.9988187196817633</v>
       </c>
       <c r="D7">
-        <v>1.036299219299199</v>
+        <v>1.039235501175123</v>
       </c>
       <c r="E7">
-        <v>0.964643005591465</v>
+        <v>1.004933003993546</v>
       </c>
       <c r="F7">
-        <v>0.9770041163089664</v>
+        <v>0.9796555443018354</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046755769924483</v>
+        <v>1.049620055842241</v>
       </c>
       <c r="J7">
-        <v>0.9750579434033146</v>
+        <v>1.01824658930121</v>
       </c>
       <c r="K7">
-        <v>1.045975566579135</v>
+        <v>1.048879521891184</v>
       </c>
       <c r="L7">
-        <v>0.9751846068478857</v>
+        <v>1.014969272800774</v>
       </c>
       <c r="M7">
-        <v>0.9873851425075876</v>
+        <v>0.9900027867505845</v>
       </c>
       <c r="N7">
-        <v>0.9764426375236569</v>
+        <v>1.019692616252534</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9335810259730952</v>
+        <v>0.9923675925997566</v>
       </c>
       <c r="D8">
-        <v>1.029636956221497</v>
+        <v>1.03539196791805</v>
       </c>
       <c r="E8">
-        <v>0.9466632866920646</v>
+        <v>0.9997514649261222</v>
       </c>
       <c r="F8">
-        <v>0.9580732023832856</v>
+        <v>0.9696622748145769</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.042032762855313</v>
+        <v>1.04763177974844</v>
       </c>
       <c r="J8">
-        <v>0.9573084944553547</v>
+        <v>1.014199535394458</v>
       </c>
       <c r="K8">
-        <v>1.040429900249553</v>
+        <v>1.046112958697934</v>
       </c>
       <c r="L8">
-        <v>0.958617723226573</v>
+        <v>1.010934803829722</v>
       </c>
       <c r="M8">
-        <v>0.9698527314819779</v>
+        <v>0.9812694992584722</v>
       </c>
       <c r="N8">
-        <v>0.9586679823223003</v>
+        <v>1.01563981506503</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8902528531581797</v>
+        <v>0.9803483026780893</v>
       </c>
       <c r="D9">
-        <v>1.016219434382657</v>
+        <v>1.028254949587156</v>
       </c>
       <c r="E9">
-        <v>0.90937852366026</v>
+        <v>0.9901481871800291</v>
       </c>
       <c r="F9">
-        <v>0.9189872280940167</v>
+        <v>0.9509160534740164</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.032175658384213</v>
+        <v>1.043825768132988</v>
       </c>
       <c r="J9">
-        <v>0.9203800406327373</v>
+        <v>1.006614622386596</v>
       </c>
       <c r="K9">
-        <v>1.029054731559232</v>
+        <v>1.04090565940608</v>
       </c>
       <c r="L9">
-        <v>0.9241355367804334</v>
+        <v>1.003403151400741</v>
       </c>
       <c r="M9">
-        <v>0.9335473248954204</v>
+        <v>0.9648590646564821</v>
       </c>
       <c r="N9">
-        <v>0.9216870858595018</v>
+        <v>1.008044130610696</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8541767153049497</v>
+        <v>0.971835172383639</v>
       </c>
       <c r="D10">
-        <v>1.005556831747195</v>
+        <v>1.023226081492073</v>
       </c>
       <c r="E10">
-        <v>0.8784755834993078</v>
+        <v>0.983384200102203</v>
       </c>
       <c r="F10">
-        <v>0.8867840955250563</v>
+        <v>0.937514320327497</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.024025156603806</v>
+        <v>1.041065271674983</v>
       </c>
       <c r="J10">
-        <v>0.8896648185072394</v>
+        <v>1.00121259112512</v>
       </c>
       <c r="K10">
-        <v>1.019826475500316</v>
+        <v>1.0371882733885</v>
       </c>
       <c r="L10">
-        <v>0.8954504139280737</v>
+        <v>0.9980600815169083</v>
       </c>
       <c r="M10">
-        <v>0.9035500933666373</v>
+        <v>0.9531115095699455</v>
       </c>
       <c r="N10">
-        <v>0.8909282445955008</v>
+        <v>1.002634427845207</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.050000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8356826230832411</v>
+        <v>0.968014468440616</v>
       </c>
       <c r="D11">
-        <v>1.000287319398585</v>
+        <v>1.020977754194249</v>
       </c>
       <c r="E11">
-        <v>0.8626963520619045</v>
+        <v>0.9803583654066648</v>
       </c>
       <c r="F11">
-        <v>0.8704160230641758</v>
+        <v>0.9314602834944766</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.019892342034545</v>
+        <v>1.03981198207694</v>
       </c>
       <c r="J11">
-        <v>0.8739468895357319</v>
+        <v>0.9987811958063478</v>
       </c>
       <c r="K11">
-        <v>1.015203819329949</v>
+        <v>1.035514615200428</v>
       </c>
       <c r="L11">
-        <v>0.8807729497316245</v>
+        <v>0.9956604499331305</v>
       </c>
       <c r="M11">
-        <v>0.8882792141360962</v>
+        <v>0.947801848885051</v>
       </c>
       <c r="N11">
-        <v>0.8751879943619817</v>
+        <v>1.000199579666197</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8281929943659905</v>
+        <v>0.9665735753009134</v>
       </c>
       <c r="D12">
-        <v>0.998193017968609</v>
+        <v>1.020131367683009</v>
       </c>
       <c r="E12">
-        <v>0.8563200031055177</v>
+        <v>0.979218796884911</v>
       </c>
       <c r="F12">
-        <v>0.8638172640366083</v>
+        <v>0.9291702548266442</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.018230006752579</v>
+        <v>1.039337260866442</v>
       </c>
       <c r="J12">
-        <v>0.8675888404554222</v>
+        <v>0.9978632085598284</v>
       </c>
       <c r="K12">
-        <v>1.013354918976804</v>
+        <v>1.034882785093973</v>
       </c>
       <c r="L12">
-        <v>0.8748364773602576</v>
+        <v>0.9947552635945275</v>
       </c>
       <c r="M12">
-        <v>0.8821186629675386</v>
+        <v>0.9457930429846269</v>
       </c>
       <c r="N12">
-        <v>0.8688209161226997</v>
+        <v>0.9992802887724932</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8298321648149538</v>
+        <v>0.9668836604128225</v>
       </c>
       <c r="D13">
-        <v>0.9986493846760079</v>
+        <v>1.020313440561123</v>
       </c>
       <c r="E13">
-        <v>0.8577148063021022</v>
+        <v>0.9794639642941102</v>
       </c>
       <c r="F13">
-        <v>0.8652599295329899</v>
+        <v>0.9296634047139083</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.018593218718977</v>
+        <v>1.039439514539015</v>
       </c>
       <c r="J13">
-        <v>0.8689799581601318</v>
+        <v>0.9980608095126343</v>
       </c>
       <c r="K13">
-        <v>1.01375838511201</v>
+        <v>1.035018783845498</v>
       </c>
       <c r="L13">
-        <v>0.8761353135093496</v>
+        <v>0.9949500721929889</v>
       </c>
       <c r="M13">
-        <v>0.8834657200804502</v>
+        <v>0.9462256467838875</v>
       </c>
       <c r="N13">
-        <v>0.8702140093741136</v>
+        <v>0.9994781703413173</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8350777565867112</v>
+        <v>0.9678958160344019</v>
       </c>
       <c r="D14">
-        <v>1.00011732154403</v>
+        <v>1.020908025089807</v>
       </c>
       <c r="E14">
-        <v>0.8621810869067996</v>
+        <v>0.9802644939264854</v>
       </c>
       <c r="F14">
-        <v>0.8698824446516402</v>
+        <v>0.9312718536467443</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.019757832525609</v>
+        <v>1.039772932000352</v>
       </c>
       <c r="J14">
-        <v>0.8734332412000084</v>
+        <v>0.9987056239527302</v>
       </c>
       <c r="K14">
-        <v>1.01505399164854</v>
+        <v>1.035462598505404</v>
       </c>
       <c r="L14">
-        <v>0.8802933417820454</v>
+        <v>0.9955859153448994</v>
       </c>
       <c r="M14">
-        <v>0.8877811550726015</v>
+        <v>0.9476365653700559</v>
       </c>
       <c r="N14">
-        <v>0.8746736165867055</v>
+        <v>1.000123900491879</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8382196900660982</v>
+        <v>0.968516513283927</v>
       </c>
       <c r="D15">
-        <v>1.001001999647333</v>
+        <v>1.021272856844573</v>
       </c>
       <c r="E15">
-        <v>0.8648581700340796</v>
+        <v>0.980755620477078</v>
       </c>
       <c r="F15">
-        <v>0.8726553190820703</v>
+        <v>0.9322572859529457</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.020457011381078</v>
+        <v>1.039977127919348</v>
       </c>
       <c r="J15">
-        <v>0.8761016594174962</v>
+        <v>0.9991009148578083</v>
       </c>
       <c r="K15">
-        <v>1.015833221760525</v>
+        <v>1.035734684014666</v>
       </c>
       <c r="L15">
-        <v>0.8827849501934852</v>
+        <v>0.995975813695839</v>
       </c>
       <c r="M15">
-        <v>0.8903692776622927</v>
+        <v>0.9485009355664676</v>
       </c>
       <c r="N15">
-        <v>0.8773458242641339</v>
+        <v>1.000519752755383</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8553301611169887</v>
+        <v>0.9720857814925397</v>
       </c>
       <c r="D16">
-        <v>1.005890019332884</v>
+        <v>1.023373752349372</v>
       </c>
       <c r="E16">
-        <v>0.8794612292663974</v>
+        <v>0.9835828828293987</v>
       </c>
       <c r="F16">
-        <v>0.8878082781226675</v>
+        <v>0.9379105231595216</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.024284110669407</v>
+        <v>1.041147186778529</v>
       </c>
       <c r="J16">
-        <v>0.8906458735202795</v>
+        <v>1.00137192813777</v>
       </c>
       <c r="K16">
-        <v>1.020117368133023</v>
+        <v>1.037297954971694</v>
       </c>
       <c r="L16">
-        <v>0.8963665884162229</v>
+        <v>0.9982174472413808</v>
       </c>
       <c r="M16">
-        <v>0.9045051175340972</v>
+        <v>0.9534589443921035</v>
       </c>
       <c r="N16">
-        <v>0.8919106928191876</v>
+        <v>1.002793991134691</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8651945888796921</v>
+        <v>0.9742876712858533</v>
       </c>
       <c r="D17">
-        <v>1.008760762487152</v>
+        <v>1.024672215048113</v>
       </c>
       <c r="E17">
-        <v>0.8878974518584618</v>
+        <v>0.9853296650972873</v>
       </c>
       <c r="F17">
-        <v>0.8965824782616999</v>
+        <v>0.9413870607216162</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.026503778307399</v>
+        <v>1.041865286312942</v>
       </c>
       <c r="J17">
-        <v>0.8990390988261873</v>
+        <v>1.002771099869364</v>
       </c>
       <c r="K17">
-        <v>1.022616907886259</v>
+        <v>1.038261051332541</v>
       </c>
       <c r="L17">
-        <v>0.904204932228804</v>
+        <v>0.9995999026191243</v>
       </c>
       <c r="M17">
-        <v>0.9126842762180382</v>
+        <v>0.956507244450532</v>
       </c>
       <c r="N17">
-        <v>0.9003158374677465</v>
+        <v>1.004195149850631</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8706877140833585</v>
+        <v>0.9755591328970792</v>
       </c>
       <c r="D18">
-        <v>1.010375666719564</v>
+        <v>1.025422800861137</v>
       </c>
       <c r="E18">
-        <v>0.89260038496501</v>
+        <v>0.9863392539638887</v>
       </c>
       <c r="F18">
-        <v>0.9014800261215999</v>
+        <v>0.9433909130429499</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.027743437256031</v>
+        <v>1.042278582973735</v>
       </c>
       <c r="J18">
-        <v>0.903715156350331</v>
+        <v>1.003578382050262</v>
       </c>
       <c r="K18">
-        <v>1.024017674216076</v>
+        <v>1.038816673028031</v>
       </c>
       <c r="L18">
-        <v>0.9085719563170999</v>
+        <v>1.000398030952271</v>
       </c>
       <c r="M18">
-        <v>0.9172476324454649</v>
+        <v>0.9582639873389696</v>
       </c>
       <c r="N18">
-        <v>0.9049985355299257</v>
+        <v>1.005003578464823</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8725204874569241</v>
+        <v>0.9759905299388959</v>
       </c>
       <c r="D19">
-        <v>1.010917033761679</v>
+        <v>1.025677598172647</v>
       </c>
       <c r="E19">
-        <v>0.8941702956644465</v>
+        <v>0.9866819543082023</v>
       </c>
       <c r="F19">
-        <v>0.9031158709424503</v>
+        <v>0.9440702135272124</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.028157568538788</v>
+        <v>1.042418577468619</v>
       </c>
       <c r="J19">
-        <v>0.9052756274633241</v>
+        <v>1.003852174980895</v>
       </c>
       <c r="K19">
-        <v>1.024486401387704</v>
+        <v>1.039005100464852</v>
       </c>
       <c r="L19">
-        <v>0.9100293074014509</v>
+        <v>1.000668801968142</v>
       </c>
       <c r="M19">
-        <v>0.9187715143931885</v>
+        <v>0.9588594692296347</v>
       </c>
       <c r="N19">
-        <v>0.9065612226908877</v>
+        <v>1.005277760212822</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8641641813857617</v>
+        <v>0.974052770296218</v>
       </c>
       <c r="D20">
-        <v>1.008459125724053</v>
+        <v>1.024533608443103</v>
       </c>
       <c r="E20">
-        <v>0.8870156695752706</v>
+        <v>0.985143219092156</v>
       </c>
       <c r="F20">
-        <v>0.895664695601596</v>
+        <v>0.9410165631748226</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.026271515520849</v>
+        <v>1.041788819316798</v>
       </c>
       <c r="J20">
-        <v>0.8981621228284785</v>
+        <v>1.002621902260683</v>
       </c>
       <c r="K20">
-        <v>1.022354844756862</v>
+        <v>1.038158358641187</v>
       </c>
       <c r="L20">
-        <v>0.9033859205810337</v>
+        <v>0.9994524363662003</v>
       </c>
       <c r="M20">
-        <v>0.9118289534822187</v>
+        <v>0.9561824126874333</v>
       </c>
       <c r="N20">
-        <v>0.8994376160635305</v>
+        <v>1.004045740364233</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8335523736385378</v>
+        <v>0.9675983737897447</v>
       </c>
       <c r="D21">
-        <v>0.9996892817662951</v>
+        <v>1.02073325083751</v>
       </c>
       <c r="E21">
-        <v>0.8608819026602482</v>
+        <v>0.9800291987617736</v>
       </c>
       <c r="F21">
-        <v>0.8685373494715073</v>
+        <v>0.9307993763818175</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.019418817960485</v>
+        <v>1.03967500679992</v>
       </c>
       <c r="J21">
-        <v>0.8721380258264479</v>
+        <v>0.9985161608888888</v>
       </c>
       <c r="K21">
-        <v>1.014676543192069</v>
+        <v>1.035332191229238</v>
       </c>
       <c r="L21">
-        <v>0.8790839757629132</v>
+        <v>0.9953990658565045</v>
       </c>
       <c r="M21">
-        <v>0.8865255330701151</v>
+        <v>0.9472221209331042</v>
       </c>
       <c r="N21">
-        <v>0.8733765618587512</v>
+        <v>0.9999341683687556</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8104919764572251</v>
+        <v>0.9634137384023336</v>
       </c>
       <c r="D22">
-        <v>0.9933369698505374</v>
+        <v>1.018278326710802</v>
       </c>
       <c r="E22">
-        <v>0.841284756305167</v>
+        <v>0.976722714022351</v>
       </c>
       <c r="F22">
-        <v>0.8482951339350414</v>
+        <v>0.9241344107802761</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.014330925303733</v>
+        <v>1.038292498590703</v>
       </c>
       <c r="J22">
-        <v>0.8525820057592496</v>
+        <v>0.9958481734542621</v>
       </c>
       <c r="K22">
-        <v>1.009041588439849</v>
+        <v>1.033496179428088</v>
       </c>
       <c r="L22">
-        <v>0.8608269318103718</v>
+        <v>0.9927698451234219</v>
       </c>
       <c r="M22">
-        <v>0.8676184924186942</v>
+        <v>0.9413750757522644</v>
       </c>
       <c r="N22">
-        <v>0.8537927699999505</v>
+        <v>0.9972623920859494</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8231856044107709</v>
+        <v>0.9656446322203603</v>
       </c>
       <c r="D23">
-        <v>0.9968058541007192</v>
+        <v>1.019586160378619</v>
       </c>
       <c r="E23">
-        <v>0.8520616635088945</v>
+        <v>0.9784845666473814</v>
       </c>
       <c r="F23">
-        <v>0.8594155813852277</v>
+        <v>0.9276918005758722</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.017122630879882</v>
+        <v>1.039030636107923</v>
       </c>
       <c r="J23">
-        <v>0.8633406520376596</v>
+        <v>0.997271089498819</v>
       </c>
       <c r="K23">
-        <v>1.012126568803009</v>
+        <v>1.034475281389933</v>
       </c>
       <c r="L23">
-        <v>0.8708702579237101</v>
+        <v>0.9941716323698847</v>
       </c>
       <c r="M23">
-        <v>0.8780080227647323</v>
+        <v>0.9444960607287486</v>
       </c>
       <c r="N23">
-        <v>0.8645666947901103</v>
+        <v>0.9986873288345004</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8646305713883975</v>
+        <v>0.9741589515825908</v>
       </c>
       <c r="D24">
-        <v>1.008595603892099</v>
+        <v>1.024596259725525</v>
       </c>
       <c r="E24">
-        <v>0.8874147719630957</v>
+        <v>0.9852274946148568</v>
       </c>
       <c r="F24">
-        <v>0.8960800728043488</v>
+        <v>0.9411840488258886</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.026376632777172</v>
+        <v>1.041823388603089</v>
       </c>
       <c r="J24">
-        <v>0.8985590589208944</v>
+        <v>1.002689345455003</v>
       </c>
       <c r="K24">
-        <v>1.022473434035355</v>
+        <v>1.038204779970636</v>
       </c>
       <c r="L24">
-        <v>0.9037566206012759</v>
+        <v>0.9995190953969159</v>
       </c>
       <c r="M24">
-        <v>0.9122160685188319</v>
+        <v>0.9563292557096702</v>
       </c>
       <c r="N24">
-        <v>0.8998351158507265</v>
+        <v>1.004113279335624</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9024560412098003</v>
+        <v>0.9835388420746495</v>
       </c>
       <c r="D25">
-        <v>1.019934421092806</v>
+        <v>1.030145737597023</v>
       </c>
       <c r="E25">
-        <v>0.9198632321666951</v>
+        <v>0.9926911644511971</v>
       </c>
       <c r="F25">
-        <v>0.9299540029390497</v>
+        <v>0.9559105860918701</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.034949682316865</v>
+        <v>1.044847478926635</v>
       </c>
       <c r="J25">
-        <v>0.9307797147236948</v>
+        <v>1.008633179261092</v>
       </c>
       <c r="K25">
-        <v>1.032230966200689</v>
+        <v>1.042293433497078</v>
       </c>
       <c r="L25">
-        <v>0.9338475186686187</v>
+        <v>1.005404010262156</v>
       </c>
       <c r="M25">
-        <v>0.9437466073096266</v>
+        <v>0.9692341997513398</v>
       </c>
       <c r="N25">
-        <v>0.932101528680528</v>
+        <v>1.010065554067486</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_8/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_8/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9906646819437845</v>
+        <v>1.023130727947523</v>
       </c>
       <c r="D2">
-        <v>1.03437864533587</v>
+        <v>1.035615442726687</v>
       </c>
       <c r="E2">
-        <v>0.9983869219627807</v>
+        <v>1.023785036471742</v>
       </c>
       <c r="F2">
-        <v>0.9670170836353525</v>
+        <v>1.021590676354961</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.047100058403413</v>
+        <v>1.034848642532224</v>
       </c>
       <c r="J2">
-        <v>1.013128241622418</v>
+        <v>1.02831267284185</v>
       </c>
       <c r="K2">
-        <v>1.045378939605744</v>
+        <v>1.038411539414883</v>
       </c>
       <c r="L2">
-        <v>1.009868775363879</v>
+        <v>1.026615455125279</v>
       </c>
       <c r="M2">
-        <v>0.9789558851093517</v>
+        <v>1.024427556298778</v>
       </c>
       <c r="N2">
-        <v>1.014566999932956</v>
+        <v>1.029772994786401</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9956531364086415</v>
+        <v>1.024140357870903</v>
       </c>
       <c r="D3">
-        <v>1.037348621611992</v>
+        <v>1.036196161651538</v>
       </c>
       <c r="E3">
-        <v>1.002387960834697</v>
+        <v>1.024643008345294</v>
       </c>
       <c r="F3">
-        <v>0.9747569989659722</v>
+        <v>1.02323862656823</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.048649760844408</v>
+        <v>1.035077221173152</v>
       </c>
       <c r="J3">
-        <v>1.016263006850424</v>
+        <v>1.028960337456806</v>
       </c>
       <c r="K3">
-        <v>1.047524922018972</v>
+        <v>1.038802297906844</v>
       </c>
       <c r="L3">
-        <v>1.01299037816793</v>
+        <v>1.027280240583787</v>
       </c>
       <c r="M3">
-        <v>0.9857233932025331</v>
+        <v>1.025879690600248</v>
       </c>
       <c r="N3">
-        <v>1.017706216887148</v>
+        <v>1.030421579159396</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9988012090964423</v>
+        <v>1.024793234842583</v>
       </c>
       <c r="D4">
-        <v>1.039225059978637</v>
+        <v>1.036571360318531</v>
       </c>
       <c r="E4">
-        <v>1.00491891276888</v>
+        <v>1.0251981996443</v>
       </c>
       <c r="F4">
-        <v>0.9796284733844893</v>
+        <v>1.024304414237874</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.049614718501347</v>
+        <v>1.035223376289552</v>
       </c>
       <c r="J4">
-        <v>1.01823562985775</v>
+        <v>1.029378440451319</v>
       </c>
       <c r="K4">
-        <v>1.048872045748057</v>
+        <v>1.039053880962959</v>
       </c>
       <c r="L4">
-        <v>1.014958331168939</v>
+        <v>1.027709791451731</v>
       </c>
       <c r="M4">
-        <v>0.989979146124608</v>
+        <v>1.026818320189108</v>
       </c>
       <c r="N4">
-        <v>1.019681641245408</v>
+        <v>1.030840275908117</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.000106386478506</v>
+        <v>1.025067604633605</v>
       </c>
       <c r="D5">
-        <v>1.040003411837226</v>
+        <v>1.036728957485635</v>
       </c>
       <c r="E5">
-        <v>1.005969629764751</v>
+        <v>1.025431608663841</v>
       </c>
       <c r="F5">
-        <v>0.9816455009305352</v>
+        <v>1.024752347682966</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.050011600125017</v>
+        <v>1.035284400673741</v>
       </c>
       <c r="J5">
-        <v>1.019052103888424</v>
+        <v>1.029553977213777</v>
       </c>
       <c r="K5">
-        <v>1.049428749111874</v>
+        <v>1.03915934334674</v>
       </c>
       <c r="L5">
-        <v>1.015773730404069</v>
+        <v>1.027890229164885</v>
       </c>
       <c r="M5">
-        <v>0.9917403094751445</v>
+        <v>1.027212687188839</v>
       </c>
       <c r="N5">
-        <v>1.020499274762855</v>
+        <v>1.031016061952913</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.000324483085971</v>
+        <v>1.025113666715553</v>
       </c>
       <c r="D6">
-        <v>1.040133494420229</v>
+        <v>1.036755410717863</v>
       </c>
       <c r="E6">
-        <v>1.006145286476382</v>
+        <v>1.025470799461902</v>
       </c>
       <c r="F6">
-        <v>0.9819824041386924</v>
+        <v>1.024827550631849</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.050077730373182</v>
+        <v>1.035294622348442</v>
       </c>
       <c r="J6">
-        <v>1.01918845681379</v>
+        <v>1.029583436922744</v>
       </c>
       <c r="K6">
-        <v>1.049521665865629</v>
+        <v>1.039177033152315</v>
       </c>
       <c r="L6">
-        <v>1.015909954073458</v>
+        <v>1.027920516934989</v>
       </c>
       <c r="M6">
-        <v>0.9920344202759422</v>
+        <v>1.027278889665241</v>
       </c>
       <c r="N6">
-        <v>1.020635821325016</v>
+        <v>1.031045563498045</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9988187196817633</v>
+        <v>1.024796901375482</v>
       </c>
       <c r="D7">
-        <v>1.039235501175123</v>
+        <v>1.036573466676672</v>
       </c>
       <c r="E7">
-        <v>1.004933003993546</v>
+        <v>1.025201318440719</v>
       </c>
       <c r="F7">
-        <v>0.9796555443018354</v>
+        <v>1.02431040002372</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.049620055842241</v>
+        <v>1.035224193347831</v>
       </c>
       <c r="J7">
-        <v>1.01824658930121</v>
+        <v>1.02938078689969</v>
       </c>
       <c r="K7">
-        <v>1.048879521891184</v>
+        <v>1.039055291348343</v>
       </c>
       <c r="L7">
-        <v>1.014969272800774</v>
+        <v>1.02771220304028</v>
       </c>
       <c r="M7">
-        <v>0.9900027867505845</v>
+        <v>1.026823590647719</v>
       </c>
       <c r="N7">
-        <v>1.019692616252534</v>
+        <v>1.030842625688714</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9923675925997566</v>
+        <v>1.023472024979165</v>
       </c>
       <c r="D8">
-        <v>1.03539196791805</v>
+        <v>1.035811815850306</v>
       </c>
       <c r="E8">
-        <v>0.9997514649261222</v>
+        <v>1.024074986884039</v>
       </c>
       <c r="F8">
-        <v>0.9696622748145769</v>
+        <v>1.022147726242332</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.04763177974844</v>
+        <v>1.034926254134058</v>
       </c>
       <c r="J8">
-        <v>1.014199535394458</v>
+        <v>1.028531757338986</v>
       </c>
       <c r="K8">
-        <v>1.046112958697934</v>
+        <v>1.038543859417651</v>
       </c>
       <c r="L8">
-        <v>1.010934803829722</v>
+        <v>1.026840249052092</v>
       </c>
       <c r="M8">
-        <v>0.9812694992584722</v>
+        <v>1.02491852231425</v>
       </c>
       <c r="N8">
-        <v>1.01563981506503</v>
+        <v>1.029992390408649</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9803483026780893</v>
+        <v>1.021134147102561</v>
       </c>
       <c r="D9">
-        <v>1.028254949587156</v>
+        <v>1.034465404232668</v>
       </c>
       <c r="E9">
-        <v>0.9901481871800291</v>
+        <v>1.022090430466267</v>
       </c>
       <c r="F9">
-        <v>0.9509160534740164</v>
+        <v>1.018332316262657</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.043825768132988</v>
+        <v>1.034387845656116</v>
       </c>
       <c r="J9">
-        <v>1.006614622386596</v>
+        <v>1.027028125494133</v>
       </c>
       <c r="K9">
-        <v>1.04090565940608</v>
+        <v>1.037632996199009</v>
       </c>
       <c r="L9">
-        <v>1.003403151400741</v>
+        <v>1.02529906084883</v>
       </c>
       <c r="M9">
-        <v>0.9648590646564821</v>
+        <v>1.021553626349326</v>
       </c>
       <c r="N9">
-        <v>1.008044130610696</v>
+        <v>1.028486623234107</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.971835172383639</v>
+        <v>1.019573284059292</v>
       </c>
       <c r="D10">
-        <v>1.023226081492073</v>
+        <v>1.033564972517911</v>
       </c>
       <c r="E10">
-        <v>0.983384200102203</v>
+        <v>1.020767490053333</v>
       </c>
       <c r="F10">
-        <v>0.937514320327497</v>
+        <v>1.015785235942943</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.041065271674983</v>
+        <v>1.034019901860458</v>
       </c>
       <c r="J10">
-        <v>1.00121259112512</v>
+        <v>1.02602059064839</v>
       </c>
       <c r="K10">
-        <v>1.0371882733885</v>
+        <v>1.037019293778018</v>
       </c>
       <c r="L10">
-        <v>0.9980600815169083</v>
+        <v>1.024268410245704</v>
       </c>
       <c r="M10">
-        <v>0.9531115095699455</v>
+        <v>1.01930464912694</v>
       </c>
       <c r="N10">
-        <v>1.002634427845207</v>
+        <v>1.027477657573318</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.968014468440616</v>
+        <v>1.018896855186722</v>
       </c>
       <c r="D11">
-        <v>1.020977754194249</v>
+        <v>1.033174417317162</v>
       </c>
       <c r="E11">
-        <v>0.9803583654066648</v>
+        <v>1.020194658413008</v>
       </c>
       <c r="F11">
-        <v>0.9314602834944766</v>
+        <v>1.014681398391499</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.03981198207694</v>
+        <v>1.033858442865716</v>
       </c>
       <c r="J11">
-        <v>0.9987811958063478</v>
+        <v>1.025583092386188</v>
       </c>
       <c r="K11">
-        <v>1.035514615200428</v>
+        <v>1.036752027482242</v>
       </c>
       <c r="L11">
-        <v>0.9956604499331305</v>
+        <v>1.023821361260666</v>
       </c>
       <c r="M11">
-        <v>0.947801848885051</v>
+        <v>1.018329375512949</v>
       </c>
       <c r="N11">
-        <v>1.000199579666197</v>
+        <v>1.0270395380134</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9665735753009134</v>
+        <v>1.018645512881558</v>
       </c>
       <c r="D12">
-        <v>1.020131367683009</v>
+        <v>1.033029249077126</v>
       </c>
       <c r="E12">
-        <v>0.979218796884911</v>
+        <v>1.019981884081216</v>
       </c>
       <c r="F12">
-        <v>0.9291702548266442</v>
+        <v>1.014271234852776</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.039337260866442</v>
+        <v>1.033798148719386</v>
       </c>
       <c r="J12">
-        <v>0.9978632085598284</v>
+        <v>1.025420400300822</v>
       </c>
       <c r="K12">
-        <v>1.034882785093973</v>
+        <v>1.036652523549112</v>
       </c>
       <c r="L12">
-        <v>0.9947552635945275</v>
+        <v>1.023655190750662</v>
       </c>
       <c r="M12">
-        <v>0.9457930429846269</v>
+        <v>1.017966889848684</v>
       </c>
       <c r="N12">
-        <v>0.9992802887724932</v>
+        <v>1.026876614886614</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9668836604128225</v>
+        <v>1.018699430600168</v>
       </c>
       <c r="D13">
-        <v>1.020313440561123</v>
+        <v>1.03306039260786</v>
       </c>
       <c r="E13">
-        <v>0.9794639642941102</v>
+        <v>1.020027524870858</v>
       </c>
       <c r="F13">
-        <v>0.9296634047139083</v>
+        <v>1.014359223211858</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.039439514539015</v>
+        <v>1.03381109654905</v>
       </c>
       <c r="J13">
-        <v>0.9980608095126343</v>
+        <v>1.025455306728918</v>
       </c>
       <c r="K13">
-        <v>1.035018783845498</v>
+        <v>1.036673877851972</v>
       </c>
       <c r="L13">
-        <v>0.9949500721929889</v>
+        <v>1.023690840179992</v>
       </c>
       <c r="M13">
-        <v>0.9462256467838875</v>
+        <v>1.018044654585288</v>
       </c>
       <c r="N13">
-        <v>0.9994781703413173</v>
+        <v>1.026911570885841</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9678958160344019</v>
+        <v>1.018876080927553</v>
       </c>
       <c r="D14">
-        <v>1.020908025089807</v>
+        <v>1.03316241967266</v>
       </c>
       <c r="E14">
-        <v>0.9802644939264854</v>
+        <v>1.020177070407245</v>
       </c>
       <c r="F14">
-        <v>0.9312718536467443</v>
+        <v>1.014647497237771</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.039772932000352</v>
+        <v>1.033853465483113</v>
       </c>
       <c r="J14">
-        <v>0.9987056239527302</v>
+        <v>1.025569648003366</v>
       </c>
       <c r="K14">
-        <v>1.035462598505404</v>
+        <v>1.036743807132107</v>
       </c>
       <c r="L14">
-        <v>0.9955859153448994</v>
+        <v>1.023807627938333</v>
       </c>
       <c r="M14">
-        <v>0.9476365653700559</v>
+        <v>1.018299416981152</v>
       </c>
       <c r="N14">
-        <v>1.000123900491879</v>
+        <v>1.027026074538013</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.968516513283927</v>
+        <v>1.018984909512584</v>
       </c>
       <c r="D15">
-        <v>1.021272856844573</v>
+        <v>1.033225268868046</v>
       </c>
       <c r="E15">
-        <v>0.980755620477078</v>
+        <v>1.020269210438541</v>
       </c>
       <c r="F15">
-        <v>0.9322572859529457</v>
+        <v>1.014825092359209</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.039977127919348</v>
+        <v>1.033879527833253</v>
       </c>
       <c r="J15">
-        <v>0.9991009148578083</v>
+        <v>1.02564007278918</v>
       </c>
       <c r="K15">
-        <v>1.035734684014666</v>
+        <v>1.036786862492709</v>
       </c>
       <c r="L15">
-        <v>0.995975813695839</v>
+        <v>1.02387956925261</v>
       </c>
       <c r="M15">
-        <v>0.9485009355664676</v>
+        <v>1.018456354378644</v>
       </c>
       <c r="N15">
-        <v>1.000519752755383</v>
+        <v>1.027096599335101</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9720857814925397</v>
+        <v>1.019618164375098</v>
       </c>
       <c r="D16">
-        <v>1.023373752349372</v>
+        <v>1.033590878499464</v>
       </c>
       <c r="E16">
-        <v>0.9835828828293987</v>
+        <v>1.020805507160016</v>
       </c>
       <c r="F16">
-        <v>0.9379105231595216</v>
+        <v>1.015858473569552</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.041147186778529</v>
+        <v>1.034030572336776</v>
       </c>
       <c r="J16">
-        <v>1.00137192813777</v>
+        <v>1.026049599979138</v>
       </c>
       <c r="K16">
-        <v>1.037297954971694</v>
+        <v>1.037036999179838</v>
       </c>
       <c r="L16">
-        <v>0.9982174472413808</v>
+        <v>1.024298063108689</v>
       </c>
       <c r="M16">
-        <v>0.9534589443921035</v>
+        <v>1.019369343598888</v>
       </c>
       <c r="N16">
-        <v>1.002793991134691</v>
+        <v>1.027506708100643</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9742876712858533</v>
+        <v>1.0200152360363</v>
       </c>
       <c r="D17">
-        <v>1.024672215048113</v>
+        <v>1.033820039049194</v>
       </c>
       <c r="E17">
-        <v>0.9853296650972873</v>
+        <v>1.021141914189604</v>
       </c>
       <c r="F17">
-        <v>0.9413870607216162</v>
+        <v>1.016506429892374</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.041865286312942</v>
+        <v>1.03412474642748</v>
       </c>
       <c r="J17">
-        <v>1.002771099869364</v>
+        <v>1.026306155746577</v>
       </c>
       <c r="K17">
-        <v>1.038261051332541</v>
+        <v>1.03719349421784</v>
       </c>
       <c r="L17">
-        <v>0.9995999026191243</v>
+        <v>1.024560366370299</v>
       </c>
       <c r="M17">
-        <v>0.956507244450532</v>
+        <v>1.019941643673488</v>
       </c>
       <c r="N17">
-        <v>1.004195149850631</v>
+        <v>1.027763628206698</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9755591328970792</v>
+        <v>1.020246786826893</v>
       </c>
       <c r="D18">
-        <v>1.025422800861137</v>
+        <v>1.033953640559201</v>
       </c>
       <c r="E18">
-        <v>0.9863392539638887</v>
+        <v>1.021338135758995</v>
       </c>
       <c r="F18">
-        <v>0.9433909130429499</v>
+        <v>1.016884282225702</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.042278582973735</v>
+        <v>1.034179470404364</v>
       </c>
       <c r="J18">
-        <v>1.003578382050262</v>
+        <v>1.026455681876889</v>
       </c>
       <c r="K18">
-        <v>1.038816673028031</v>
+        <v>1.037284627564007</v>
       </c>
       <c r="L18">
-        <v>1.000398030952271</v>
+        <v>1.024713289143813</v>
       </c>
       <c r="M18">
-        <v>0.9582639873389696</v>
+        <v>1.020275317069991</v>
       </c>
       <c r="N18">
-        <v>1.005003578464823</v>
+        <v>1.027913366681267</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9759905299388959</v>
+        <v>1.02032573048652</v>
       </c>
       <c r="D19">
-        <v>1.025677598172647</v>
+        <v>1.033999184346213</v>
       </c>
       <c r="E19">
-        <v>0.9866819543082023</v>
+        <v>1.021405042440925</v>
       </c>
       <c r="F19">
-        <v>0.9440702135272124</v>
+        <v>1.017013105167007</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.042418577468619</v>
+        <v>1.034198094896226</v>
       </c>
       <c r="J19">
-        <v>1.003852174980895</v>
+        <v>1.026506646355532</v>
       </c>
       <c r="K19">
-        <v>1.039005100464852</v>
+        <v>1.037315676638593</v>
       </c>
       <c r="L19">
-        <v>1.000668801968142</v>
+        <v>1.024765419284198</v>
       </c>
       <c r="M19">
-        <v>0.9588594692296347</v>
+        <v>1.020389067632792</v>
       </c>
       <c r="N19">
-        <v>1.005277760212822</v>
+        <v>1.027964403535315</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.974052770296218</v>
+        <v>1.019972639642402</v>
       </c>
       <c r="D20">
-        <v>1.024533608443103</v>
+        <v>1.033795458900501</v>
       </c>
       <c r="E20">
-        <v>0.985143219092156</v>
+        <v>1.021105820796267</v>
       </c>
       <c r="F20">
-        <v>0.9410165631748226</v>
+        <v>1.016436919643255</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.041788819316798</v>
+        <v>1.034114663764845</v>
       </c>
       <c r="J20">
-        <v>1.002621902260683</v>
+        <v>1.026278642006359</v>
       </c>
       <c r="K20">
-        <v>1.038158358641187</v>
+        <v>1.037176719041342</v>
       </c>
       <c r="L20">
-        <v>0.9994524363662003</v>
+        <v>1.024532231401976</v>
       </c>
       <c r="M20">
-        <v>0.9561824126874333</v>
+        <v>1.019880255779969</v>
       </c>
       <c r="N20">
-        <v>1.004045740364233</v>
+        <v>1.027736075393814</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9675983737897447</v>
+        <v>1.018824064210195</v>
       </c>
       <c r="D21">
-        <v>1.02073325083751</v>
+        <v>1.033132377961415</v>
       </c>
       <c r="E21">
-        <v>0.9800291987617736</v>
+        <v>1.020133032956491</v>
       </c>
       <c r="F21">
-        <v>0.9307993763818175</v>
+        <v>1.014562611908499</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.03967500679992</v>
+        <v>1.033840997751988</v>
       </c>
       <c r="J21">
-        <v>0.9985161608888888</v>
+        <v>1.025535982484503</v>
       </c>
       <c r="K21">
-        <v>1.035332191229238</v>
+        <v>1.03672322102956</v>
       </c>
       <c r="L21">
-        <v>0.9953990658565045</v>
+        <v>1.023773240080379</v>
       </c>
       <c r="M21">
-        <v>0.9472221209331042</v>
+        <v>1.018224402094255</v>
       </c>
       <c r="N21">
-        <v>0.9999341683687556</v>
+        <v>1.026992361210253</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9634137384023336</v>
+        <v>1.018101407941874</v>
       </c>
       <c r="D22">
-        <v>1.018278326710802</v>
+        <v>1.032714902318115</v>
       </c>
       <c r="E22">
-        <v>0.976722714022351</v>
+        <v>1.019521407160858</v>
       </c>
       <c r="F22">
-        <v>0.9241344107802761</v>
+        <v>1.013383293136726</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.038292498590703</v>
+        <v>1.033667075332499</v>
       </c>
       <c r="J22">
-        <v>0.9958481734542621</v>
+        <v>1.025067967710695</v>
       </c>
       <c r="K22">
-        <v>1.033496179428088</v>
+        <v>1.036436762181232</v>
       </c>
       <c r="L22">
-        <v>0.9927698451234219</v>
+        <v>1.023295356995964</v>
       </c>
       <c r="M22">
-        <v>0.9413750757522644</v>
+        <v>1.017181992033012</v>
       </c>
       <c r="N22">
-        <v>0.9972623920859494</v>
+        <v>1.026523681801784</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9656446322203603</v>
+        <v>1.018484549772249</v>
       </c>
       <c r="D23">
-        <v>1.019586160378619</v>
+        <v>1.032936267834741</v>
       </c>
       <c r="E23">
-        <v>0.9784845666473814</v>
+        <v>1.019845641376487</v>
       </c>
       <c r="F23">
-        <v>0.9276918005758722</v>
+        <v>1.014008557427935</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.039030636107923</v>
+        <v>1.033759451005741</v>
       </c>
       <c r="J23">
-        <v>0.997271089498819</v>
+        <v>1.025316173492014</v>
       </c>
       <c r="K23">
-        <v>1.034475281389933</v>
+        <v>1.036588745057832</v>
       </c>
       <c r="L23">
-        <v>0.9941716323698847</v>
+        <v>1.023548756144159</v>
       </c>
       <c r="M23">
-        <v>0.9444960607287486</v>
+        <v>1.017734719946457</v>
       </c>
       <c r="N23">
-        <v>0.9986873288345004</v>
+        <v>1.026772240063781</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9741589515825908</v>
+        <v>1.019991887286834</v>
       </c>
       <c r="D24">
-        <v>1.024596259725525</v>
+        <v>1.033806565809301</v>
       </c>
       <c r="E24">
-        <v>0.9852274946148568</v>
+        <v>1.021122129843588</v>
       </c>
       <c r="F24">
-        <v>0.9411840488258886</v>
+        <v>1.016468328607724</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.041823388603089</v>
+        <v>1.034119220323033</v>
       </c>
       <c r="J24">
-        <v>1.002689345455003</v>
+        <v>1.026291074647058</v>
       </c>
       <c r="K24">
-        <v>1.038204779970636</v>
+        <v>1.037184299477417</v>
       </c>
       <c r="L24">
-        <v>0.9995190953969159</v>
+        <v>1.024544944612316</v>
       </c>
       <c r="M24">
-        <v>0.9563292557096702</v>
+        <v>1.019907994756065</v>
       </c>
       <c r="N24">
-        <v>1.004113279335624</v>
+        <v>1.027748525690288</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9835388420746495</v>
+        <v>1.021738940503268</v>
       </c>
       <c r="D25">
-        <v>1.030145737597023</v>
+        <v>1.034813985797939</v>
       </c>
       <c r="E25">
-        <v>0.9926911644511971</v>
+        <v>1.022603466754936</v>
       </c>
       <c r="F25">
-        <v>0.9559105860918701</v>
+        <v>1.019319270583836</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.044847478926635</v>
+        <v>1.034528624690542</v>
       </c>
       <c r="J25">
-        <v>1.008633179261092</v>
+        <v>1.027417748059823</v>
       </c>
       <c r="K25">
-        <v>1.042293433497078</v>
+        <v>1.037869617071563</v>
       </c>
       <c r="L25">
-        <v>1.005404010262156</v>
+        <v>1.025698054837784</v>
       </c>
       <c r="M25">
-        <v>0.9692341997513398</v>
+        <v>1.022424511126915</v>
       </c>
       <c r="N25">
-        <v>1.010065554067486</v>
+        <v>1.028876799108531</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_8/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_8/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.023130727947523</v>
+        <v>0.9906646819437837</v>
       </c>
       <c r="D2">
-        <v>1.035615442726687</v>
+        <v>1.034378645335869</v>
       </c>
       <c r="E2">
-        <v>1.023785036471742</v>
+        <v>0.9983869219627801</v>
       </c>
       <c r="F2">
-        <v>1.021590676354961</v>
+        <v>0.9670170836353519</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.034848642532224</v>
+        <v>1.047100058403412</v>
       </c>
       <c r="J2">
-        <v>1.02831267284185</v>
+        <v>1.013128241622417</v>
       </c>
       <c r="K2">
-        <v>1.038411539414883</v>
+        <v>1.045378939605744</v>
       </c>
       <c r="L2">
-        <v>1.026615455125279</v>
+        <v>1.009868775363878</v>
       </c>
       <c r="M2">
-        <v>1.024427556298778</v>
+        <v>0.9789558851093509</v>
       </c>
       <c r="N2">
-        <v>1.029772994786401</v>
+        <v>1.014566999932955</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.024140357870903</v>
+        <v>0.9956531364086414</v>
       </c>
       <c r="D3">
-        <v>1.036196161651538</v>
+        <v>1.037348621611992</v>
       </c>
       <c r="E3">
-        <v>1.024643008345294</v>
+        <v>1.002387960834697</v>
       </c>
       <c r="F3">
-        <v>1.02323862656823</v>
+        <v>0.9747569989659722</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.035077221173152</v>
+        <v>1.048649760844409</v>
       </c>
       <c r="J3">
-        <v>1.028960337456806</v>
+        <v>1.016263006850424</v>
       </c>
       <c r="K3">
-        <v>1.038802297906844</v>
+        <v>1.047524922018973</v>
       </c>
       <c r="L3">
-        <v>1.027280240583787</v>
+        <v>1.01299037816793</v>
       </c>
       <c r="M3">
-        <v>1.025879690600248</v>
+        <v>0.9857233932025331</v>
       </c>
       <c r="N3">
-        <v>1.030421579159396</v>
+        <v>1.017706216887148</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.024793234842583</v>
+        <v>0.9988012090964405</v>
       </c>
       <c r="D4">
-        <v>1.036571360318531</v>
+        <v>1.039225059978637</v>
       </c>
       <c r="E4">
-        <v>1.0251981996443</v>
+        <v>1.004918912768879</v>
       </c>
       <c r="F4">
-        <v>1.024304414237874</v>
+        <v>0.9796284733844877</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.035223376289552</v>
+        <v>1.049614718501346</v>
       </c>
       <c r="J4">
-        <v>1.029378440451319</v>
+        <v>1.018235629857749</v>
       </c>
       <c r="K4">
-        <v>1.039053880962959</v>
+        <v>1.048872045748056</v>
       </c>
       <c r="L4">
-        <v>1.027709791451731</v>
+        <v>1.014958331168938</v>
       </c>
       <c r="M4">
-        <v>1.026818320189108</v>
+        <v>0.9899791461246064</v>
       </c>
       <c r="N4">
-        <v>1.030840275908117</v>
+        <v>1.019681641245406</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.025067604633605</v>
+        <v>1.000106386478505</v>
       </c>
       <c r="D5">
-        <v>1.036728957485635</v>
+        <v>1.040003411837226</v>
       </c>
       <c r="E5">
-        <v>1.025431608663841</v>
+        <v>1.005969629764751</v>
       </c>
       <c r="F5">
-        <v>1.024752347682966</v>
+        <v>0.981645500930535</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.035284400673741</v>
+        <v>1.050011600125016</v>
       </c>
       <c r="J5">
-        <v>1.029553977213777</v>
+        <v>1.019052103888423</v>
       </c>
       <c r="K5">
-        <v>1.03915934334674</v>
+        <v>1.049428749111874</v>
       </c>
       <c r="L5">
-        <v>1.027890229164885</v>
+        <v>1.015773730404068</v>
       </c>
       <c r="M5">
-        <v>1.027212687188839</v>
+        <v>0.9917403094751442</v>
       </c>
       <c r="N5">
-        <v>1.031016061952913</v>
+        <v>1.020499274762855</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.025113666715553</v>
+        <v>1.00032448308597</v>
       </c>
       <c r="D6">
-        <v>1.036755410717863</v>
+        <v>1.040133494420229</v>
       </c>
       <c r="E6">
-        <v>1.025470799461902</v>
+        <v>1.006145286476381</v>
       </c>
       <c r="F6">
-        <v>1.024827550631849</v>
+        <v>0.9819824041386923</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.035294622348442</v>
+        <v>1.050077730373181</v>
       </c>
       <c r="J6">
-        <v>1.029583436922744</v>
+        <v>1.019188456813789</v>
       </c>
       <c r="K6">
-        <v>1.039177033152315</v>
+        <v>1.049521665865628</v>
       </c>
       <c r="L6">
-        <v>1.027920516934989</v>
+        <v>1.015909954073458</v>
       </c>
       <c r="M6">
-        <v>1.027278889665241</v>
+        <v>0.9920344202759421</v>
       </c>
       <c r="N6">
-        <v>1.031045563498045</v>
+        <v>1.020635821325015</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.024796901375482</v>
+        <v>0.9988187196817631</v>
       </c>
       <c r="D7">
-        <v>1.036573466676672</v>
+        <v>1.039235501175123</v>
       </c>
       <c r="E7">
-        <v>1.025201318440719</v>
+        <v>1.004933003993546</v>
       </c>
       <c r="F7">
-        <v>1.02431040002372</v>
+        <v>0.9796555443018353</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.035224193347831</v>
+        <v>1.049620055842241</v>
       </c>
       <c r="J7">
-        <v>1.02938078689969</v>
+        <v>1.01824658930121</v>
       </c>
       <c r="K7">
-        <v>1.039055291348343</v>
+        <v>1.048879521891184</v>
       </c>
       <c r="L7">
-        <v>1.02771220304028</v>
+        <v>1.014969272800774</v>
       </c>
       <c r="M7">
-        <v>1.026823590647719</v>
+        <v>0.9900027867505845</v>
       </c>
       <c r="N7">
-        <v>1.030842625688714</v>
+        <v>1.019692616252534</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.023472024979165</v>
+        <v>0.9923675925997558</v>
       </c>
       <c r="D8">
-        <v>1.035811815850306</v>
+        <v>1.035391967918049</v>
       </c>
       <c r="E8">
-        <v>1.024074986884039</v>
+        <v>0.9997514649261218</v>
       </c>
       <c r="F8">
-        <v>1.022147726242332</v>
+        <v>0.9696622748145759</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.034926254134058</v>
+        <v>1.04763177974844</v>
       </c>
       <c r="J8">
-        <v>1.028531757338986</v>
+        <v>1.014199535394457</v>
       </c>
       <c r="K8">
-        <v>1.038543859417651</v>
+        <v>1.046112958697933</v>
       </c>
       <c r="L8">
-        <v>1.026840249052092</v>
+        <v>1.010934803829722</v>
       </c>
       <c r="M8">
-        <v>1.02491852231425</v>
+        <v>0.981269499258471</v>
       </c>
       <c r="N8">
-        <v>1.029992390408649</v>
+        <v>1.015639815065029</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.021134147102561</v>
+        <v>0.9803483026780888</v>
       </c>
       <c r="D9">
-        <v>1.034465404232668</v>
+        <v>1.028254949587156</v>
       </c>
       <c r="E9">
-        <v>1.022090430466267</v>
+        <v>0.9901481871800287</v>
       </c>
       <c r="F9">
-        <v>1.018332316262657</v>
+        <v>0.9509160534740164</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.034387845656116</v>
+        <v>1.043825768132989</v>
       </c>
       <c r="J9">
-        <v>1.027028125494133</v>
+        <v>1.006614622386595</v>
       </c>
       <c r="K9">
-        <v>1.037632996199009</v>
+        <v>1.04090565940608</v>
       </c>
       <c r="L9">
-        <v>1.02529906084883</v>
+        <v>1.00340315140074</v>
       </c>
       <c r="M9">
-        <v>1.021553626349326</v>
+        <v>0.9648590646564821</v>
       </c>
       <c r="N9">
-        <v>1.028486623234107</v>
+        <v>1.008044130610696</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.019573284059292</v>
+        <v>0.9718351723836391</v>
       </c>
       <c r="D10">
-        <v>1.033564972517911</v>
+        <v>1.023226081492074</v>
       </c>
       <c r="E10">
-        <v>1.020767490053333</v>
+        <v>0.9833842001022034</v>
       </c>
       <c r="F10">
-        <v>1.015785235942943</v>
+        <v>0.9375143203274977</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.034019901860458</v>
+        <v>1.041065271674984</v>
       </c>
       <c r="J10">
-        <v>1.02602059064839</v>
+        <v>1.00121259112512</v>
       </c>
       <c r="K10">
-        <v>1.037019293778018</v>
+        <v>1.0371882733885</v>
       </c>
       <c r="L10">
-        <v>1.024268410245704</v>
+        <v>0.9980600815169087</v>
       </c>
       <c r="M10">
-        <v>1.01930464912694</v>
+        <v>0.9531115095699462</v>
       </c>
       <c r="N10">
-        <v>1.027477657573318</v>
+        <v>1.002634427845207</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.018896855186722</v>
+        <v>0.9680144684406147</v>
       </c>
       <c r="D11">
-        <v>1.033174417317162</v>
+        <v>1.020977754194248</v>
       </c>
       <c r="E11">
-        <v>1.020194658413008</v>
+        <v>0.9803583654066637</v>
       </c>
       <c r="F11">
-        <v>1.014681398391499</v>
+        <v>0.9314602834944757</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.033858442865716</v>
+        <v>1.039811982076939</v>
       </c>
       <c r="J11">
-        <v>1.025583092386188</v>
+        <v>0.9987811958063467</v>
       </c>
       <c r="K11">
-        <v>1.036752027482242</v>
+        <v>1.035514615200427</v>
       </c>
       <c r="L11">
-        <v>1.023821361260666</v>
+        <v>0.9956604499331293</v>
       </c>
       <c r="M11">
-        <v>1.018329375512949</v>
+        <v>0.94780184888505</v>
       </c>
       <c r="N11">
-        <v>1.0270395380134</v>
+        <v>1.000199579666196</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.018645512881558</v>
+        <v>0.9665735753009119</v>
       </c>
       <c r="D12">
-        <v>1.033029249077126</v>
+        <v>1.020131367683009</v>
       </c>
       <c r="E12">
-        <v>1.019981884081216</v>
+        <v>0.9792187968849096</v>
       </c>
       <c r="F12">
-        <v>1.014271234852776</v>
+        <v>0.9291702548266425</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.033798148719386</v>
+        <v>1.039337260866442</v>
       </c>
       <c r="J12">
-        <v>1.025420400300822</v>
+        <v>0.997863208559827</v>
       </c>
       <c r="K12">
-        <v>1.036652523549112</v>
+        <v>1.034882785093972</v>
       </c>
       <c r="L12">
-        <v>1.023655190750662</v>
+        <v>0.9947552635945263</v>
       </c>
       <c r="M12">
-        <v>1.017966889848684</v>
+        <v>0.9457930429846252</v>
       </c>
       <c r="N12">
-        <v>1.026876614886614</v>
+        <v>0.9992802887724918</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.018699430600168</v>
+        <v>0.9668836604128217</v>
       </c>
       <c r="D13">
-        <v>1.03306039260786</v>
+        <v>1.020313440561122</v>
       </c>
       <c r="E13">
-        <v>1.020027524870858</v>
+        <v>0.9794639642941093</v>
       </c>
       <c r="F13">
-        <v>1.014359223211858</v>
+        <v>0.9296634047139071</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.03381109654905</v>
+        <v>1.039439514539015</v>
       </c>
       <c r="J13">
-        <v>1.025455306728918</v>
+        <v>0.9980608095126335</v>
       </c>
       <c r="K13">
-        <v>1.036673877851972</v>
+        <v>1.035018783845498</v>
       </c>
       <c r="L13">
-        <v>1.023690840179992</v>
+        <v>0.9949500721929881</v>
       </c>
       <c r="M13">
-        <v>1.018044654585288</v>
+        <v>0.9462256467838864</v>
       </c>
       <c r="N13">
-        <v>1.026911570885841</v>
+        <v>0.9994781703413165</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.018876080927553</v>
+        <v>0.9678958160344007</v>
       </c>
       <c r="D14">
-        <v>1.03316241967266</v>
+        <v>1.020908025089806</v>
       </c>
       <c r="E14">
-        <v>1.020177070407245</v>
+        <v>0.9802644939264841</v>
       </c>
       <c r="F14">
-        <v>1.014647497237771</v>
+        <v>0.9312718536467433</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.033853465483113</v>
+        <v>1.039772932000351</v>
       </c>
       <c r="J14">
-        <v>1.025569648003366</v>
+        <v>0.9987056239527289</v>
       </c>
       <c r="K14">
-        <v>1.036743807132107</v>
+        <v>1.035462598505404</v>
       </c>
       <c r="L14">
-        <v>1.023807627938333</v>
+        <v>0.995585915344898</v>
       </c>
       <c r="M14">
-        <v>1.018299416981152</v>
+        <v>0.9476365653700553</v>
       </c>
       <c r="N14">
-        <v>1.027026074538013</v>
+        <v>1.000123900491878</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.018984909512584</v>
+        <v>0.9685165132839261</v>
       </c>
       <c r="D15">
-        <v>1.033225268868046</v>
+        <v>1.021272856844573</v>
       </c>
       <c r="E15">
-        <v>1.020269210438541</v>
+        <v>0.980755620477077</v>
       </c>
       <c r="F15">
-        <v>1.014825092359209</v>
+        <v>0.9322572859529449</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.033879527833253</v>
+        <v>1.039977127919348</v>
       </c>
       <c r="J15">
-        <v>1.02564007278918</v>
+        <v>0.9991009148578075</v>
       </c>
       <c r="K15">
-        <v>1.036786862492709</v>
+        <v>1.035734684014666</v>
       </c>
       <c r="L15">
-        <v>1.02387956925261</v>
+        <v>0.9959758136958382</v>
       </c>
       <c r="M15">
-        <v>1.018456354378644</v>
+        <v>0.9485009355664669</v>
       </c>
       <c r="N15">
-        <v>1.027096599335101</v>
+        <v>1.000519752755382</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.019618164375098</v>
+        <v>0.9720857814925399</v>
       </c>
       <c r="D16">
-        <v>1.033590878499464</v>
+        <v>1.023373752349373</v>
       </c>
       <c r="E16">
-        <v>1.020805507160016</v>
+        <v>0.9835828828293987</v>
       </c>
       <c r="F16">
-        <v>1.015858473569552</v>
+        <v>0.9379105231595214</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.034030572336776</v>
+        <v>1.041147186778529</v>
       </c>
       <c r="J16">
-        <v>1.026049599979138</v>
+        <v>1.00137192813777</v>
       </c>
       <c r="K16">
-        <v>1.037036999179838</v>
+        <v>1.037297954971695</v>
       </c>
       <c r="L16">
-        <v>1.024298063108689</v>
+        <v>0.9982174472413807</v>
       </c>
       <c r="M16">
-        <v>1.019369343598888</v>
+        <v>0.9534589443921031</v>
       </c>
       <c r="N16">
-        <v>1.027506708100643</v>
+        <v>1.002793991134691</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.0200152360363</v>
+        <v>0.974287671285852</v>
       </c>
       <c r="D17">
-        <v>1.033820039049194</v>
+        <v>1.024672215048112</v>
       </c>
       <c r="E17">
-        <v>1.021141914189604</v>
+        <v>0.9853296650972859</v>
       </c>
       <c r="F17">
-        <v>1.016506429892374</v>
+        <v>0.9413870607216152</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.03412474642748</v>
+        <v>1.041865286312941</v>
       </c>
       <c r="J17">
-        <v>1.026306155746577</v>
+        <v>1.002771099869363</v>
       </c>
       <c r="K17">
-        <v>1.03719349421784</v>
+        <v>1.03826105133254</v>
       </c>
       <c r="L17">
-        <v>1.024560366370299</v>
+        <v>0.9995999026191231</v>
       </c>
       <c r="M17">
-        <v>1.019941643673488</v>
+        <v>0.956507244450531</v>
       </c>
       <c r="N17">
-        <v>1.027763628206698</v>
+        <v>1.00419514985063</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.020246786826893</v>
+        <v>0.9755591328970786</v>
       </c>
       <c r="D18">
-        <v>1.033953640559201</v>
+        <v>1.025422800861137</v>
       </c>
       <c r="E18">
-        <v>1.021338135758995</v>
+        <v>0.986339253963888</v>
       </c>
       <c r="F18">
-        <v>1.016884282225702</v>
+        <v>0.9433909130429495</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.034179470404364</v>
+        <v>1.042278582973735</v>
       </c>
       <c r="J18">
-        <v>1.026455681876889</v>
+        <v>1.003578382050262</v>
       </c>
       <c r="K18">
-        <v>1.037284627564007</v>
+        <v>1.038816673028031</v>
       </c>
       <c r="L18">
-        <v>1.024713289143813</v>
+        <v>1.00039803095227</v>
       </c>
       <c r="M18">
-        <v>1.020275317069991</v>
+        <v>0.9582639873389691</v>
       </c>
       <c r="N18">
-        <v>1.027913366681267</v>
+        <v>1.005003578464822</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.02032573048652</v>
+        <v>0.975990529938896</v>
       </c>
       <c r="D19">
-        <v>1.033999184346213</v>
+        <v>1.025677598172647</v>
       </c>
       <c r="E19">
-        <v>1.021405042440925</v>
+        <v>0.9866819543082025</v>
       </c>
       <c r="F19">
-        <v>1.017013105167007</v>
+        <v>0.9440702135272127</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.034198094896226</v>
+        <v>1.042418577468619</v>
       </c>
       <c r="J19">
-        <v>1.026506646355532</v>
+        <v>1.003852174980895</v>
       </c>
       <c r="K19">
-        <v>1.037315676638593</v>
+        <v>1.039005100464853</v>
       </c>
       <c r="L19">
-        <v>1.024765419284198</v>
+        <v>1.000668801968142</v>
       </c>
       <c r="M19">
-        <v>1.020389067632792</v>
+        <v>0.9588594692296352</v>
       </c>
       <c r="N19">
-        <v>1.027964403535315</v>
+        <v>1.005277760212822</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.019972639642402</v>
+        <v>0.9740527702962172</v>
       </c>
       <c r="D20">
-        <v>1.033795458900501</v>
+        <v>1.024533608443103</v>
       </c>
       <c r="E20">
-        <v>1.021105820796267</v>
+        <v>0.9851432190921549</v>
       </c>
       <c r="F20">
-        <v>1.016436919643255</v>
+        <v>0.9410165631748217</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.034114663764845</v>
+        <v>1.041788819316797</v>
       </c>
       <c r="J20">
-        <v>1.026278642006359</v>
+        <v>1.002621902260682</v>
       </c>
       <c r="K20">
-        <v>1.037176719041342</v>
+        <v>1.038158358641187</v>
       </c>
       <c r="L20">
-        <v>1.024532231401976</v>
+        <v>0.9994524363661993</v>
       </c>
       <c r="M20">
-        <v>1.019880255779969</v>
+        <v>0.9561824126874324</v>
       </c>
       <c r="N20">
-        <v>1.027736075393814</v>
+        <v>1.004045740364232</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.018824064210195</v>
+        <v>0.9675983737897438</v>
       </c>
       <c r="D21">
-        <v>1.033132377961415</v>
+        <v>1.020733250837511</v>
       </c>
       <c r="E21">
-        <v>1.020133032956491</v>
+        <v>0.9800291987617727</v>
       </c>
       <c r="F21">
-        <v>1.014562611908499</v>
+        <v>0.9307993763818173</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.033840997751988</v>
+        <v>1.03967500679992</v>
       </c>
       <c r="J21">
-        <v>1.025535982484503</v>
+        <v>0.9985161608888881</v>
       </c>
       <c r="K21">
-        <v>1.03672322102956</v>
+        <v>1.035332191229238</v>
       </c>
       <c r="L21">
-        <v>1.023773240080379</v>
+        <v>0.9953990658565037</v>
       </c>
       <c r="M21">
-        <v>1.018224402094255</v>
+        <v>0.9472221209331039</v>
       </c>
       <c r="N21">
-        <v>1.026992361210253</v>
+        <v>0.9999341683687549</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.018101407941874</v>
+        <v>0.9634137384023334</v>
       </c>
       <c r="D22">
-        <v>1.032714902318115</v>
+        <v>1.018278326710802</v>
       </c>
       <c r="E22">
-        <v>1.019521407160858</v>
+        <v>0.9767227140223508</v>
       </c>
       <c r="F22">
-        <v>1.013383293136726</v>
+        <v>0.9241344107802758</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.033667075332499</v>
+        <v>1.038292498590702</v>
       </c>
       <c r="J22">
-        <v>1.025067967710695</v>
+        <v>0.9958481734542619</v>
       </c>
       <c r="K22">
-        <v>1.036436762181232</v>
+        <v>1.033496179428088</v>
       </c>
       <c r="L22">
-        <v>1.023295356995964</v>
+        <v>0.9927698451234217</v>
       </c>
       <c r="M22">
-        <v>1.017181992033012</v>
+        <v>0.941375075752264</v>
       </c>
       <c r="N22">
-        <v>1.026523681801784</v>
+        <v>0.9972623920859488</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.018484549772249</v>
+        <v>0.9656446322203593</v>
       </c>
       <c r="D23">
-        <v>1.032936267834741</v>
+        <v>1.019586160378618</v>
       </c>
       <c r="E23">
-        <v>1.019845641376487</v>
+        <v>0.9784845666473804</v>
       </c>
       <c r="F23">
-        <v>1.014008557427935</v>
+        <v>0.927691800575871</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.033759451005741</v>
+        <v>1.039030636107922</v>
       </c>
       <c r="J23">
-        <v>1.025316173492014</v>
+        <v>0.997271089498818</v>
       </c>
       <c r="K23">
-        <v>1.036588745057832</v>
+        <v>1.034475281389932</v>
       </c>
       <c r="L23">
-        <v>1.023548756144159</v>
+        <v>0.9941716323698837</v>
       </c>
       <c r="M23">
-        <v>1.017734719946457</v>
+        <v>0.9444960607287474</v>
       </c>
       <c r="N23">
-        <v>1.026772240063781</v>
+        <v>0.9986873288344994</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.019991887286834</v>
+        <v>0.9741589515825894</v>
       </c>
       <c r="D24">
-        <v>1.033806565809301</v>
+        <v>1.024596259725524</v>
       </c>
       <c r="E24">
-        <v>1.021122129843588</v>
+        <v>0.9852274946148559</v>
       </c>
       <c r="F24">
-        <v>1.016468328607724</v>
+        <v>0.9411840488258872</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.034119220323033</v>
+        <v>1.041823388603088</v>
       </c>
       <c r="J24">
-        <v>1.026291074647058</v>
+        <v>1.002689345455002</v>
       </c>
       <c r="K24">
-        <v>1.037184299477417</v>
+        <v>1.038204779970635</v>
       </c>
       <c r="L24">
-        <v>1.024544944612316</v>
+        <v>0.9995190953969147</v>
       </c>
       <c r="M24">
-        <v>1.019907994756065</v>
+        <v>0.9563292557096689</v>
       </c>
       <c r="N24">
-        <v>1.027748525690288</v>
+        <v>1.004113279335623</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.021738940503268</v>
+        <v>0.9835388420746495</v>
       </c>
       <c r="D25">
-        <v>1.034813985797939</v>
+        <v>1.030145737597023</v>
       </c>
       <c r="E25">
-        <v>1.022603466754936</v>
+        <v>0.9926911644511971</v>
       </c>
       <c r="F25">
-        <v>1.019319270583836</v>
+        <v>0.9559105860918705</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.034528624690542</v>
+        <v>1.044847478926635</v>
       </c>
       <c r="J25">
-        <v>1.027417748059823</v>
+        <v>1.008633179261093</v>
       </c>
       <c r="K25">
-        <v>1.037869617071563</v>
+        <v>1.042293433497078</v>
       </c>
       <c r="L25">
-        <v>1.025698054837784</v>
+        <v>1.005404010262156</v>
       </c>
       <c r="M25">
-        <v>1.022424511126915</v>
+        <v>0.9692341997513402</v>
       </c>
       <c r="N25">
-        <v>1.028876799108531</v>
+        <v>1.010065554067486</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_8/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_8/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9906646819437837</v>
+        <v>1.001515313222566</v>
       </c>
       <c r="D2">
-        <v>1.034378645335869</v>
+        <v>1.037764372801718</v>
       </c>
       <c r="E2">
-        <v>0.9983869219627801</v>
+        <v>1.007593509970902</v>
       </c>
       <c r="F2">
-        <v>0.9670170836353519</v>
+        <v>1.027091305067849</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.047100058403412</v>
+        <v>1.05171876902921</v>
       </c>
       <c r="J2">
-        <v>1.013128241622417</v>
+        <v>1.023650795802134</v>
       </c>
       <c r="K2">
-        <v>1.045378939605744</v>
+        <v>1.048721514226042</v>
       </c>
       <c r="L2">
-        <v>1.009868775363878</v>
+        <v>1.018948059190719</v>
       </c>
       <c r="M2">
-        <v>0.9789558851093509</v>
+        <v>1.038185688707572</v>
       </c>
       <c r="N2">
-        <v>1.014566999932955</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.01136431041713</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.038793799634471</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.045520587074853</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9956531364086414</v>
+        <v>1.006231886631964</v>
       </c>
       <c r="D3">
-        <v>1.037348621611992</v>
+        <v>1.039838479676808</v>
       </c>
       <c r="E3">
-        <v>1.002387960834697</v>
+        <v>1.011390573448673</v>
       </c>
       <c r="F3">
-        <v>0.9747569989659722</v>
+        <v>1.030230642263487</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.048649760844409</v>
+        <v>1.052919337694846</v>
       </c>
       <c r="J3">
-        <v>1.016263006850424</v>
+        <v>1.026554093881799</v>
       </c>
       <c r="K3">
-        <v>1.047524922018973</v>
+        <v>1.049985784276534</v>
       </c>
       <c r="L3">
-        <v>1.01299037816793</v>
+        <v>1.021879755108065</v>
       </c>
       <c r="M3">
-        <v>0.9857233932025331</v>
+        <v>1.040490793402595</v>
       </c>
       <c r="N3">
-        <v>1.017706216887148</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.012380420992818</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.040618137461673</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.046411877420732</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9988012090964405</v>
+        <v>1.009218070591969</v>
       </c>
       <c r="D4">
-        <v>1.039225059978637</v>
+        <v>1.041159415810617</v>
       </c>
       <c r="E4">
-        <v>1.004918912768879</v>
+        <v>1.013800392802064</v>
       </c>
       <c r="F4">
-        <v>0.9796284733844877</v>
+        <v>1.032227672132489</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.049614718501346</v>
+        <v>1.053669919696076</v>
       </c>
       <c r="J4">
-        <v>1.018235629857749</v>
+        <v>1.028388880740761</v>
       </c>
       <c r="K4">
-        <v>1.048872045748056</v>
+        <v>1.05078522032243</v>
       </c>
       <c r="L4">
-        <v>1.014958331168938</v>
+        <v>1.02373506435671</v>
       </c>
       <c r="M4">
-        <v>0.9899791461246064</v>
+        <v>1.04195209521334</v>
       </c>
       <c r="N4">
-        <v>1.019681641245406</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.01302223642159</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.041774658751804</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.046978023128081</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.000106386478505</v>
+        <v>1.010459863136713</v>
       </c>
       <c r="D5">
-        <v>1.040003411837226</v>
+        <v>1.041715827205097</v>
       </c>
       <c r="E5">
-        <v>1.005969629764751</v>
+        <v>1.014804332241423</v>
       </c>
       <c r="F5">
-        <v>0.981645500930535</v>
+        <v>1.03305998393184</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.050011600125016</v>
+        <v>1.053981485763443</v>
       </c>
       <c r="J5">
-        <v>1.019052103888423</v>
+        <v>1.029151589825205</v>
       </c>
       <c r="K5">
-        <v>1.049428749111874</v>
+        <v>1.051122907883842</v>
       </c>
       <c r="L5">
-        <v>1.015773730404068</v>
+        <v>1.024507101726742</v>
       </c>
       <c r="M5">
-        <v>0.9917403094751442</v>
+        <v>1.042560108049721</v>
       </c>
       <c r="N5">
-        <v>1.020499274762855</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.013289830403026</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.042255859136955</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.047223893146678</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.00032448308597</v>
+        <v>1.010669397391792</v>
       </c>
       <c r="D6">
-        <v>1.040133494420229</v>
+        <v>1.041816279406615</v>
       </c>
       <c r="E6">
-        <v>1.006145286476381</v>
+        <v>1.014974396188046</v>
       </c>
       <c r="F6">
-        <v>0.9819824041386923</v>
+        <v>1.033200139728674</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.050077730373181</v>
+        <v>1.054036073993682</v>
       </c>
       <c r="J6">
-        <v>1.019188456813789</v>
+        <v>1.02928092468991</v>
       </c>
       <c r="K6">
-        <v>1.049521665865628</v>
+        <v>1.051186591518926</v>
       </c>
       <c r="L6">
-        <v>1.015909954073458</v>
+        <v>1.024638274805405</v>
       </c>
       <c r="M6">
-        <v>0.9920344202759421</v>
+        <v>1.042662646882672</v>
       </c>
       <c r="N6">
-        <v>1.020635821325015</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.013336279578112</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.042337011546612</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.047277582137764</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9988187196817631</v>
+        <v>1.009239834686993</v>
       </c>
       <c r="D7">
-        <v>1.039235501175123</v>
+        <v>1.041186437725236</v>
       </c>
       <c r="E7">
-        <v>1.004933003993546</v>
+        <v>1.013819583546536</v>
       </c>
       <c r="F7">
-        <v>0.9796555443018353</v>
+        <v>1.032241121163472</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.049620055842241</v>
+        <v>1.053681111559828</v>
       </c>
       <c r="J7">
-        <v>1.01824658930121</v>
+        <v>1.028404096423203</v>
       </c>
       <c r="K7">
-        <v>1.048879521891184</v>
+        <v>1.050809103672069</v>
       </c>
       <c r="L7">
-        <v>1.014969272800774</v>
+        <v>1.023751084782627</v>
       </c>
       <c r="M7">
-        <v>0.9900027867505845</v>
+        <v>1.041962517939239</v>
       </c>
       <c r="N7">
-        <v>1.019692616252534</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.013030516721523</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.04178290762593</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.047014828178693</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9923675925997558</v>
+        <v>1.003129575302806</v>
       </c>
       <c r="D8">
-        <v>1.035391967918049</v>
+        <v>1.038493778928131</v>
       </c>
       <c r="E8">
-        <v>0.9997514649261218</v>
+        <v>1.008893943476716</v>
       </c>
       <c r="F8">
-        <v>0.9696622748145759</v>
+        <v>1.028162239683646</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.04763177974844</v>
+        <v>1.052138445283767</v>
       </c>
       <c r="J8">
-        <v>1.014199535394457</v>
+        <v>1.024647383097897</v>
       </c>
       <c r="K8">
-        <v>1.046112958697933</v>
+        <v>1.04917640031337</v>
       </c>
       <c r="L8">
-        <v>1.010934803829722</v>
+        <v>1.019954773447415</v>
       </c>
       <c r="M8">
-        <v>0.981269499258471</v>
+        <v>1.038973783448979</v>
       </c>
       <c r="N8">
-        <v>1.015639815065029</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.011717038101904</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.039417524991751</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.045864912584516</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9803483026780888</v>
+        <v>0.9918235667496726</v>
       </c>
       <c r="D9">
-        <v>1.028254949587156</v>
+        <v>1.033549783716781</v>
       </c>
       <c r="E9">
-        <v>0.9901481871800287</v>
+        <v>0.999825774152955</v>
       </c>
       <c r="F9">
-        <v>0.9509160534740164</v>
+        <v>1.020695896629957</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.043825768132989</v>
+        <v>1.049201502543601</v>
       </c>
       <c r="J9">
-        <v>1.006614622386595</v>
+        <v>1.017668397019965</v>
       </c>
       <c r="K9">
-        <v>1.04090565940608</v>
+        <v>1.046121019272549</v>
       </c>
       <c r="L9">
-        <v>1.00340315140074</v>
+        <v>1.012921678682495</v>
       </c>
       <c r="M9">
-        <v>0.9648590646564821</v>
+        <v>1.033461889790963</v>
       </c>
       <c r="N9">
-        <v>1.008044130610696</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.009269562501202</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.035055210835718</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.043701454386008</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9718351723836391</v>
+        <v>0.9840028975213078</v>
       </c>
       <c r="D10">
-        <v>1.023226081492074</v>
+        <v>1.030180365924779</v>
       </c>
       <c r="E10">
-        <v>0.9833842001022034</v>
+        <v>0.9936053142615537</v>
       </c>
       <c r="F10">
-        <v>0.9375143203274977</v>
+        <v>1.015755285737449</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.041065271674984</v>
+        <v>1.047153895575744</v>
       </c>
       <c r="J10">
-        <v>1.00121259112512</v>
+        <v>1.012865906362102</v>
       </c>
       <c r="K10">
-        <v>1.0371882733885</v>
+        <v>1.044025277933087</v>
       </c>
       <c r="L10">
-        <v>0.9980600815169087</v>
+        <v>1.008090994644628</v>
       </c>
       <c r="M10">
-        <v>0.9531115095699462</v>
+        <v>1.029845783444037</v>
       </c>
       <c r="N10">
-        <v>1.002634427845207</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.007601775618782</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.03224510786491</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.042236320869855</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9680144684406147</v>
+        <v>0.981409443955214</v>
       </c>
       <c r="D11">
-        <v>1.020977754194248</v>
+        <v>1.029052364628816</v>
       </c>
       <c r="E11">
-        <v>0.9803583654066637</v>
+        <v>0.9916807743816498</v>
       </c>
       <c r="F11">
-        <v>0.9314602834944757</v>
+        <v>1.015450118038569</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.039811982076939</v>
+        <v>1.046693992744395</v>
       </c>
       <c r="J11">
-        <v>0.9987811958063467</v>
+        <v>1.011576597515642</v>
       </c>
       <c r="K11">
-        <v>1.035514615200427</v>
+        <v>1.043446433485686</v>
       </c>
       <c r="L11">
-        <v>0.9956604499331293</v>
+        <v>1.006761303138018</v>
       </c>
       <c r="M11">
-        <v>0.94780184888505</v>
+        <v>1.03008643329981</v>
       </c>
       <c r="N11">
-        <v>1.000199579666196</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.007296646471154</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.032874604006832</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.041859604394061</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9665735753009119</v>
+        <v>0.9807284970393796</v>
       </c>
       <c r="D12">
-        <v>1.020131367683009</v>
+        <v>1.028724382405244</v>
       </c>
       <c r="E12">
-        <v>0.9792187968849096</v>
+        <v>0.9912388065811794</v>
       </c>
       <c r="F12">
-        <v>0.9291702548266425</v>
+        <v>1.015971369179976</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.039337260866442</v>
+        <v>1.04666607224848</v>
       </c>
       <c r="J12">
-        <v>0.997863208559827</v>
+        <v>1.011371463578471</v>
       </c>
       <c r="K12">
-        <v>1.034882785093972</v>
+        <v>1.043321211015838</v>
       </c>
       <c r="L12">
-        <v>0.9947552635945263</v>
+        <v>1.00653580437825</v>
       </c>
       <c r="M12">
-        <v>0.9457930429846252</v>
+        <v>1.030798849030428</v>
       </c>
       <c r="N12">
-        <v>0.9992802887724918</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.007336663988017</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.033766212097541</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.041771069571863</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9668836604128217</v>
+        <v>0.9814824537006893</v>
       </c>
       <c r="D13">
-        <v>1.020313440561122</v>
+        <v>1.029012150135</v>
       </c>
       <c r="E13">
-        <v>0.9794639642941093</v>
+        <v>0.9919141144343042</v>
       </c>
       <c r="F13">
-        <v>0.9296634047139071</v>
+        <v>1.017185250101182</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.039439514539015</v>
+        <v>1.046981300945805</v>
       </c>
       <c r="J13">
-        <v>0.9980608095126335</v>
+        <v>1.011996151350383</v>
       </c>
       <c r="K13">
-        <v>1.035018783845498</v>
+        <v>1.043561618161497</v>
       </c>
       <c r="L13">
-        <v>0.9949500721929881</v>
+        <v>1.007153323502515</v>
       </c>
       <c r="M13">
-        <v>0.9462256467838864</v>
+        <v>1.031947496996732</v>
       </c>
       <c r="N13">
-        <v>0.9994781703413165</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.007651655744534</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.034952232179122</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.041938572550998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9678958160344007</v>
+        <v>0.9826475890700098</v>
       </c>
       <c r="D14">
-        <v>1.020908025089806</v>
+        <v>1.029491435978549</v>
       </c>
       <c r="E14">
-        <v>0.9802644939264841</v>
+        <v>0.9928817827322703</v>
       </c>
       <c r="F14">
-        <v>0.9312718536467433</v>
+        <v>1.018331141849129</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.039772932000351</v>
+        <v>1.047351697575099</v>
       </c>
       <c r="J14">
-        <v>0.9987056239527289</v>
+        <v>1.012797214771015</v>
       </c>
       <c r="K14">
-        <v>1.035462598505404</v>
+        <v>1.043894092265845</v>
       </c>
       <c r="L14">
-        <v>0.995585915344898</v>
+        <v>1.007956345323318</v>
       </c>
       <c r="M14">
-        <v>0.9476365653700553</v>
+        <v>1.032931972963145</v>
       </c>
       <c r="N14">
-        <v>1.000123900491878</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.00799219648549</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.035904309621149</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.042175050092921</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9685165132839261</v>
+        <v>0.983254822068854</v>
       </c>
       <c r="D15">
-        <v>1.021272856844573</v>
+        <v>1.029752733919345</v>
       </c>
       <c r="E15">
-        <v>0.980755620477077</v>
+        <v>0.993371689745055</v>
       </c>
       <c r="F15">
-        <v>0.9322572859529449</v>
+        <v>1.0187949974236</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.039977127919348</v>
+        <v>1.047525225105505</v>
       </c>
       <c r="J15">
-        <v>0.9991009148578075</v>
+        <v>1.013185783894293</v>
       </c>
       <c r="K15">
-        <v>1.035734684014666</v>
+        <v>1.044065617199915</v>
       </c>
       <c r="L15">
-        <v>0.9959758136958382</v>
+        <v>1.008347068722136</v>
       </c>
       <c r="M15">
-        <v>0.9485009355664669</v>
+        <v>1.033300954525326</v>
       </c>
       <c r="N15">
-        <v>1.000519752755382</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.00814083118329</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.036233588424128</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.042302138738416</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9720857814925399</v>
+        <v>0.9864187218592744</v>
       </c>
       <c r="D16">
-        <v>1.023373752349373</v>
+        <v>1.031125274971042</v>
       </c>
       <c r="E16">
-        <v>0.9835828828293987</v>
+        <v>0.9958648545292202</v>
       </c>
       <c r="F16">
-        <v>0.9379105231595214</v>
+        <v>1.020698477861876</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.041147186778529</v>
+        <v>1.04834615364241</v>
       </c>
       <c r="J16">
-        <v>1.00137192813777</v>
+        <v>1.015103194235583</v>
       </c>
       <c r="K16">
-        <v>1.037297954971695</v>
+        <v>1.044919312231954</v>
       </c>
       <c r="L16">
-        <v>0.9982174472413807</v>
+        <v>1.010272275244931</v>
       </c>
       <c r="M16">
-        <v>0.9534589443921031</v>
+        <v>1.034668197093674</v>
       </c>
       <c r="N16">
-        <v>1.002793991134691</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.008787168461006</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.037275435500358</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.042908860529915</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.974287671285852</v>
+        <v>0.9882417223044506</v>
       </c>
       <c r="D17">
-        <v>1.024672215048112</v>
+        <v>1.031932444834618</v>
       </c>
       <c r="E17">
-        <v>0.9853296650972859</v>
+        <v>0.9972781340299407</v>
       </c>
       <c r="F17">
-        <v>0.9413870607216152</v>
+        <v>1.021557958574332</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.041865286312941</v>
+        <v>1.048782570966268</v>
       </c>
       <c r="J17">
-        <v>1.002771099869363</v>
+        <v>1.016159375186677</v>
       </c>
       <c r="K17">
-        <v>1.03826105133254</v>
+        <v>1.045402826880248</v>
       </c>
       <c r="L17">
-        <v>0.9995999026191231</v>
+        <v>1.011334056322521</v>
       </c>
       <c r="M17">
-        <v>0.956507244450531</v>
+        <v>1.035198269846843</v>
       </c>
       <c r="N17">
-        <v>1.00419514985063</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.009106552926908</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.037565040631886</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.043253282856379</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9755591328970786</v>
+        <v>0.9890470601383058</v>
       </c>
       <c r="D18">
-        <v>1.025422800861137</v>
+        <v>1.03229907478438</v>
       </c>
       <c r="E18">
-        <v>0.986339253963888</v>
+        <v>0.9978568561885035</v>
       </c>
       <c r="F18">
-        <v>0.9433909130429495</v>
+        <v>1.021483803777097</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.042278582973735</v>
+        <v>1.048902835641098</v>
       </c>
       <c r="J18">
-        <v>1.003578382050262</v>
+        <v>1.01653033936545</v>
       </c>
       <c r="K18">
-        <v>1.038816673028031</v>
+        <v>1.045582639385364</v>
       </c>
       <c r="L18">
-        <v>1.00039803095227</v>
+        <v>1.01171268591341</v>
       </c>
       <c r="M18">
-        <v>0.9582639873389691</v>
+        <v>1.034941724236759</v>
       </c>
       <c r="N18">
-        <v>1.005003578464822</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.009153953899781</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.037123790397327</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.04336888599022</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.975990529938896</v>
+        <v>0.9888902114977133</v>
       </c>
       <c r="D19">
-        <v>1.025677598172647</v>
+        <v>1.032271779631196</v>
       </c>
       <c r="E19">
-        <v>0.9866819543082025</v>
+        <v>0.9976467208505467</v>
       </c>
       <c r="F19">
-        <v>0.9440702135272127</v>
+        <v>1.020493998286707</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.042418577468619</v>
+        <v>1.048723193252131</v>
       </c>
       <c r="J19">
-        <v>1.003852174980895</v>
+        <v>1.016242479983196</v>
       </c>
       <c r="K19">
-        <v>1.039005100464853</v>
+        <v>1.045494092829334</v>
       </c>
       <c r="L19">
-        <v>1.000668801968142</v>
+        <v>1.011441436691795</v>
       </c>
       <c r="M19">
-        <v>0.9588594692296352</v>
+        <v>1.033905414423115</v>
       </c>
       <c r="N19">
-        <v>1.005277760212822</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.008951106860204</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.035977520992492</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.043312617069741</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9740527702962172</v>
+        <v>0.986050804754298</v>
       </c>
       <c r="D20">
-        <v>1.024533608443103</v>
+        <v>1.031100397234205</v>
       </c>
       <c r="E20">
-        <v>0.9851432190921549</v>
+        <v>0.995236954676345</v>
       </c>
       <c r="F20">
-        <v>0.9410165631748217</v>
+        <v>1.017049328835542</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.041788819316797</v>
+        <v>1.047706778458876</v>
       </c>
       <c r="J20">
-        <v>1.002621902260682</v>
+        <v>1.01413024028908</v>
       </c>
       <c r="K20">
-        <v>1.038158358641187</v>
+        <v>1.044617572885686</v>
       </c>
       <c r="L20">
-        <v>0.9994524363661993</v>
+        <v>1.009364076755486</v>
       </c>
       <c r="M20">
-        <v>0.9561824126874324</v>
+        <v>1.030798867887071</v>
       </c>
       <c r="N20">
-        <v>1.004045740364232</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.008050508847975</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.032988750760357</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.042696776721901</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9675983737897438</v>
+        <v>0.9799749072851927</v>
       </c>
       <c r="D21">
-        <v>1.020733250837511</v>
+        <v>1.028497691991486</v>
       </c>
       <c r="E21">
-        <v>0.9800291987617727</v>
+        <v>0.9903930270233277</v>
       </c>
       <c r="F21">
-        <v>0.9307993763818173</v>
+        <v>1.012973420765417</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.03967500679992</v>
+        <v>1.046053134370093</v>
       </c>
       <c r="J21">
-        <v>0.9985161608888881</v>
+        <v>1.010334402114725</v>
       </c>
       <c r="K21">
-        <v>1.035332191229238</v>
+        <v>1.042958558780219</v>
       </c>
       <c r="L21">
-        <v>0.9953990658565037</v>
+        <v>1.005558721247393</v>
       </c>
       <c r="M21">
-        <v>0.9472221209331039</v>
+        <v>1.027713106755193</v>
       </c>
       <c r="N21">
-        <v>0.9999341683687549</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.006705048897068</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.03050538506486</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.041527005118569</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9634137384023334</v>
+        <v>0.9761084954350369</v>
       </c>
       <c r="D22">
-        <v>1.018278326710802</v>
+        <v>1.026835582126345</v>
       </c>
       <c r="E22">
-        <v>0.9767227140223508</v>
+        <v>0.9873251259385392</v>
       </c>
       <c r="F22">
-        <v>0.9241344107802758</v>
+        <v>1.010479067948594</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.038292498590702</v>
+        <v>1.045001712911061</v>
       </c>
       <c r="J22">
-        <v>0.9958481734542619</v>
+        <v>1.007934343568487</v>
       </c>
       <c r="K22">
-        <v>1.033496179428088</v>
+        <v>1.041893529364499</v>
       </c>
       <c r="L22">
-        <v>0.9927698451234217</v>
+        <v>1.003151926793968</v>
       </c>
       <c r="M22">
-        <v>0.941375075752264</v>
+        <v>1.025845752083991</v>
       </c>
       <c r="N22">
-        <v>0.9972623920859488</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.005858439672923</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.029027476598627</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.040760608413044</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9656446322203593</v>
+        <v>0.9781631996485853</v>
       </c>
       <c r="D23">
-        <v>1.019586160378618</v>
+        <v>1.027702863808754</v>
       </c>
       <c r="E23">
-        <v>0.9784845666473804</v>
+        <v>0.9889527228055914</v>
       </c>
       <c r="F23">
-        <v>0.927691800575871</v>
+        <v>1.011804541862352</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.039030636107922</v>
+        <v>1.045557089078578</v>
       </c>
       <c r="J23">
-        <v>0.997271089498818</v>
+        <v>1.009208467304662</v>
       </c>
       <c r="K23">
-        <v>1.034475281389932</v>
+        <v>1.04244421526259</v>
       </c>
       <c r="L23">
-        <v>0.9941716323698837</v>
+        <v>1.004428282703781</v>
       </c>
       <c r="M23">
-        <v>0.9444960607287474</v>
+        <v>1.026838238950742</v>
       </c>
       <c r="N23">
-        <v>0.9986873288344994</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.006304511119292</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.029812975731914</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.041140411390207</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9741589515825894</v>
+        <v>0.9860547025823434</v>
       </c>
       <c r="D24">
-        <v>1.024596259725524</v>
+        <v>1.031081662928832</v>
       </c>
       <c r="E24">
-        <v>0.9852274946148559</v>
+        <v>0.9952251079249257</v>
       </c>
       <c r="F24">
-        <v>0.9411840488258872</v>
+        <v>1.016922571054541</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.041823388603088</v>
+        <v>1.047678788770974</v>
       </c>
       <c r="J24">
-        <v>1.002689345455002</v>
+        <v>1.014100338350358</v>
       </c>
       <c r="K24">
-        <v>1.038204779970635</v>
+        <v>1.04458408361177</v>
       </c>
       <c r="L24">
-        <v>0.9995190953969147</v>
+        <v>1.009336598128024</v>
       </c>
       <c r="M24">
-        <v>0.9563292557096689</v>
+        <v>1.030658884761203</v>
       </c>
       <c r="N24">
-        <v>1.004113279335623</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.008022389167292</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.032836799873632</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.0426459421282</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9835388420746495</v>
+        <v>0.9948212581841519</v>
       </c>
       <c r="D25">
-        <v>1.030145737597023</v>
+        <v>1.034878723740891</v>
       </c>
       <c r="E25">
-        <v>0.9926911644511971</v>
+        <v>1.002226993653167</v>
       </c>
       <c r="F25">
-        <v>0.9559105860918705</v>
+        <v>1.022663755267434</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.044847478926635</v>
+        <v>1.049996536150961</v>
       </c>
       <c r="J25">
-        <v>1.008633179261093</v>
+        <v>1.019524173470771</v>
       </c>
       <c r="K25">
-        <v>1.042293433497078</v>
+        <v>1.046958687926796</v>
       </c>
       <c r="L25">
-        <v>1.005404010262156</v>
+        <v>1.014790836503958</v>
       </c>
       <c r="M25">
-        <v>0.9692341997513402</v>
+        <v>1.034920145711939</v>
       </c>
       <c r="N25">
-        <v>1.010065554067486</v>
+        <v>1.009925831691458</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.036209330487978</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.044322045385345</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_8/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_8/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.001515313222566</v>
+        <v>1.001572850496186</v>
       </c>
       <c r="D2">
-        <v>1.037764372801718</v>
+        <v>1.034771168536389</v>
       </c>
       <c r="E2">
-        <v>1.007593509970902</v>
+        <v>1.007657722292504</v>
       </c>
       <c r="F2">
-        <v>1.027091305067849</v>
+        <v>1.026899090260761</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.05171876902921</v>
+        <v>1.050612918799485</v>
       </c>
       <c r="J2">
-        <v>1.023650795802134</v>
+        <v>1.023706619432768</v>
       </c>
       <c r="K2">
-        <v>1.048721514226042</v>
+        <v>1.045766441811518</v>
       </c>
       <c r="L2">
-        <v>1.018948059190719</v>
+        <v>1.019011393902885</v>
       </c>
       <c r="M2">
-        <v>1.038185688707572</v>
+        <v>1.037995978288438</v>
       </c>
       <c r="N2">
-        <v>1.01136431041713</v>
+        <v>1.013163265915885</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.038793799634471</v>
+        <v>1.038643656185193</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.045520587074853</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.043439828868538</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.024202687831968</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.006231886631964</v>
+        <v>1.006144734130216</v>
       </c>
       <c r="D3">
-        <v>1.039838479676808</v>
+        <v>1.036629674585664</v>
       </c>
       <c r="E3">
-        <v>1.011390573448673</v>
+        <v>1.011326370899232</v>
       </c>
       <c r="F3">
-        <v>1.030230642263487</v>
+        <v>1.029969535557563</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.052919337694846</v>
+        <v>1.051700490059659</v>
       </c>
       <c r="J3">
-        <v>1.026554093881799</v>
+        <v>1.026469277695999</v>
       </c>
       <c r="K3">
-        <v>1.049985784276534</v>
+        <v>1.046814379599161</v>
       </c>
       <c r="L3">
-        <v>1.021879755108065</v>
+        <v>1.021816351211653</v>
       </c>
       <c r="M3">
-        <v>1.040490793402595</v>
+        <v>1.040232789877264</v>
       </c>
       <c r="N3">
-        <v>1.012380420992818</v>
+        <v>1.013929805667384</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.040618137461673</v>
+        <v>1.040413944974551</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.046411877420732</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.044177881724162</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.024383623501676</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.009218070591969</v>
+        <v>1.00904041599846</v>
       </c>
       <c r="D4">
-        <v>1.041159415810617</v>
+        <v>1.037814348788175</v>
       </c>
       <c r="E4">
-        <v>1.013800392802064</v>
+        <v>1.013655798727271</v>
       </c>
       <c r="F4">
-        <v>1.032227672132489</v>
+        <v>1.03192333842246</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.053669919696076</v>
+        <v>1.052379549060066</v>
       </c>
       <c r="J4">
-        <v>1.028388880740761</v>
+        <v>1.028215660385697</v>
       </c>
       <c r="K4">
-        <v>1.05078522032243</v>
+        <v>1.047476843065547</v>
       </c>
       <c r="L4">
-        <v>1.02373506435671</v>
+        <v>1.023592157421544</v>
       </c>
       <c r="M4">
-        <v>1.04195209521334</v>
+        <v>1.04165115876907</v>
       </c>
       <c r="N4">
-        <v>1.01302223642159</v>
+        <v>1.014414212702171</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.041774658751804</v>
+        <v>1.041536488114394</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.046978023128081</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.044647264531557</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.024495522156659</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.010459863136713</v>
+        <v>1.010244572220155</v>
       </c>
       <c r="D5">
-        <v>1.041715827205097</v>
+        <v>1.038313799809105</v>
       </c>
       <c r="E5">
-        <v>1.014804332241423</v>
+        <v>1.014626236029812</v>
       </c>
       <c r="F5">
-        <v>1.03305998393184</v>
+        <v>1.032737675562782</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.053981485763443</v>
+        <v>1.052661228981738</v>
       </c>
       <c r="J5">
-        <v>1.029151589825205</v>
+        <v>1.028941509184912</v>
       </c>
       <c r="K5">
-        <v>1.051122907883842</v>
+        <v>1.047757222871144</v>
       </c>
       <c r="L5">
-        <v>1.024507101726742</v>
+        <v>1.024331026729955</v>
       </c>
       <c r="M5">
-        <v>1.042560108049721</v>
+        <v>1.042241301189903</v>
       </c>
       <c r="N5">
-        <v>1.013289830403026</v>
+        <v>1.014616095370962</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.042255859136955</v>
+        <v>1.042003545451569</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.047223893146678</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.044853336290695</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.024543136597756</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.010669397391792</v>
+        <v>1.010447470306296</v>
       </c>
       <c r="D6">
-        <v>1.041816279406615</v>
+        <v>1.038404214413178</v>
       </c>
       <c r="E6">
-        <v>1.014974396188046</v>
+        <v>1.014790321223722</v>
       </c>
       <c r="F6">
-        <v>1.033200139728674</v>
+        <v>1.032874701863442</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.054036073993682</v>
+        <v>1.052710599583451</v>
       </c>
       <c r="J6">
-        <v>1.02928092468991</v>
+        <v>1.029064340412482</v>
       </c>
       <c r="K6">
-        <v>1.051186591518926</v>
+        <v>1.047810812482451</v>
       </c>
       <c r="L6">
-        <v>1.024638274805405</v>
+        <v>1.024456279092183</v>
       </c>
       <c r="M6">
-        <v>1.042662646882672</v>
+        <v>1.042340728255286</v>
       </c>
       <c r="N6">
-        <v>1.013336279578112</v>
+        <v>1.014650976708617</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.042337011546612</v>
+        <v>1.042082235139463</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.047277582137764</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.044900769416935</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.02455323525807</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.009239834686993</v>
+        <v>1.009074392346203</v>
       </c>
       <c r="D7">
-        <v>1.041186437725236</v>
+        <v>1.0378425979932</v>
       </c>
       <c r="E7">
-        <v>1.013819583546536</v>
+        <v>1.0136862490558</v>
       </c>
       <c r="F7">
-        <v>1.032241121163472</v>
+        <v>1.031942182881954</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.053681111559828</v>
+        <v>1.052394881507933</v>
       </c>
       <c r="J7">
-        <v>1.028404096423203</v>
+        <v>1.028242781688968</v>
       </c>
       <c r="K7">
-        <v>1.050809103672069</v>
+        <v>1.047501925651642</v>
       </c>
       <c r="L7">
-        <v>1.023751084782627</v>
+        <v>1.023619305438226</v>
       </c>
       <c r="M7">
-        <v>1.041962517939239</v>
+        <v>1.041666915454002</v>
       </c>
       <c r="N7">
-        <v>1.013030516721523</v>
+        <v>1.014450680404583</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.04178290762593</v>
+        <v>1.041548958456056</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.047014828178693</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.04468694414523</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.02450315041576</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.003129575302806</v>
+        <v>1.003178702444528</v>
       </c>
       <c r="D8">
-        <v>1.038493778928131</v>
+        <v>1.035435835661291</v>
       </c>
       <c r="E8">
-        <v>1.008893943476716</v>
+        <v>1.00895252541179</v>
       </c>
       <c r="F8">
-        <v>1.028162239683646</v>
+        <v>1.027964646658627</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.052138445283767</v>
+        <v>1.051009325205808</v>
       </c>
       <c r="J8">
-        <v>1.024647383097897</v>
+        <v>1.024695097411987</v>
       </c>
       <c r="K8">
-        <v>1.04917640031337</v>
+        <v>1.046156281801385</v>
       </c>
       <c r="L8">
-        <v>1.019954773447415</v>
+        <v>1.020012579369156</v>
       </c>
       <c r="M8">
-        <v>1.038973783448979</v>
+        <v>1.038778687608937</v>
       </c>
       <c r="N8">
-        <v>1.011717038101904</v>
+        <v>1.013522465956854</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.039417524991751</v>
+        <v>1.039263119466209</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.045864912584516</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.043740460158025</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.024275707745061</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9918235667496726</v>
+        <v>0.9922347769811294</v>
       </c>
       <c r="D9">
-        <v>1.033549783716781</v>
+        <v>1.031013382058987</v>
       </c>
       <c r="E9">
-        <v>0.999825774152955</v>
+        <v>1.000205906811098</v>
       </c>
       <c r="F9">
-        <v>1.020695896629957</v>
+        <v>1.020669671588145</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.049201502543601</v>
+        <v>1.048346903465426</v>
       </c>
       <c r="J9">
-        <v>1.017668397019965</v>
+        <v>1.01806475704621</v>
       </c>
       <c r="K9">
-        <v>1.046121019272549</v>
+        <v>1.043622558793109</v>
       </c>
       <c r="L9">
-        <v>1.012921678682495</v>
+        <v>1.013295644204002</v>
       </c>
       <c r="M9">
-        <v>1.033461889790963</v>
+        <v>1.033436068502101</v>
       </c>
       <c r="N9">
-        <v>1.009269562501202</v>
+        <v>1.011690503177952</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.035055210835718</v>
+        <v>1.035034774860641</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.043701454386008</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.041945547154858</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.023821356759053</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9840028975213078</v>
+        <v>0.9847313947709626</v>
       </c>
       <c r="D10">
-        <v>1.030180365924779</v>
+        <v>1.028019596549552</v>
       </c>
       <c r="E10">
-        <v>0.9936053142615537</v>
+        <v>0.9942688021882176</v>
       </c>
       <c r="F10">
-        <v>1.015755285737449</v>
+        <v>1.015877512134563</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.047153895575744</v>
+        <v>1.046513024531902</v>
       </c>
       <c r="J10">
-        <v>1.012865906362102</v>
+        <v>1.013564178337838</v>
       </c>
       <c r="K10">
-        <v>1.044025277933087</v>
+        <v>1.041900729557262</v>
       </c>
       <c r="L10">
-        <v>1.008090994644628</v>
+        <v>1.008742311983284</v>
       </c>
       <c r="M10">
-        <v>1.029845783444037</v>
+        <v>1.029965891037628</v>
       </c>
       <c r="N10">
-        <v>1.007601775618782</v>
+        <v>1.01057589522931</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.03224510786491</v>
+        <v>1.032340160055163</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.042236320869855</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.040746476681804</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.023508423323092</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.981409443955214</v>
+        <v>0.9823174829698281</v>
       </c>
       <c r="D11">
-        <v>1.029052364628816</v>
+        <v>1.027022919929888</v>
       </c>
       <c r="E11">
-        <v>0.9916807743816498</v>
+        <v>0.992500109086964</v>
       </c>
       <c r="F11">
-        <v>1.015450118038569</v>
+        <v>1.015660403406137</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.046693992744395</v>
+        <v>1.046158816779164</v>
       </c>
       <c r="J11">
-        <v>1.011576597515642</v>
+        <v>1.012444836857029</v>
       </c>
       <c r="K11">
-        <v>1.043446433485686</v>
+        <v>1.041452603850785</v>
       </c>
       <c r="L11">
-        <v>1.006761303138018</v>
+        <v>1.007564862014066</v>
       </c>
       <c r="M11">
-        <v>1.03008643329981</v>
+        <v>1.030292909413215</v>
       </c>
       <c r="N11">
-        <v>1.007296646471154</v>
+        <v>1.010606935890713</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.032874604006832</v>
+        <v>1.033037924204189</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.041859604394061</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.040465426206806</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.023468908851187</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9807284970393796</v>
+        <v>0.9816949993496847</v>
       </c>
       <c r="D12">
-        <v>1.028724382405244</v>
+        <v>1.026726810051301</v>
       </c>
       <c r="E12">
-        <v>0.9912388065811794</v>
+        <v>0.9921045069378923</v>
       </c>
       <c r="F12">
-        <v>1.015971369179976</v>
+        <v>1.016212977438041</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.04666607224848</v>
+        <v>1.046166584812212</v>
       </c>
       <c r="J12">
-        <v>1.011371463578471</v>
+        <v>1.012294784235706</v>
       </c>
       <c r="K12">
-        <v>1.043321211015838</v>
+        <v>1.041359275304964</v>
       </c>
       <c r="L12">
-        <v>1.00653580437825</v>
+        <v>1.007384551689391</v>
       </c>
       <c r="M12">
-        <v>1.030798849030428</v>
+        <v>1.031036017474162</v>
       </c>
       <c r="N12">
-        <v>1.007336663988017</v>
+        <v>1.010747994026026</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.033766212097541</v>
+        <v>1.033953745398649</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.041771069571863</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.040399442170001</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.023476140925982</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9814824537006893</v>
+        <v>0.9823962747487029</v>
       </c>
       <c r="D13">
-        <v>1.029012150135</v>
+        <v>1.026966672645551</v>
       </c>
       <c r="E13">
-        <v>0.9919141144343042</v>
+        <v>0.9927253859337404</v>
       </c>
       <c r="F13">
-        <v>1.017185250101182</v>
+        <v>1.017407293475686</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.046981300945805</v>
+        <v>1.04645793875334</v>
       </c>
       <c r="J13">
-        <v>1.011996151350383</v>
+        <v>1.012869380803692</v>
       </c>
       <c r="K13">
-        <v>1.043561618161497</v>
+        <v>1.041552486065</v>
       </c>
       <c r="L13">
-        <v>1.007153323502515</v>
+        <v>1.007948788485359</v>
       </c>
       <c r="M13">
-        <v>1.031947496996732</v>
+        <v>1.032165486254347</v>
       </c>
       <c r="N13">
-        <v>1.007651655744534</v>
+        <v>1.010947820647402</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.034952232179122</v>
+        <v>1.035124556544817</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.041938572550998</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.040533329199572</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.023528245827654</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9826475890700098</v>
+        <v>0.9834768921764452</v>
       </c>
       <c r="D14">
-        <v>1.029491435978549</v>
+        <v>1.027378069463084</v>
       </c>
       <c r="E14">
-        <v>0.9928817827322703</v>
+        <v>0.993612468233496</v>
       </c>
       <c r="F14">
-        <v>1.018331141849129</v>
+        <v>1.018517858064621</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.047351697575099</v>
+        <v>1.046786079857007</v>
       </c>
       <c r="J14">
-        <v>1.012797214771015</v>
+        <v>1.013590243775771</v>
       </c>
       <c r="K14">
-        <v>1.043894092265845</v>
+        <v>1.04181782471119</v>
       </c>
       <c r="L14">
-        <v>1.007956345323318</v>
+        <v>1.00867298630343</v>
       </c>
       <c r="M14">
-        <v>1.032931972963145</v>
+        <v>1.033115327208613</v>
       </c>
       <c r="N14">
-        <v>1.00799219648549</v>
+        <v>1.011113555519386</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.035904309621149</v>
+        <v>1.03604923476892</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.042175050092921</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.040722477315579</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.023585276421862</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.983254822068854</v>
+        <v>0.9840399541597162</v>
       </c>
       <c r="D15">
-        <v>1.029752733919345</v>
+        <v>1.027605027977717</v>
       </c>
       <c r="E15">
-        <v>0.993371689745055</v>
+        <v>0.9940616573589525</v>
       </c>
       <c r="F15">
-        <v>1.0187949974236</v>
+        <v>1.018962396811463</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.047525225105505</v>
+        <v>1.046936565377312</v>
       </c>
       <c r="J15">
-        <v>1.013185783894293</v>
+        <v>1.013936889602816</v>
       </c>
       <c r="K15">
-        <v>1.044065617199915</v>
+        <v>1.041955333339823</v>
       </c>
       <c r="L15">
-        <v>1.008347068722136</v>
+        <v>1.009023881961876</v>
       </c>
       <c r="M15">
-        <v>1.033300954525326</v>
+        <v>1.033465363802856</v>
       </c>
       <c r="N15">
-        <v>1.00814083118329</v>
+        <v>1.011174625108346</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.036233588424128</v>
+        <v>1.036363535847348</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.042302138738416</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.040826090902083</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.023612481701536</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9864187218592744</v>
+        <v>0.9869868532439805</v>
       </c>
       <c r="D16">
-        <v>1.031125274971042</v>
+        <v>1.028807308595769</v>
       </c>
       <c r="E16">
-        <v>0.9958648545292202</v>
+        <v>0.9963609539997379</v>
       </c>
       <c r="F16">
-        <v>1.020698477861876</v>
+        <v>1.020766412242355</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.04834615364241</v>
+        <v>1.047637547749651</v>
       </c>
       <c r="J16">
-        <v>1.015103194235583</v>
+        <v>1.015647987450482</v>
       </c>
       <c r="K16">
-        <v>1.044919312231954</v>
+        <v>1.042640004758146</v>
       </c>
       <c r="L16">
-        <v>1.010272275244931</v>
+        <v>1.0107593529014</v>
       </c>
       <c r="M16">
-        <v>1.034668197093674</v>
+        <v>1.03473497183804</v>
       </c>
       <c r="N16">
-        <v>1.008787168461006</v>
+        <v>1.011416724350295</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.037275435500358</v>
+        <v>1.037328215104774</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.042908860529915</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.04131361441916</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.02373727374602</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9882417223044506</v>
+        <v>0.9887024588154786</v>
       </c>
       <c r="D17">
-        <v>1.031932444834618</v>
+        <v>1.029521436693585</v>
       </c>
       <c r="E17">
-        <v>0.9972781340299407</v>
+        <v>0.9976805462481562</v>
       </c>
       <c r="F17">
-        <v>1.021557958574332</v>
+        <v>1.021574405867448</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.048782570966268</v>
+        <v>1.048008981230877</v>
       </c>
       <c r="J17">
-        <v>1.016159375186677</v>
+        <v>1.01660181620411</v>
       </c>
       <c r="K17">
-        <v>1.045402826880248</v>
+        <v>1.043030917516005</v>
       </c>
       <c r="L17">
-        <v>1.011334056322521</v>
+        <v>1.011729366480914</v>
       </c>
       <c r="M17">
-        <v>1.035198269846843</v>
+        <v>1.035214444224206</v>
       </c>
       <c r="N17">
-        <v>1.009106552926908</v>
+        <v>1.011548293553314</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.037565040631886</v>
+        <v>1.037577826344232</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.043253282856379</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.041592816697507</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.023803422851715</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9890470601383058</v>
+        <v>0.9894679562503609</v>
       </c>
       <c r="D18">
-        <v>1.03229907478438</v>
+        <v>1.029851940841847</v>
       </c>
       <c r="E18">
-        <v>0.9978568561885035</v>
+        <v>0.9982277562475371</v>
       </c>
       <c r="F18">
-        <v>1.021483803777097</v>
+        <v>1.021477711280588</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.048902835641098</v>
+        <v>1.048099898841745</v>
       </c>
       <c r="J18">
-        <v>1.01653033936545</v>
+        <v>1.016934842354979</v>
       </c>
       <c r="K18">
-        <v>1.045582639385364</v>
+        <v>1.043174545315732</v>
       </c>
       <c r="L18">
-        <v>1.01171268591341</v>
+        <v>1.012077151208904</v>
       </c>
       <c r="M18">
-        <v>1.034941724236759</v>
+        <v>1.034935731296289</v>
       </c>
       <c r="N18">
-        <v>1.009153953899781</v>
+        <v>1.011540332239717</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.037123790397327</v>
+        <v>1.037119052034538</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.04336888599022</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.041681689463694</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.023815364311356</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9888902114977133</v>
+        <v>0.9893265863124563</v>
       </c>
       <c r="D19">
-        <v>1.032271779631196</v>
+        <v>1.029839514222448</v>
       </c>
       <c r="E19">
-        <v>0.9976467208505467</v>
+        <v>0.9980366696916516</v>
       </c>
       <c r="F19">
-        <v>1.020493998286707</v>
+        <v>1.020489811211683</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.048723193252131</v>
+        <v>1.047921981491179</v>
       </c>
       <c r="J19">
-        <v>1.016242479983196</v>
+        <v>1.016661951308395</v>
       </c>
       <c r="K19">
-        <v>1.045494092829334</v>
+        <v>1.043100425520439</v>
       </c>
       <c r="L19">
-        <v>1.011441436691795</v>
+        <v>1.011824653137483</v>
       </c>
       <c r="M19">
-        <v>1.033905414423115</v>
+        <v>1.033901295572577</v>
       </c>
       <c r="N19">
-        <v>1.008951106860204</v>
+        <v>1.011381282093246</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.035977520992492</v>
+        <v>1.035974263320457</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.043312617069741</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.041636251385539</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.023779403238777</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.986050804754298</v>
+        <v>0.9866534135016171</v>
       </c>
       <c r="D20">
-        <v>1.031100397234205</v>
+        <v>1.028827729982466</v>
       </c>
       <c r="E20">
-        <v>0.995236954676345</v>
+        <v>0.9957853265903929</v>
       </c>
       <c r="F20">
-        <v>1.017049328835542</v>
+        <v>1.017113997173988</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.047706778458876</v>
+        <v>1.046993376451298</v>
       </c>
       <c r="J20">
-        <v>1.01413024028908</v>
+        <v>1.014708698580856</v>
       </c>
       <c r="K20">
-        <v>1.044617572885686</v>
+        <v>1.042381935855719</v>
       </c>
       <c r="L20">
-        <v>1.009364076755486</v>
+        <v>1.009902693019415</v>
       </c>
       <c r="M20">
-        <v>1.030798867887071</v>
+        <v>1.030862447837036</v>
       </c>
       <c r="N20">
-        <v>1.008050508847975</v>
+        <v>1.01079281114216</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.032988750760357</v>
+        <v>1.033039068028316</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.042696776721901</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.041132533189506</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.023601625485247</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9799749072851927</v>
+        <v>0.9810271247921124</v>
       </c>
       <c r="D21">
-        <v>1.028497691991486</v>
+        <v>1.02657093972192</v>
       </c>
       <c r="E21">
-        <v>0.9903930270233277</v>
+        <v>0.9913552215523476</v>
       </c>
       <c r="F21">
-        <v>1.012973420765417</v>
+        <v>1.013243171242888</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.046053134370093</v>
+        <v>1.045582020985727</v>
       </c>
       <c r="J21">
-        <v>1.010334402114725</v>
+        <v>1.011340083847317</v>
       </c>
       <c r="K21">
-        <v>1.042958558780219</v>
+        <v>1.041065816864333</v>
       </c>
       <c r="L21">
-        <v>1.005558721247393</v>
+        <v>1.006502243867151</v>
       </c>
       <c r="M21">
-        <v>1.027713106755193</v>
+        <v>1.02797791747988</v>
       </c>
       <c r="N21">
-        <v>1.006705048897068</v>
+        <v>1.010292282337829</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.03050538506486</v>
+        <v>1.030714967926668</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.041527005118569</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.040205522218148</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.023356473385228</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9761084954350369</v>
+        <v>0.9774489344615196</v>
       </c>
       <c r="D22">
-        <v>1.026835582126345</v>
+        <v>1.025130343029641</v>
       </c>
       <c r="E22">
-        <v>0.9873251259385392</v>
+        <v>0.9885535550215677</v>
       </c>
       <c r="F22">
-        <v>1.010479067948594</v>
+        <v>1.010881116240407</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.045001712911061</v>
+        <v>1.044686375755593</v>
       </c>
       <c r="J22">
-        <v>1.007934343568487</v>
+        <v>1.009211847854422</v>
       </c>
       <c r="K22">
-        <v>1.041893529364499</v>
+        <v>1.040219877503781</v>
       </c>
       <c r="L22">
-        <v>1.003151926793968</v>
+        <v>1.004355230500338</v>
       </c>
       <c r="M22">
-        <v>1.025845752083991</v>
+        <v>1.026240054652706</v>
       </c>
       <c r="N22">
-        <v>1.005858439672923</v>
+        <v>1.009975880598841</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.029027476598627</v>
+        <v>1.029339545646895</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.040760608413044</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.039592713221708</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.023196679632183</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9781631996485853</v>
+        <v>0.9793277530145285</v>
       </c>
       <c r="D23">
-        <v>1.027702863808754</v>
+        <v>1.025875081720622</v>
       </c>
       <c r="E23">
-        <v>0.9889527228055914</v>
+        <v>0.9900180868135997</v>
       </c>
       <c r="F23">
-        <v>1.011804541862352</v>
+        <v>1.012125846800933</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.045557089078578</v>
+        <v>1.045150222947429</v>
       </c>
       <c r="J23">
-        <v>1.009208467304662</v>
+        <v>1.010320037349013</v>
       </c>
       <c r="K23">
-        <v>1.04244421526259</v>
+        <v>1.040649443784988</v>
       </c>
       <c r="L23">
-        <v>1.004428282703781</v>
+        <v>1.005472450943237</v>
       </c>
       <c r="M23">
-        <v>1.026838238950742</v>
+        <v>1.027153516853589</v>
       </c>
       <c r="N23">
-        <v>1.006304511119292</v>
+        <v>1.010093261006388</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.029812975731914</v>
+        <v>1.030062500781252</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.041140411390207</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.039885931642926</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.023275047486645</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9860547025823434</v>
+        <v>0.986660235867786</v>
       </c>
       <c r="D24">
-        <v>1.031081662928832</v>
+        <v>1.028812008308039</v>
       </c>
       <c r="E24">
-        <v>0.9952251079249257</v>
+        <v>0.9957771575690868</v>
       </c>
       <c r="F24">
-        <v>1.016922571054541</v>
+        <v>1.016987836092973</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.047678788770974</v>
+        <v>1.046966028776533</v>
       </c>
       <c r="J24">
-        <v>1.014100338350358</v>
+        <v>1.014681638563112</v>
       </c>
       <c r="K24">
-        <v>1.04458408361177</v>
+        <v>1.042351364442147</v>
       </c>
       <c r="L24">
-        <v>1.009336598128024</v>
+        <v>1.009878839119495</v>
       </c>
       <c r="M24">
-        <v>1.030658884761203</v>
+        <v>1.030723052425957</v>
       </c>
       <c r="N24">
-        <v>1.008022389167292</v>
+        <v>1.01076916820226</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.032836799873632</v>
+        <v>1.032887584823681</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.0426459421282</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.041081061868057</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.023588518710833</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9948212581841519</v>
+        <v>0.9951165615931628</v>
       </c>
       <c r="D25">
-        <v>1.034878723740891</v>
+        <v>1.032197499160719</v>
       </c>
       <c r="E25">
-        <v>1.002226993653167</v>
+        <v>1.002503028677444</v>
       </c>
       <c r="F25">
-        <v>1.022663755267434</v>
+        <v>1.022583546858542</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.049996536150961</v>
+        <v>1.049061744884954</v>
       </c>
       <c r="J25">
-        <v>1.019524173470771</v>
+        <v>1.019809398043913</v>
       </c>
       <c r="K25">
-        <v>1.046958687926796</v>
+        <v>1.044315736636904</v>
       </c>
       <c r="L25">
-        <v>1.014790836503958</v>
+        <v>1.015062612219819</v>
       </c>
       <c r="M25">
-        <v>1.034920145711939</v>
+        <v>1.034841113469033</v>
       </c>
       <c r="N25">
-        <v>1.009925831691458</v>
+        <v>1.012144035969053</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.036209330487978</v>
+        <v>1.036146781388657</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.044322045385345</v>
+        <v>1.042466814742301</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.023951199006603</v>
       </c>
     </row>
   </sheetData>
